--- a/Raw data/Recorded Crime - Offenders, 2020-21 files/Copy Youth offenders_detailed.xlsx
+++ b/Raw data/Recorded Crime - Offenders, 2020-21 files/Copy Youth offenders_detailed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hk_la\Documents\Project-1\Raw data\Recorded Crime - Offenders, 2020-21 files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4998FD00-DF1F-439D-B48F-8038A429CF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F63D3E-98B4-4E80-BC4B-2CB9F5976A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="458" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="200">
   <si>
     <r>
       <t>Summary</t>
@@ -617,22 +617,10 @@
     <t>Sexual assault and related off</t>
   </si>
   <si>
-    <t>Abduction/harassment</t>
-  </si>
-  <si>
-    <t>Robbery/extortion</t>
-  </si>
-  <si>
     <t>Unlawful entry with intent</t>
   </si>
   <si>
-    <t>Fraud/deception</t>
-  </si>
-  <si>
     <t>Illicit drug offences</t>
-  </si>
-  <si>
-    <t>Weapons/explosives</t>
   </si>
   <si>
     <t>Property damage and environmen</t>
@@ -642,9 +630,6 @@
   </si>
   <si>
     <t>Miscellaneous offences</t>
-  </si>
-  <si>
-    <t>Dangerous/negligent acts</t>
   </si>
   <si>
     <t>Theft</t>
@@ -672,6 +657,9 @@
   </si>
   <si>
     <t>Weapons_explosives</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -901,7 +889,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1078,9 +1066,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1096,20 +1083,18 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1862,12 +1847,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
@@ -1984,10 +1969,10 @@
       <c r="C19" s="6"/>
     </row>
     <row r="20" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="C20" s="90"/>
+      <c r="C20" s="91"/>
     </row>
     <row r="21" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="38"/>
@@ -2100,36 +2085,36 @@
     </row>
     <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="92" t="s">
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="92"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="92"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="93"/>
+      <c r="AA5" s="93"/>
     </row>
     <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
@@ -5897,34 +5882,33 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD72"/>
+  <dimension ref="A1:AB72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6:P36"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="A40:N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.6640625" customWidth="1"/>
-    <col min="2" max="3" width="42.6640625" style="18" customWidth="1"/>
-    <col min="4" max="15" width="11.5546875" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" style="18" customWidth="1"/>
-    <col min="17" max="28" width="11.5546875" customWidth="1"/>
-    <col min="29" max="29" width="11.5546875" style="18" customWidth="1"/>
-    <col min="30" max="30" width="11.5546875" customWidth="1"/>
-    <col min="31" max="31" width="9.109375" customWidth="1"/>
-    <col min="240" max="240" width="9.109375" customWidth="1"/>
+    <col min="2" max="13" width="11.5546875" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" style="18" customWidth="1"/>
+    <col min="15" max="26" width="11.5546875" customWidth="1"/>
+    <col min="27" max="27" width="11.5546875" style="18" customWidth="1"/>
+    <col min="28" max="28" width="11.5546875" customWidth="1"/>
+    <col min="29" max="29" width="9.109375" customWidth="1"/>
+    <col min="238" max="238" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
       <c r="D1" s="66"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
@@ -5934,10 +5918,10 @@
       <c r="J1" s="66"/>
       <c r="K1" s="66"/>
       <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
       <c r="Q1" s="66"/>
       <c r="R1" s="66"/>
       <c r="S1" s="66"/>
@@ -5947,1527 +5931,1421 @@
       <c r="W1" s="66"/>
       <c r="X1" s="66"/>
       <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="66"/>
-    </row>
-    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="66"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="str">
         <f>Contents!A2</f>
         <v>Recorded Crime – Offenders, 2020–21</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-    </row>
-    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="str">
         <f>Contents!A3</f>
         <v>Released at 11.30am (Canberra time) Thurs 10 February 2022</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-    </row>
-    <row r="4" spans="1:30" ht="25.65" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:28" ht="25.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-    </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="93" t="s">
+      <c r="B5" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="92" t="s">
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="92"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="92"/>
-    </row>
-    <row r="6" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="93"/>
+      <c r="AA5" s="93"/>
+    </row>
+    <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>197</v>
+      <c r="B6" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>6</v>
       </c>
       <c r="D6" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="M6" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="O6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="P6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="Q6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="R6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="S6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="T6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="U6" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="V6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="74" t="s">
+      <c r="W6" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="M6" s="74" t="s">
+      <c r="X6" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="N6" s="74" t="s">
+      <c r="Y6" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="O6" s="74" t="s">
+      <c r="Z6" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="P6" s="75" t="s">
+      <c r="AA6" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="Q6" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="R6" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="S6" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="T6" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="U6" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="V6" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="W6" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="X6" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y6" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z6" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA6" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB6" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC6" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>181</v>
+      <c r="B7" s="80">
+        <v>67</v>
+      </c>
+      <c r="C7" s="80">
+        <v>46</v>
       </c>
       <c r="D7" s="80">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E7" s="80">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F7" s="80">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G7" s="80">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H7" s="80">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I7" s="80">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J7" s="80">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K7" s="80">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L7" s="80">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M7" s="80">
-        <v>22</v>
-      </c>
-      <c r="N7" s="80">
-        <v>25</v>
-      </c>
-      <c r="O7" s="80">
         <v>43</v>
       </c>
-      <c r="P7" s="81">
+      <c r="N7" s="81">
         <v>37</v>
       </c>
+      <c r="O7" s="46">
+        <v>5.8</v>
+      </c>
+      <c r="P7" s="46">
+        <v>4</v>
+      </c>
       <c r="Q7" s="46">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="R7" s="46">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="S7" s="46">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="T7" s="46">
+        <v>2</v>
+      </c>
+      <c r="U7" s="46">
+        <v>1.4</v>
+      </c>
+      <c r="V7" s="46">
+        <v>1.5</v>
+      </c>
+      <c r="W7" s="47">
+        <v>1.7</v>
+      </c>
+      <c r="X7" s="65">
+        <v>1.8</v>
+      </c>
+      <c r="Y7" s="47">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="47">
+        <v>3.4</v>
+      </c>
+      <c r="AA7" s="47">
         <v>2.9</v>
       </c>
-      <c r="U7" s="46">
-        <v>2.6</v>
-      </c>
-      <c r="V7" s="46">
-        <v>2</v>
-      </c>
-      <c r="W7" s="46">
-        <v>1.4</v>
-      </c>
-      <c r="X7" s="46">
-        <v>1.5</v>
-      </c>
-      <c r="Y7" s="47">
-        <v>1.7</v>
-      </c>
-      <c r="Z7" s="65">
-        <v>1.8</v>
-      </c>
-      <c r="AA7" s="47">
-        <v>2</v>
-      </c>
-      <c r="AB7" s="47">
-        <v>3.4</v>
-      </c>
-      <c r="AC7" s="47">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>181</v>
+      <c r="B8" s="80">
+        <v>8175</v>
+      </c>
+      <c r="C8" s="80">
+        <v>8329</v>
       </c>
       <c r="D8" s="80">
-        <v>8175</v>
+        <v>7890</v>
       </c>
       <c r="E8" s="80">
-        <v>8329</v>
+        <v>6872</v>
       </c>
       <c r="F8" s="80">
-        <v>7890</v>
+        <v>6211</v>
       </c>
       <c r="G8" s="80">
-        <v>6872</v>
+        <v>5797</v>
       </c>
       <c r="H8" s="80">
-        <v>6211</v>
+        <v>5576</v>
       </c>
       <c r="I8" s="80">
-        <v>5797</v>
+        <v>5591</v>
       </c>
       <c r="J8" s="80">
-        <v>5576</v>
+        <v>5741</v>
       </c>
       <c r="K8" s="80">
-        <v>5591</v>
+        <v>6050</v>
       </c>
       <c r="L8" s="80">
-        <v>5741</v>
+        <v>5844</v>
       </c>
       <c r="M8" s="80">
-        <v>6050</v>
-      </c>
-      <c r="N8" s="80">
-        <v>5844</v>
-      </c>
-      <c r="O8" s="80">
         <v>5951</v>
       </c>
-      <c r="P8" s="81">
+      <c r="N8" s="81">
         <v>6181</v>
       </c>
+      <c r="O8" s="46">
+        <v>710.5</v>
+      </c>
+      <c r="P8" s="46">
+        <v>723</v>
+      </c>
       <c r="Q8" s="46">
-        <v>710.5</v>
+        <v>684.3</v>
       </c>
       <c r="R8" s="46">
-        <v>723</v>
+        <v>594.9</v>
       </c>
       <c r="S8" s="46">
-        <v>684.3</v>
+        <v>537.29999999999995</v>
       </c>
       <c r="T8" s="46">
-        <v>594.9</v>
+        <v>500.8</v>
       </c>
       <c r="U8" s="46">
-        <v>537.29999999999995</v>
+        <v>479.6</v>
       </c>
       <c r="V8" s="46">
-        <v>500.8</v>
-      </c>
-      <c r="W8" s="46">
-        <v>479.6</v>
-      </c>
-      <c r="X8" s="46">
         <v>476.7</v>
       </c>
+      <c r="W8" s="47">
+        <v>482</v>
+      </c>
+      <c r="X8" s="65">
+        <v>498.7</v>
+      </c>
       <c r="Y8" s="47">
-        <v>482</v>
-      </c>
-      <c r="Z8" s="65">
-        <v>498.7</v>
+        <v>473.2</v>
+      </c>
+      <c r="Z8" s="47">
+        <v>472.6</v>
       </c>
       <c r="AA8" s="47">
-        <v>473.2</v>
-      </c>
-      <c r="AB8" s="47">
-        <v>472.6</v>
-      </c>
-      <c r="AC8" s="47">
         <v>483</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>181</v>
+      <c r="B9" s="80">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="80">
+        <v>1039</v>
       </c>
       <c r="D9" s="80">
-        <v>1001</v>
+        <v>902</v>
       </c>
       <c r="E9" s="80">
-        <v>1039</v>
+        <v>884</v>
       </c>
       <c r="F9" s="80">
-        <v>902</v>
+        <v>997</v>
       </c>
       <c r="G9" s="80">
-        <v>884</v>
+        <v>1183</v>
       </c>
       <c r="H9" s="80">
-        <v>997</v>
+        <v>1297</v>
       </c>
       <c r="I9" s="80">
-        <v>1183</v>
+        <v>1228</v>
       </c>
       <c r="J9" s="80">
-        <v>1297</v>
+        <v>1176</v>
       </c>
       <c r="K9" s="80">
-        <v>1228</v>
+        <v>1205</v>
       </c>
       <c r="L9" s="80">
-        <v>1176</v>
+        <v>1141</v>
       </c>
       <c r="M9" s="80">
-        <v>1205</v>
-      </c>
-      <c r="N9" s="80">
-        <v>1141</v>
-      </c>
-      <c r="O9" s="80">
         <v>1154</v>
       </c>
-      <c r="P9" s="81">
+      <c r="N9" s="81">
         <v>1190</v>
       </c>
+      <c r="O9" s="46">
+        <v>87</v>
+      </c>
+      <c r="P9" s="46">
+        <v>90.2</v>
+      </c>
       <c r="Q9" s="46">
-        <v>87</v>
+        <v>78.2</v>
       </c>
       <c r="R9" s="46">
-        <v>90.2</v>
+        <v>76.5</v>
       </c>
       <c r="S9" s="46">
-        <v>78.2</v>
+        <v>86.3</v>
       </c>
       <c r="T9" s="46">
-        <v>76.5</v>
+        <v>102.2</v>
       </c>
       <c r="U9" s="46">
-        <v>86.3</v>
+        <v>111.6</v>
       </c>
       <c r="V9" s="46">
-        <v>102.2</v>
-      </c>
-      <c r="W9" s="46">
-        <v>111.6</v>
-      </c>
-      <c r="X9" s="46">
         <v>104.7</v>
       </c>
+      <c r="W9" s="47">
+        <v>98.7</v>
+      </c>
+      <c r="X9" s="65">
+        <v>99.3</v>
+      </c>
       <c r="Y9" s="47">
-        <v>98.7</v>
-      </c>
-      <c r="Z9" s="65">
-        <v>99.3</v>
+        <v>92.4</v>
+      </c>
+      <c r="Z9" s="47">
+        <v>91.6</v>
       </c>
       <c r="AA9" s="47">
-        <v>92.4</v>
-      </c>
-      <c r="AB9" s="47">
-        <v>91.6</v>
-      </c>
-      <c r="AC9" s="47">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>181</v>
+      <c r="B10" s="80">
+        <v>307</v>
+      </c>
+      <c r="C10" s="80">
+        <v>352</v>
       </c>
       <c r="D10" s="80">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E10" s="80">
-        <v>352</v>
+        <v>278</v>
       </c>
       <c r="F10" s="80">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="G10" s="80">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="H10" s="80">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="I10" s="80">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="J10" s="80">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="K10" s="80">
-        <v>327</v>
+        <v>213</v>
       </c>
       <c r="L10" s="80">
-        <v>359</v>
+        <v>197</v>
       </c>
       <c r="M10" s="80">
-        <v>213</v>
-      </c>
-      <c r="N10" s="80">
-        <v>197</v>
-      </c>
-      <c r="O10" s="80">
         <v>130</v>
       </c>
-      <c r="P10" s="81">
+      <c r="N10" s="81">
         <v>186</v>
       </c>
+      <c r="O10" s="46">
+        <v>26.7</v>
+      </c>
+      <c r="P10" s="46">
+        <v>30.6</v>
+      </c>
       <c r="Q10" s="46">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="R10" s="46">
-        <v>30.6</v>
+        <v>24.1</v>
       </c>
       <c r="S10" s="46">
-        <v>26.8</v>
+        <v>25.5</v>
       </c>
       <c r="T10" s="46">
-        <v>24.1</v>
+        <v>26.3</v>
       </c>
       <c r="U10" s="46">
-        <v>25.5</v>
+        <v>28</v>
       </c>
       <c r="V10" s="46">
-        <v>26.3</v>
-      </c>
-      <c r="W10" s="46">
-        <v>28</v>
-      </c>
-      <c r="X10" s="46">
         <v>27.9</v>
       </c>
+      <c r="W10" s="47">
+        <v>30.1</v>
+      </c>
+      <c r="X10" s="65">
+        <v>17.600000000000001</v>
+      </c>
       <c r="Y10" s="47">
-        <v>30.1</v>
-      </c>
-      <c r="Z10" s="65">
-        <v>17.600000000000001</v>
+        <v>16</v>
+      </c>
+      <c r="Z10" s="47">
+        <v>10.3</v>
       </c>
       <c r="AA10" s="47">
-        <v>16</v>
-      </c>
-      <c r="AB10" s="47">
-        <v>10.3</v>
-      </c>
-      <c r="AC10" s="47">
         <v>14.5</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>181</v>
+      <c r="B11" s="80">
+        <v>488</v>
+      </c>
+      <c r="C11" s="80">
+        <v>550</v>
       </c>
       <c r="D11" s="80">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="E11" s="80">
-        <v>550</v>
+        <v>454</v>
       </c>
       <c r="F11" s="80">
-        <v>512</v>
+        <v>384</v>
       </c>
       <c r="G11" s="80">
-        <v>454</v>
+        <v>388</v>
       </c>
       <c r="H11" s="80">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="I11" s="80">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="J11" s="80">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="K11" s="80">
-        <v>414</v>
+        <v>310</v>
       </c>
       <c r="L11" s="80">
-        <v>414</v>
+        <v>281</v>
       </c>
       <c r="M11" s="80">
-        <v>310</v>
-      </c>
-      <c r="N11" s="80">
-        <v>281</v>
-      </c>
-      <c r="O11" s="80">
         <v>325</v>
       </c>
-      <c r="P11" s="81">
+      <c r="N11" s="81">
         <v>322</v>
       </c>
+      <c r="O11" s="46">
+        <v>42.4</v>
+      </c>
+      <c r="P11" s="46">
+        <v>47.7</v>
+      </c>
       <c r="Q11" s="46">
-        <v>42.4</v>
+        <v>44.4</v>
       </c>
       <c r="R11" s="46">
-        <v>47.7</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="S11" s="46">
-        <v>44.4</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="T11" s="46">
-        <v>39.299999999999997</v>
+        <v>33.5</v>
       </c>
       <c r="U11" s="46">
-        <v>33.200000000000003</v>
+        <v>36.1</v>
       </c>
       <c r="V11" s="46">
-        <v>33.5</v>
-      </c>
-      <c r="W11" s="46">
-        <v>36.1</v>
-      </c>
-      <c r="X11" s="46">
         <v>35.299999999999997</v>
       </c>
+      <c r="W11" s="47">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="X11" s="65">
+        <v>25.6</v>
+      </c>
       <c r="Y11" s="47">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="Z11" s="65">
-        <v>25.6</v>
+        <v>22.8</v>
+      </c>
+      <c r="Z11" s="47">
+        <v>25.8</v>
       </c>
       <c r="AA11" s="47">
-        <v>22.8</v>
-      </c>
-      <c r="AB11" s="47">
-        <v>25.8</v>
-      </c>
-      <c r="AC11" s="47">
         <v>25.2</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>181</v>
+      <c r="B12" s="80">
+        <v>1162</v>
+      </c>
+      <c r="C12" s="80">
+        <v>1355</v>
       </c>
       <c r="D12" s="80">
-        <v>1162</v>
+        <v>1322</v>
       </c>
       <c r="E12" s="80">
-        <v>1355</v>
+        <v>1062</v>
       </c>
       <c r="F12" s="80">
-        <v>1322</v>
+        <v>884</v>
       </c>
       <c r="G12" s="80">
-        <v>1062</v>
+        <v>804</v>
       </c>
       <c r="H12" s="80">
-        <v>884</v>
+        <v>755</v>
       </c>
       <c r="I12" s="80">
-        <v>804</v>
+        <v>743</v>
       </c>
       <c r="J12" s="80">
-        <v>755</v>
+        <v>842</v>
       </c>
       <c r="K12" s="80">
-        <v>743</v>
+        <v>1032</v>
       </c>
       <c r="L12" s="80">
-        <v>842</v>
+        <v>1204</v>
       </c>
       <c r="M12" s="80">
-        <v>1032</v>
-      </c>
-      <c r="N12" s="80">
-        <v>1204</v>
-      </c>
-      <c r="O12" s="80">
         <v>1400</v>
       </c>
-      <c r="P12" s="81">
+      <c r="N12" s="81">
         <v>1126</v>
       </c>
+      <c r="O12" s="46">
+        <v>101</v>
+      </c>
+      <c r="P12" s="46">
+        <v>117.6</v>
+      </c>
       <c r="Q12" s="46">
-        <v>101</v>
+        <v>114.7</v>
       </c>
       <c r="R12" s="46">
-        <v>117.6</v>
+        <v>91.9</v>
       </c>
       <c r="S12" s="46">
-        <v>114.7</v>
+        <v>76.5</v>
       </c>
       <c r="T12" s="46">
-        <v>91.9</v>
+        <v>69.5</v>
       </c>
       <c r="U12" s="46">
-        <v>76.5</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="V12" s="46">
-        <v>69.5</v>
-      </c>
-      <c r="W12" s="46">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="X12" s="46">
         <v>63.4</v>
       </c>
+      <c r="W12" s="47">
+        <v>70.7</v>
+      </c>
+      <c r="X12" s="65">
+        <v>85.1</v>
+      </c>
       <c r="Y12" s="47">
-        <v>70.7</v>
-      </c>
-      <c r="Z12" s="65">
-        <v>85.1</v>
+        <v>97.5</v>
+      </c>
+      <c r="Z12" s="47">
+        <v>111.2</v>
       </c>
       <c r="AA12" s="47">
-        <v>97.5</v>
-      </c>
-      <c r="AB12" s="47">
-        <v>111.2</v>
-      </c>
-      <c r="AC12" s="47">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>181</v>
+      <c r="B13" s="80">
+        <v>6135</v>
+      </c>
+      <c r="C13" s="80">
+        <v>6377</v>
       </c>
       <c r="D13" s="80">
-        <v>6135</v>
+        <v>6130</v>
       </c>
       <c r="E13" s="80">
-        <v>6377</v>
+        <v>5102</v>
       </c>
       <c r="F13" s="80">
-        <v>6130</v>
+        <v>4473</v>
       </c>
       <c r="G13" s="80">
-        <v>5102</v>
+        <v>4131</v>
       </c>
       <c r="H13" s="80">
-        <v>4473</v>
+        <v>3709</v>
       </c>
       <c r="I13" s="80">
-        <v>4131</v>
+        <v>3779</v>
       </c>
       <c r="J13" s="80">
-        <v>3709</v>
+        <v>3745</v>
       </c>
       <c r="K13" s="80">
-        <v>3779</v>
+        <v>3641</v>
       </c>
       <c r="L13" s="80">
-        <v>3745</v>
+        <v>3277</v>
       </c>
       <c r="M13" s="80">
-        <v>3641</v>
-      </c>
-      <c r="N13" s="80">
-        <v>3277</v>
-      </c>
-      <c r="O13" s="80">
         <v>3067</v>
       </c>
-      <c r="P13" s="81">
+      <c r="N13" s="81">
         <v>2765</v>
       </c>
+      <c r="O13" s="46">
+        <v>533.20000000000005</v>
+      </c>
+      <c r="P13" s="46">
+        <v>553.6</v>
+      </c>
       <c r="Q13" s="46">
-        <v>533.20000000000005</v>
+        <v>531.70000000000005</v>
       </c>
       <c r="R13" s="46">
-        <v>553.6</v>
+        <v>441.7</v>
       </c>
       <c r="S13" s="46">
-        <v>531.70000000000005</v>
+        <v>387</v>
       </c>
       <c r="T13" s="46">
-        <v>441.7</v>
+        <v>356.9</v>
       </c>
       <c r="U13" s="46">
-        <v>387</v>
+        <v>319</v>
       </c>
       <c r="V13" s="46">
-        <v>356.9</v>
-      </c>
-      <c r="W13" s="46">
-        <v>319</v>
-      </c>
-      <c r="X13" s="46">
         <v>322.2</v>
       </c>
+      <c r="W13" s="47">
+        <v>314.5</v>
+      </c>
+      <c r="X13" s="65">
+        <v>300.10000000000002</v>
+      </c>
       <c r="Y13" s="47">
-        <v>314.5</v>
-      </c>
-      <c r="Z13" s="65">
-        <v>300.10000000000002</v>
+        <v>265.3</v>
+      </c>
+      <c r="Z13" s="47">
+        <v>243.5</v>
       </c>
       <c r="AA13" s="47">
-        <v>265.3</v>
-      </c>
-      <c r="AB13" s="47">
-        <v>243.5</v>
-      </c>
-      <c r="AC13" s="47">
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>181</v>
+      <c r="B14" s="80">
+        <v>11763</v>
+      </c>
+      <c r="C14" s="80">
+        <v>12732</v>
       </c>
       <c r="D14" s="80">
-        <v>11763</v>
+        <v>13181</v>
       </c>
       <c r="E14" s="80">
-        <v>12732</v>
+        <v>12717</v>
       </c>
       <c r="F14" s="80">
-        <v>13181</v>
+        <v>10612</v>
       </c>
       <c r="G14" s="80">
-        <v>12717</v>
+        <v>6742</v>
       </c>
       <c r="H14" s="80">
-        <v>10612</v>
+        <v>5338</v>
       </c>
       <c r="I14" s="80">
-        <v>6742</v>
+        <v>5134</v>
       </c>
       <c r="J14" s="80">
-        <v>5338</v>
+        <v>4870</v>
       </c>
       <c r="K14" s="80">
-        <v>5134</v>
+        <v>4838</v>
       </c>
       <c r="L14" s="80">
-        <v>4870</v>
+        <v>4086</v>
       </c>
       <c r="M14" s="80">
-        <v>4838</v>
-      </c>
-      <c r="N14" s="80">
-        <v>4086</v>
-      </c>
-      <c r="O14" s="80">
         <v>3901</v>
       </c>
-      <c r="P14" s="81">
+      <c r="N14" s="81">
         <v>2967</v>
       </c>
+      <c r="O14" s="46">
+        <v>1022.3</v>
+      </c>
+      <c r="P14" s="46">
+        <v>1105.3</v>
+      </c>
       <c r="Q14" s="46">
-        <v>1022.3</v>
+        <v>1143.2</v>
       </c>
       <c r="R14" s="46">
-        <v>1105.3</v>
+        <v>1100.9000000000001</v>
       </c>
       <c r="S14" s="46">
-        <v>1143.2</v>
+        <v>918.1</v>
       </c>
       <c r="T14" s="46">
-        <v>1100.9000000000001</v>
+        <v>582.5</v>
       </c>
       <c r="U14" s="46">
-        <v>918.1</v>
+        <v>459.1</v>
       </c>
       <c r="V14" s="46">
-        <v>582.5</v>
-      </c>
-      <c r="W14" s="46">
-        <v>459.1</v>
-      </c>
-      <c r="X14" s="46">
         <v>437.8</v>
       </c>
+      <c r="W14" s="47">
+        <v>408.9</v>
+      </c>
+      <c r="X14" s="65">
+        <v>398.8</v>
+      </c>
       <c r="Y14" s="47">
-        <v>408.9</v>
-      </c>
-      <c r="Z14" s="65">
-        <v>398.8</v>
+        <v>330.8</v>
+      </c>
+      <c r="Z14" s="47">
+        <v>309.8</v>
       </c>
       <c r="AA14" s="47">
-        <v>330.8</v>
-      </c>
-      <c r="AB14" s="47">
-        <v>309.8</v>
-      </c>
-      <c r="AC14" s="47">
         <v>231.8</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>181</v>
+      <c r="B15" s="80">
+        <v>569</v>
+      </c>
+      <c r="C15" s="80">
+        <v>561</v>
       </c>
       <c r="D15" s="80">
-        <v>569</v>
+        <v>465</v>
       </c>
       <c r="E15" s="80">
+        <v>414</v>
+      </c>
+      <c r="F15" s="80">
+        <v>472</v>
+      </c>
+      <c r="G15" s="80">
+        <v>667</v>
+      </c>
+      <c r="H15" s="80">
+        <v>726</v>
+      </c>
+      <c r="I15" s="80">
+        <v>602</v>
+      </c>
+      <c r="J15" s="80">
         <v>561</v>
       </c>
-      <c r="F15" s="80">
-        <v>465</v>
-      </c>
-      <c r="G15" s="80">
-        <v>414</v>
-      </c>
-      <c r="H15" s="80">
-        <v>472</v>
-      </c>
-      <c r="I15" s="80">
-        <v>667</v>
-      </c>
-      <c r="J15" s="80">
-        <v>726</v>
-      </c>
       <c r="K15" s="80">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="L15" s="80">
-        <v>561</v>
+        <v>604</v>
       </c>
       <c r="M15" s="80">
-        <v>612</v>
-      </c>
-      <c r="N15" s="80">
-        <v>604</v>
-      </c>
-      <c r="O15" s="80">
         <v>556</v>
       </c>
-      <c r="P15" s="81">
+      <c r="N15" s="81">
         <v>534</v>
       </c>
+      <c r="O15" s="46">
+        <v>49.5</v>
+      </c>
+      <c r="P15" s="46">
+        <v>48.7</v>
+      </c>
       <c r="Q15" s="46">
-        <v>49.5</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="R15" s="46">
-        <v>48.7</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="S15" s="46">
-        <v>40.299999999999997</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="T15" s="46">
-        <v>35.799999999999997</v>
+        <v>57.6</v>
       </c>
       <c r="U15" s="46">
-        <v>40.799999999999997</v>
+        <v>62.4</v>
       </c>
       <c r="V15" s="46">
-        <v>57.6</v>
-      </c>
-      <c r="W15" s="46">
-        <v>62.4</v>
-      </c>
-      <c r="X15" s="46">
         <v>51.3</v>
       </c>
+      <c r="W15" s="47">
+        <v>47.1</v>
+      </c>
+      <c r="X15" s="65">
+        <v>50.4</v>
+      </c>
       <c r="Y15" s="47">
-        <v>47.1</v>
-      </c>
-      <c r="Z15" s="65">
-        <v>50.4</v>
+        <v>48.9</v>
+      </c>
+      <c r="Z15" s="47">
+        <v>44.2</v>
       </c>
       <c r="AA15" s="47">
-        <v>48.9</v>
-      </c>
-      <c r="AB15" s="47">
-        <v>44.2</v>
-      </c>
-      <c r="AC15" s="47">
         <v>41.7</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>181</v>
+      <c r="B16" s="80">
+        <v>3140</v>
+      </c>
+      <c r="C16" s="80">
+        <v>3621</v>
       </c>
       <c r="D16" s="80">
-        <v>3140</v>
+        <v>3780</v>
       </c>
       <c r="E16" s="80">
-        <v>3621</v>
+        <v>3699</v>
       </c>
       <c r="F16" s="80">
-        <v>3780</v>
+        <v>4109</v>
       </c>
       <c r="G16" s="80">
-        <v>3699</v>
+        <v>4438</v>
       </c>
       <c r="H16" s="80">
-        <v>4109</v>
+        <v>4731</v>
       </c>
       <c r="I16" s="80">
-        <v>4438</v>
+        <v>4484</v>
       </c>
       <c r="J16" s="80">
-        <v>4731</v>
+        <v>4502</v>
       </c>
       <c r="K16" s="80">
-        <v>4484</v>
+        <v>4180</v>
       </c>
       <c r="L16" s="80">
-        <v>4502</v>
+        <v>3927</v>
       </c>
       <c r="M16" s="80">
-        <v>4180</v>
-      </c>
-      <c r="N16" s="80">
-        <v>3927</v>
-      </c>
-      <c r="O16" s="80">
         <v>3831</v>
       </c>
-      <c r="P16" s="81">
+      <c r="N16" s="81">
         <v>2985</v>
       </c>
+      <c r="O16" s="46">
+        <v>272.89999999999998</v>
+      </c>
+      <c r="P16" s="46">
+        <v>314.3</v>
+      </c>
       <c r="Q16" s="46">
-        <v>272.89999999999998</v>
+        <v>327.8</v>
       </c>
       <c r="R16" s="46">
-        <v>314.3</v>
+        <v>320.2</v>
       </c>
       <c r="S16" s="46">
-        <v>327.8</v>
+        <v>355.5</v>
       </c>
       <c r="T16" s="46">
-        <v>320.2</v>
+        <v>383.4</v>
       </c>
       <c r="U16" s="46">
-        <v>355.5</v>
+        <v>406.9</v>
       </c>
       <c r="V16" s="46">
-        <v>383.4</v>
-      </c>
-      <c r="W16" s="46">
-        <v>406.9</v>
-      </c>
-      <c r="X16" s="46">
         <v>382.4</v>
       </c>
+      <c r="W16" s="47">
+        <v>378</v>
+      </c>
+      <c r="X16" s="65">
+        <v>344.6</v>
+      </c>
       <c r="Y16" s="47">
-        <v>378</v>
-      </c>
-      <c r="Z16" s="65">
-        <v>344.6</v>
+        <v>317.89999999999998</v>
+      </c>
+      <c r="Z16" s="47">
+        <v>304.2</v>
       </c>
       <c r="AA16" s="47">
-        <v>317.89999999999998</v>
-      </c>
-      <c r="AB16" s="47">
-        <v>304.2</v>
-      </c>
-      <c r="AC16" s="47">
         <v>233.2</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>181</v>
+      <c r="B17" s="80">
+        <v>1360</v>
+      </c>
+      <c r="C17" s="80">
+        <v>1427</v>
       </c>
       <c r="D17" s="80">
-        <v>1360</v>
+        <v>1229</v>
       </c>
       <c r="E17" s="80">
-        <v>1427</v>
+        <v>1063</v>
       </c>
       <c r="F17" s="80">
-        <v>1229</v>
+        <v>954</v>
       </c>
       <c r="G17" s="80">
-        <v>1063</v>
+        <v>808</v>
       </c>
       <c r="H17" s="80">
-        <v>954</v>
+        <v>786</v>
       </c>
       <c r="I17" s="80">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="J17" s="80">
-        <v>786</v>
+        <v>827</v>
       </c>
       <c r="K17" s="80">
-        <v>817</v>
+        <v>1039</v>
       </c>
       <c r="L17" s="80">
-        <v>827</v>
+        <v>1050</v>
       </c>
       <c r="M17" s="80">
-        <v>1039</v>
-      </c>
-      <c r="N17" s="80">
-        <v>1050</v>
-      </c>
-      <c r="O17" s="80">
         <v>1120</v>
       </c>
-      <c r="P17" s="81">
+      <c r="N17" s="81">
         <v>995</v>
       </c>
+      <c r="O17" s="46">
+        <v>118.2</v>
+      </c>
+      <c r="P17" s="46">
+        <v>123.9</v>
+      </c>
       <c r="Q17" s="46">
-        <v>118.2</v>
+        <v>106.6</v>
       </c>
       <c r="R17" s="46">
-        <v>123.9</v>
+        <v>92</v>
       </c>
       <c r="S17" s="46">
-        <v>106.6</v>
+        <v>82.5</v>
       </c>
       <c r="T17" s="46">
-        <v>92</v>
+        <v>69.8</v>
       </c>
       <c r="U17" s="46">
-        <v>82.5</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="V17" s="46">
-        <v>69.8</v>
-      </c>
-      <c r="W17" s="46">
-        <v>67.599999999999994</v>
-      </c>
-      <c r="X17" s="46">
         <v>69.7</v>
       </c>
+      <c r="W17" s="47">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="X17" s="65">
+        <v>85.6</v>
+      </c>
       <c r="Y17" s="47">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="Z17" s="65">
-        <v>85.6</v>
+        <v>85</v>
+      </c>
+      <c r="Z17" s="47">
+        <v>88.9</v>
       </c>
       <c r="AA17" s="47">
-        <v>85</v>
-      </c>
-      <c r="AB17" s="47">
-        <v>88.9</v>
-      </c>
-      <c r="AC17" s="47">
         <v>77.7</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>181</v>
+      <c r="B18" s="80">
+        <v>5946</v>
+      </c>
+      <c r="C18" s="80">
+        <v>5641</v>
       </c>
       <c r="D18" s="80">
-        <v>5946</v>
+        <v>5091</v>
       </c>
       <c r="E18" s="80">
-        <v>5641</v>
+        <v>4314</v>
       </c>
       <c r="F18" s="80">
-        <v>5091</v>
+        <v>3949</v>
       </c>
       <c r="G18" s="80">
-        <v>4314</v>
+        <v>3238</v>
       </c>
       <c r="H18" s="80">
-        <v>3949</v>
+        <v>2981</v>
       </c>
       <c r="I18" s="80">
-        <v>3238</v>
+        <v>2940</v>
       </c>
       <c r="J18" s="80">
-        <v>2981</v>
+        <v>2751</v>
       </c>
       <c r="K18" s="80">
-        <v>2940</v>
+        <v>2579</v>
       </c>
       <c r="L18" s="80">
-        <v>2751</v>
+        <v>2292</v>
       </c>
       <c r="M18" s="80">
-        <v>2579</v>
-      </c>
-      <c r="N18" s="80">
-        <v>2292</v>
-      </c>
-      <c r="O18" s="80">
         <v>2181</v>
       </c>
-      <c r="P18" s="81">
+      <c r="N18" s="81">
         <v>2173</v>
       </c>
+      <c r="O18" s="46">
+        <v>516.79999999999995</v>
+      </c>
+      <c r="P18" s="46">
+        <v>489.7</v>
+      </c>
       <c r="Q18" s="46">
-        <v>516.79999999999995</v>
+        <v>441.5</v>
       </c>
       <c r="R18" s="46">
-        <v>489.7</v>
+        <v>373.5</v>
       </c>
       <c r="S18" s="46">
-        <v>441.5</v>
+        <v>341.6</v>
       </c>
       <c r="T18" s="46">
-        <v>373.5</v>
+        <v>279.7</v>
       </c>
       <c r="U18" s="46">
-        <v>341.6</v>
+        <v>256.39999999999998</v>
       </c>
       <c r="V18" s="46">
-        <v>279.7</v>
-      </c>
-      <c r="W18" s="46">
-        <v>256.39999999999998</v>
-      </c>
-      <c r="X18" s="46">
         <v>250.7</v>
       </c>
+      <c r="W18" s="47">
+        <v>231</v>
+      </c>
+      <c r="X18" s="65">
+        <v>212.6</v>
+      </c>
       <c r="Y18" s="47">
-        <v>231</v>
-      </c>
-      <c r="Z18" s="65">
-        <v>212.6</v>
+        <v>185.6</v>
+      </c>
+      <c r="Z18" s="47">
+        <v>173.2</v>
       </c>
       <c r="AA18" s="47">
-        <v>185.6</v>
-      </c>
-      <c r="AB18" s="47">
-        <v>173.2</v>
-      </c>
-      <c r="AC18" s="47">
         <v>169.8</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>181</v>
+      <c r="B19" s="80">
+        <v>7869</v>
+      </c>
+      <c r="C19" s="80">
+        <v>7757</v>
       </c>
       <c r="D19" s="80">
-        <v>7869</v>
+        <v>7045</v>
       </c>
       <c r="E19" s="80">
-        <v>7757</v>
+        <v>5624</v>
       </c>
       <c r="F19" s="80">
-        <v>7045</v>
+        <v>4988</v>
       </c>
       <c r="G19" s="80">
-        <v>5624</v>
+        <v>4478</v>
       </c>
       <c r="H19" s="80">
-        <v>4988</v>
+        <v>3897</v>
       </c>
       <c r="I19" s="80">
-        <v>4478</v>
+        <v>4124</v>
       </c>
       <c r="J19" s="80">
-        <v>3897</v>
+        <v>3794</v>
       </c>
       <c r="K19" s="80">
-        <v>4124</v>
+        <v>3654</v>
       </c>
       <c r="L19" s="80">
-        <v>3794</v>
+        <v>3102</v>
       </c>
       <c r="M19" s="80">
-        <v>3654</v>
-      </c>
-      <c r="N19" s="80">
-        <v>3102</v>
-      </c>
-      <c r="O19" s="80">
         <v>2896</v>
       </c>
-      <c r="P19" s="81">
+      <c r="N19" s="81">
         <v>2748</v>
       </c>
+      <c r="O19" s="46">
+        <v>683.9</v>
+      </c>
+      <c r="P19" s="46">
+        <v>673.4</v>
+      </c>
       <c r="Q19" s="46">
-        <v>683.9</v>
+        <v>611</v>
       </c>
       <c r="R19" s="46">
-        <v>673.4</v>
+        <v>486.9</v>
       </c>
       <c r="S19" s="46">
-        <v>611</v>
+        <v>431.5</v>
       </c>
       <c r="T19" s="46">
-        <v>486.9</v>
+        <v>386.9</v>
       </c>
       <c r="U19" s="46">
-        <v>431.5</v>
+        <v>335.2</v>
       </c>
       <c r="V19" s="46">
-        <v>386.9</v>
-      </c>
-      <c r="W19" s="46">
-        <v>335.2</v>
-      </c>
-      <c r="X19" s="46">
         <v>351.7</v>
       </c>
+      <c r="W19" s="47">
+        <v>318.60000000000002</v>
+      </c>
+      <c r="X19" s="58">
+        <v>301.2</v>
+      </c>
       <c r="Y19" s="47">
-        <v>318.60000000000002</v>
-      </c>
-      <c r="Z19" s="58">
-        <v>301.2</v>
+        <v>251.2</v>
+      </c>
+      <c r="Z19" s="47">
+        <v>230</v>
       </c>
       <c r="AA19" s="47">
-        <v>251.2</v>
-      </c>
-      <c r="AB19" s="47">
-        <v>230</v>
-      </c>
-      <c r="AC19" s="47">
         <v>214.7</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>181</v>
+      <c r="B20" s="80">
+        <v>1055</v>
+      </c>
+      <c r="C20" s="80">
+        <v>910</v>
       </c>
       <c r="D20" s="80">
-        <v>1055</v>
+        <v>790</v>
       </c>
       <c r="E20" s="80">
-        <v>910</v>
+        <v>676</v>
       </c>
       <c r="F20" s="80">
-        <v>790</v>
+        <v>647</v>
       </c>
       <c r="G20" s="80">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="H20" s="80">
-        <v>647</v>
+        <v>567</v>
       </c>
       <c r="I20" s="80">
-        <v>666</v>
+        <v>561</v>
       </c>
       <c r="J20" s="80">
-        <v>567</v>
+        <v>431</v>
       </c>
       <c r="K20" s="80">
-        <v>561</v>
+        <v>459</v>
       </c>
       <c r="L20" s="80">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="M20" s="80">
-        <v>459</v>
-      </c>
-      <c r="N20" s="80">
-        <v>424</v>
-      </c>
-      <c r="O20" s="80">
         <v>382</v>
       </c>
-      <c r="P20" s="81">
+      <c r="N20" s="81">
         <v>365</v>
       </c>
+      <c r="O20" s="46">
+        <v>91.7</v>
+      </c>
+      <c r="P20" s="46">
+        <v>79</v>
+      </c>
       <c r="Q20" s="46">
-        <v>91.7</v>
+        <v>68.5</v>
       </c>
       <c r="R20" s="46">
-        <v>79</v>
+        <v>58.5</v>
       </c>
       <c r="S20" s="46">
-        <v>68.5</v>
+        <v>56</v>
       </c>
       <c r="T20" s="46">
-        <v>58.5</v>
+        <v>57.5</v>
       </c>
       <c r="U20" s="46">
-        <v>56</v>
+        <v>48.8</v>
       </c>
       <c r="V20" s="46">
-        <v>57.5</v>
-      </c>
-      <c r="W20" s="46">
-        <v>48.8</v>
-      </c>
-      <c r="X20" s="46">
         <v>47.8</v>
       </c>
+      <c r="W20" s="47">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="X20" s="65">
+        <v>37.799999999999997</v>
+      </c>
       <c r="Y20" s="47">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="Z20" s="65">
-        <v>37.799999999999997</v>
+        <v>34.299999999999997</v>
+      </c>
+      <c r="Z20" s="47">
+        <v>30.3</v>
       </c>
       <c r="AA20" s="47">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="AB20" s="47">
-        <v>30.3</v>
-      </c>
-      <c r="AC20" s="47">
         <v>28.5</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>181</v>
+      <c r="B21" s="80">
+        <v>1127</v>
+      </c>
+      <c r="C21" s="80">
+        <v>1475</v>
       </c>
       <c r="D21" s="80">
-        <v>1127</v>
+        <v>1916</v>
       </c>
       <c r="E21" s="80">
-        <v>1475</v>
+        <v>2093</v>
       </c>
       <c r="F21" s="80">
-        <v>1916</v>
+        <v>3064</v>
       </c>
       <c r="G21" s="80">
-        <v>2093</v>
+        <v>1087</v>
       </c>
       <c r="H21" s="80">
-        <v>3064</v>
+        <v>1072</v>
       </c>
       <c r="I21" s="80">
-        <v>1087</v>
+        <v>1039</v>
       </c>
       <c r="J21" s="80">
-        <v>1072</v>
+        <v>818</v>
       </c>
       <c r="K21" s="80">
-        <v>1039</v>
+        <v>809</v>
       </c>
       <c r="L21" s="80">
-        <v>818</v>
+        <v>688</v>
       </c>
       <c r="M21" s="80">
-        <v>809</v>
-      </c>
-      <c r="N21" s="80">
-        <v>688</v>
-      </c>
-      <c r="O21" s="80">
         <v>779</v>
       </c>
-      <c r="P21" s="81">
+      <c r="N21" s="81">
         <v>1037</v>
       </c>
+      <c r="O21" s="46">
+        <v>97.9</v>
+      </c>
+      <c r="P21" s="46">
+        <v>128</v>
+      </c>
       <c r="Q21" s="46">
-        <v>97.9</v>
+        <v>166.2</v>
       </c>
       <c r="R21" s="46">
-        <v>128</v>
+        <v>181.2</v>
       </c>
       <c r="S21" s="46">
-        <v>166.2</v>
+        <v>265.10000000000002</v>
       </c>
       <c r="T21" s="46">
-        <v>181.2</v>
+        <v>93.9</v>
       </c>
       <c r="U21" s="46">
-        <v>265.10000000000002</v>
+        <v>92.2</v>
       </c>
       <c r="V21" s="46">
-        <v>93.9</v>
-      </c>
-      <c r="W21" s="46">
-        <v>92.2</v>
-      </c>
-      <c r="X21" s="46">
         <v>88.6</v>
       </c>
+      <c r="W21" s="47">
+        <v>68.7</v>
+      </c>
+      <c r="X21" s="58">
+        <v>66.7</v>
+      </c>
       <c r="Y21" s="47">
-        <v>68.7</v>
-      </c>
-      <c r="Z21" s="58">
-        <v>66.7</v>
+        <v>55.7</v>
+      </c>
+      <c r="Z21" s="47">
+        <v>61.9</v>
       </c>
       <c r="AA21" s="47">
-        <v>55.7</v>
-      </c>
-      <c r="AB21" s="47">
-        <v>61.9</v>
-      </c>
-      <c r="AC21" s="47">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>180</v>
+      <c r="B22" s="80">
+        <v>3</v>
+      </c>
+      <c r="C22" s="80">
+        <v>7</v>
       </c>
       <c r="D22" s="80">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E22" s="80">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F22" s="80">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G22" s="80">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H22" s="80">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I22" s="80">
         <v>4</v>
       </c>
       <c r="J22" s="80">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K22" s="80">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L22" s="80">
         <v>3</v>
@@ -7475,1478 +7353,1384 @@
       <c r="M22" s="80">
         <v>6</v>
       </c>
-      <c r="N22" s="80">
-        <v>3</v>
-      </c>
-      <c r="O22" s="80">
+      <c r="N22" s="81">
         <v>6</v>
       </c>
-      <c r="P22" s="81">
-        <v>6</v>
+      <c r="O22" s="46">
+        <v>0.3</v>
+      </c>
+      <c r="P22" s="46">
+        <v>0.6</v>
       </c>
       <c r="Q22" s="46">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="R22" s="46">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="S22" s="46">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="T22" s="46">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="U22" s="46">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="V22" s="46">
         <v>0.4</v>
       </c>
-      <c r="W22" s="46">
-        <v>0.9</v>
-      </c>
-      <c r="X22" s="46">
-        <v>0.4</v>
+      <c r="W22" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="X22" s="65">
+        <v>0.5</v>
       </c>
       <c r="Y22" s="47">
         <v>0.3</v>
       </c>
-      <c r="Z22" s="65">
+      <c r="Z22" s="47">
         <v>0.5</v>
       </c>
       <c r="AA22" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="AB22" s="47">
         <v>0.5</v>
       </c>
-      <c r="AC22" s="47">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>180</v>
+      <c r="B23" s="80">
+        <v>3579</v>
+      </c>
+      <c r="C23" s="80">
+        <v>3897</v>
       </c>
       <c r="D23" s="80">
-        <v>3579</v>
+        <v>4110</v>
       </c>
       <c r="E23" s="80">
-        <v>3897</v>
+        <v>3487</v>
       </c>
       <c r="F23" s="80">
-        <v>4110</v>
+        <v>3115</v>
       </c>
       <c r="G23" s="80">
-        <v>3487</v>
+        <v>2863</v>
       </c>
       <c r="H23" s="80">
-        <v>3115</v>
+        <v>2762</v>
       </c>
       <c r="I23" s="80">
-        <v>2863</v>
+        <v>2892</v>
       </c>
       <c r="J23" s="80">
-        <v>2762</v>
+        <v>3021</v>
       </c>
       <c r="K23" s="80">
-        <v>2892</v>
+        <v>3371</v>
       </c>
       <c r="L23" s="80">
-        <v>3021</v>
+        <v>3568</v>
       </c>
       <c r="M23" s="80">
-        <v>3371</v>
-      </c>
-      <c r="N23" s="80">
-        <v>3568</v>
-      </c>
-      <c r="O23" s="80">
         <v>3481</v>
       </c>
-      <c r="P23" s="81">
+      <c r="N23" s="81">
         <v>3662</v>
       </c>
+      <c r="O23" s="46">
+        <v>328.2</v>
+      </c>
+      <c r="P23" s="46">
+        <v>356.8</v>
+      </c>
       <c r="Q23" s="46">
-        <v>328.2</v>
+        <v>375.9</v>
       </c>
       <c r="R23" s="46">
-        <v>356.8</v>
+        <v>318.2</v>
       </c>
       <c r="S23" s="46">
-        <v>375.9</v>
+        <v>283.60000000000002</v>
       </c>
       <c r="T23" s="46">
-        <v>318.2</v>
+        <v>260.2</v>
       </c>
       <c r="U23" s="46">
-        <v>283.60000000000002</v>
+        <v>250.2</v>
       </c>
       <c r="V23" s="46">
-        <v>260.2</v>
-      </c>
-      <c r="W23" s="46">
-        <v>250.2</v>
-      </c>
-      <c r="X23" s="46">
         <v>260</v>
       </c>
+      <c r="W23" s="47">
+        <v>267.5</v>
+      </c>
+      <c r="X23" s="65">
+        <v>293.39999999999998</v>
+      </c>
       <c r="Y23" s="47">
-        <v>267.5</v>
-      </c>
-      <c r="Z23" s="65">
-        <v>293.39999999999998</v>
+        <v>305</v>
+      </c>
+      <c r="Z23" s="47">
+        <v>291.7</v>
       </c>
       <c r="AA23" s="47">
-        <v>305</v>
-      </c>
-      <c r="AB23" s="47">
-        <v>291.7</v>
-      </c>
-      <c r="AC23" s="47">
         <v>302</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>180</v>
+      <c r="B24" s="80">
+        <v>106</v>
+      </c>
+      <c r="C24" s="80">
+        <v>119</v>
       </c>
       <c r="D24" s="80">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E24" s="80">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="F24" s="80">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="G24" s="80">
-        <v>150</v>
+        <v>348</v>
       </c>
       <c r="H24" s="80">
-        <v>196</v>
+        <v>417</v>
       </c>
       <c r="I24" s="80">
-        <v>348</v>
+        <v>440</v>
       </c>
       <c r="J24" s="80">
-        <v>417</v>
+        <v>307</v>
       </c>
       <c r="K24" s="80">
-        <v>440</v>
+        <v>279</v>
       </c>
       <c r="L24" s="80">
-        <v>307</v>
+        <v>215</v>
       </c>
       <c r="M24" s="80">
-        <v>279</v>
-      </c>
-      <c r="N24" s="80">
-        <v>215</v>
-      </c>
-      <c r="O24" s="80">
         <v>247</v>
       </c>
-      <c r="P24" s="81">
+      <c r="N24" s="81">
         <v>267</v>
       </c>
+      <c r="O24" s="46">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="P24" s="46">
+        <v>10.9</v>
+      </c>
       <c r="Q24" s="46">
-        <v>9.6999999999999993</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="R24" s="46">
-        <v>10.9</v>
+        <v>13.7</v>
       </c>
       <c r="S24" s="46">
-        <v>9.1999999999999993</v>
+        <v>17.8</v>
       </c>
       <c r="T24" s="46">
-        <v>13.7</v>
+        <v>31.6</v>
       </c>
       <c r="U24" s="46">
-        <v>17.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="V24" s="46">
-        <v>31.6</v>
-      </c>
-      <c r="W24" s="46">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="X24" s="46">
         <v>39.6</v>
       </c>
+      <c r="W24" s="47">
+        <v>27.2</v>
+      </c>
+      <c r="X24" s="65">
+        <v>24.3</v>
+      </c>
       <c r="Y24" s="47">
-        <v>27.2</v>
-      </c>
-      <c r="Z24" s="65">
-        <v>24.3</v>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="Z24" s="47">
+        <v>20.7</v>
       </c>
       <c r="AA24" s="47">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="AB24" s="47">
-        <v>20.7</v>
-      </c>
-      <c r="AC24" s="47">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>180</v>
+      <c r="B25" s="80">
+        <v>31</v>
+      </c>
+      <c r="C25" s="80">
+        <v>44</v>
       </c>
       <c r="D25" s="80">
+        <v>41</v>
+      </c>
+      <c r="E25" s="80">
+        <v>41</v>
+      </c>
+      <c r="F25" s="80">
         <v>31</v>
       </c>
-      <c r="E25" s="80">
-        <v>44</v>
-      </c>
-      <c r="F25" s="80">
-        <v>41</v>
-      </c>
       <c r="G25" s="80">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H25" s="80">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I25" s="80">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J25" s="80">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="K25" s="80">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L25" s="80">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M25" s="80">
-        <v>42</v>
-      </c>
-      <c r="N25" s="80">
+        <v>20</v>
+      </c>
+      <c r="N25" s="81">
         <v>33</v>
       </c>
-      <c r="O25" s="80">
-        <v>20</v>
-      </c>
-      <c r="P25" s="81">
-        <v>33</v>
+      <c r="O25" s="46">
+        <v>2.8</v>
+      </c>
+      <c r="P25" s="46">
+        <v>4</v>
       </c>
       <c r="Q25" s="46">
+        <v>3.8</v>
+      </c>
+      <c r="R25" s="46">
+        <v>3.7</v>
+      </c>
+      <c r="S25" s="46">
         <v>2.8</v>
       </c>
-      <c r="R25" s="46">
+      <c r="T25" s="46">
+        <v>2.9</v>
+      </c>
+      <c r="U25" s="46">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V25" s="46">
+        <v>3.5</v>
+      </c>
+      <c r="W25" s="47">
         <v>4</v>
       </c>
-      <c r="S25" s="46">
-        <v>3.8</v>
-      </c>
-      <c r="T25" s="46">
+      <c r="X25" s="65">
         <v>3.7</v>
       </c>
-      <c r="U25" s="46">
+      <c r="Y25" s="47">
         <v>2.8</v>
       </c>
-      <c r="V25" s="46">
-        <v>2.9</v>
-      </c>
-      <c r="W25" s="46">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="X25" s="46">
-        <v>3.5</v>
-      </c>
-      <c r="Y25" s="47">
-        <v>4</v>
-      </c>
-      <c r="Z25" s="65">
-        <v>3.7</v>
+      <c r="Z25" s="47">
+        <v>1.7</v>
       </c>
       <c r="AA25" s="47">
-        <v>2.8</v>
-      </c>
-      <c r="AB25" s="47">
-        <v>1.7</v>
-      </c>
-      <c r="AC25" s="47">
         <v>2.7</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>180</v>
+      <c r="B26" s="80">
+        <v>142</v>
+      </c>
+      <c r="C26" s="80">
+        <v>182</v>
       </c>
       <c r="D26" s="80">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E26" s="80">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="F26" s="80">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G26" s="80">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="H26" s="80">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="I26" s="80">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="J26" s="80">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K26" s="80">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="L26" s="80">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="M26" s="80">
-        <v>83</v>
-      </c>
-      <c r="N26" s="80">
-        <v>108</v>
-      </c>
-      <c r="O26" s="80">
         <v>103</v>
       </c>
-      <c r="P26" s="81">
+      <c r="N26" s="81">
         <v>105</v>
       </c>
+      <c r="O26" s="46">
+        <v>13</v>
+      </c>
+      <c r="P26" s="46">
+        <v>16.7</v>
+      </c>
       <c r="Q26" s="46">
-        <v>13</v>
+        <v>14.1</v>
       </c>
       <c r="R26" s="46">
-        <v>16.7</v>
+        <v>12</v>
       </c>
       <c r="S26" s="46">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="T26" s="46">
+        <v>13.2</v>
+      </c>
+      <c r="U26" s="46">
+        <v>12.6</v>
+      </c>
+      <c r="V26" s="46">
+        <v>11.1</v>
+      </c>
+      <c r="W26" s="47">
         <v>12</v>
       </c>
-      <c r="U26" s="46">
-        <v>13.5</v>
-      </c>
-      <c r="V26" s="46">
-        <v>13.2</v>
-      </c>
-      <c r="W26" s="46">
-        <v>12.6</v>
-      </c>
-      <c r="X26" s="46">
-        <v>11.1</v>
+      <c r="X26" s="65">
+        <v>7.2</v>
       </c>
       <c r="Y26" s="47">
-        <v>12</v>
-      </c>
-      <c r="Z26" s="65">
-        <v>7.2</v>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Z26" s="47">
+        <v>8.6</v>
       </c>
       <c r="AA26" s="47">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AB26" s="47">
-        <v>8.6</v>
-      </c>
-      <c r="AC26" s="47">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>180</v>
+      <c r="B27" s="80">
+        <v>288</v>
+      </c>
+      <c r="C27" s="80">
+        <v>270</v>
       </c>
       <c r="D27" s="80">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="E27" s="80">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="F27" s="80">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="G27" s="80">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="H27" s="80">
-        <v>262</v>
+        <v>191</v>
       </c>
       <c r="I27" s="80">
-        <v>244</v>
+        <v>160</v>
       </c>
       <c r="J27" s="80">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K27" s="80">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="L27" s="80">
-        <v>185</v>
+        <v>318</v>
       </c>
       <c r="M27" s="80">
-        <v>218</v>
-      </c>
-      <c r="N27" s="80">
-        <v>318</v>
-      </c>
-      <c r="O27" s="80">
         <v>369</v>
       </c>
-      <c r="P27" s="81">
+      <c r="N27" s="81">
         <v>303</v>
       </c>
+      <c r="O27" s="46">
+        <v>26.4</v>
+      </c>
+      <c r="P27" s="46">
+        <v>24.7</v>
+      </c>
       <c r="Q27" s="46">
-        <v>26.4</v>
+        <v>25</v>
       </c>
       <c r="R27" s="46">
-        <v>24.7</v>
+        <v>21.1</v>
       </c>
       <c r="S27" s="46">
+        <v>23.9</v>
+      </c>
+      <c r="T27" s="46">
+        <v>22.2</v>
+      </c>
+      <c r="U27" s="46">
+        <v>17.3</v>
+      </c>
+      <c r="V27" s="46">
+        <v>14.4</v>
+      </c>
+      <c r="W27" s="47">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="X27" s="65">
+        <v>19</v>
+      </c>
+      <c r="Y27" s="47">
+        <v>27.2</v>
+      </c>
+      <c r="Z27" s="47">
+        <v>30.9</v>
+      </c>
+      <c r="AA27" s="47">
         <v>25</v>
       </c>
-      <c r="T27" s="46">
-        <v>21.1</v>
-      </c>
-      <c r="U27" s="46">
-        <v>23.9</v>
-      </c>
-      <c r="V27" s="46">
-        <v>22.2</v>
-      </c>
-      <c r="W27" s="46">
-        <v>17.3</v>
-      </c>
-      <c r="X27" s="46">
-        <v>14.4</v>
-      </c>
-      <c r="Y27" s="47">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="Z27" s="65">
-        <v>19</v>
-      </c>
-      <c r="AA27" s="47">
-        <v>27.2</v>
-      </c>
-      <c r="AB27" s="47">
-        <v>30.9</v>
-      </c>
-      <c r="AC27" s="47">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>180</v>
+      <c r="B28" s="80">
+        <v>1060</v>
+      </c>
+      <c r="C28" s="80">
+        <v>1091</v>
       </c>
       <c r="D28" s="80">
-        <v>1060</v>
+        <v>946</v>
       </c>
       <c r="E28" s="80">
-        <v>1091</v>
+        <v>874</v>
       </c>
       <c r="F28" s="80">
-        <v>946</v>
+        <v>759</v>
       </c>
       <c r="G28" s="80">
-        <v>874</v>
+        <v>745</v>
       </c>
       <c r="H28" s="80">
-        <v>759</v>
+        <v>736</v>
       </c>
       <c r="I28" s="80">
-        <v>745</v>
+        <v>762</v>
       </c>
       <c r="J28" s="80">
-        <v>736</v>
+        <v>801</v>
       </c>
       <c r="K28" s="80">
-        <v>762</v>
+        <v>804</v>
       </c>
       <c r="L28" s="80">
-        <v>801</v>
+        <v>758</v>
       </c>
       <c r="M28" s="80">
-        <v>804</v>
-      </c>
-      <c r="N28" s="80">
-        <v>758</v>
-      </c>
-      <c r="O28" s="80">
         <v>688</v>
       </c>
-      <c r="P28" s="81">
+      <c r="N28" s="81">
         <v>605</v>
       </c>
+      <c r="O28" s="46">
+        <v>97.2</v>
+      </c>
+      <c r="P28" s="46">
+        <v>99.9</v>
+      </c>
       <c r="Q28" s="46">
-        <v>97.2</v>
+        <v>86.5</v>
       </c>
       <c r="R28" s="46">
-        <v>99.9</v>
+        <v>79.7</v>
       </c>
       <c r="S28" s="46">
-        <v>86.5</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="T28" s="46">
-        <v>79.7</v>
+        <v>67.7</v>
       </c>
       <c r="U28" s="46">
-        <v>69.099999999999994</v>
+        <v>66.7</v>
       </c>
       <c r="V28" s="46">
-        <v>67.7</v>
-      </c>
-      <c r="W28" s="46">
-        <v>66.7</v>
-      </c>
-      <c r="X28" s="46">
         <v>68.5</v>
       </c>
+      <c r="W28" s="47">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="X28" s="65">
+        <v>70</v>
+      </c>
       <c r="Y28" s="47">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="Z28" s="65">
-        <v>70</v>
+        <v>64.8</v>
+      </c>
+      <c r="Z28" s="47">
+        <v>57.7</v>
       </c>
       <c r="AA28" s="47">
-        <v>64.8</v>
-      </c>
-      <c r="AB28" s="47">
-        <v>57.7</v>
-      </c>
-      <c r="AC28" s="47">
         <v>49.9</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>180</v>
+      <c r="B29" s="80">
+        <v>9078</v>
+      </c>
+      <c r="C29" s="80">
+        <v>10097</v>
       </c>
       <c r="D29" s="80">
-        <v>9078</v>
+        <v>9175</v>
       </c>
       <c r="E29" s="80">
-        <v>10097</v>
+        <v>8140</v>
       </c>
       <c r="F29" s="80">
-        <v>9175</v>
+        <v>6397</v>
       </c>
       <c r="G29" s="80">
-        <v>8140</v>
+        <v>4339</v>
       </c>
       <c r="H29" s="80">
-        <v>6397</v>
+        <v>3615</v>
       </c>
       <c r="I29" s="80">
-        <v>4339</v>
+        <v>3870</v>
       </c>
       <c r="J29" s="80">
-        <v>3615</v>
+        <v>3843</v>
       </c>
       <c r="K29" s="80">
-        <v>3870</v>
+        <v>3599</v>
       </c>
       <c r="L29" s="80">
-        <v>3843</v>
+        <v>3401</v>
       </c>
       <c r="M29" s="80">
-        <v>3599</v>
-      </c>
-      <c r="N29" s="80">
-        <v>3401</v>
-      </c>
-      <c r="O29" s="80">
         <v>2739</v>
       </c>
-      <c r="P29" s="81">
+      <c r="N29" s="81">
         <v>2234</v>
       </c>
+      <c r="O29" s="46">
+        <v>832.4</v>
+      </c>
+      <c r="P29" s="46">
+        <v>924.4</v>
+      </c>
       <c r="Q29" s="46">
-        <v>832.4</v>
+        <v>839.2</v>
       </c>
       <c r="R29" s="46">
-        <v>924.4</v>
+        <v>742.7</v>
       </c>
       <c r="S29" s="46">
-        <v>839.2</v>
+        <v>582.4</v>
       </c>
       <c r="T29" s="46">
-        <v>742.7</v>
+        <v>394.3</v>
       </c>
       <c r="U29" s="46">
-        <v>582.4</v>
+        <v>327.39999999999998</v>
       </c>
       <c r="V29" s="46">
-        <v>394.3</v>
-      </c>
-      <c r="W29" s="46">
-        <v>327.39999999999998</v>
-      </c>
-      <c r="X29" s="46">
         <v>347.9</v>
       </c>
+      <c r="W29" s="47">
+        <v>340.3</v>
+      </c>
+      <c r="X29" s="65">
+        <v>313.3</v>
+      </c>
       <c r="Y29" s="47">
-        <v>340.3</v>
-      </c>
-      <c r="Z29" s="65">
-        <v>313.3</v>
+        <v>290.7</v>
+      </c>
+      <c r="Z29" s="47">
+        <v>229.6</v>
       </c>
       <c r="AA29" s="47">
-        <v>290.7</v>
-      </c>
-      <c r="AB29" s="47">
-        <v>229.6</v>
-      </c>
-      <c r="AC29" s="47">
         <v>184.2</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>180</v>
+      <c r="B30" s="80">
+        <v>401</v>
+      </c>
+      <c r="C30" s="80">
+        <v>399</v>
       </c>
       <c r="D30" s="80">
-        <v>401</v>
+        <v>335</v>
       </c>
       <c r="E30" s="80">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="F30" s="80">
-        <v>335</v>
+        <v>251</v>
       </c>
       <c r="G30" s="80">
-        <v>217</v>
+        <v>313</v>
       </c>
       <c r="H30" s="80">
-        <v>251</v>
+        <v>355</v>
       </c>
       <c r="I30" s="80">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="J30" s="80">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="K30" s="80">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L30" s="80">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="M30" s="80">
-        <v>324</v>
-      </c>
-      <c r="N30" s="80">
-        <v>320</v>
-      </c>
-      <c r="O30" s="80">
         <v>270</v>
       </c>
-      <c r="P30" s="81">
+      <c r="N30" s="81">
         <v>206</v>
       </c>
+      <c r="O30" s="46">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="P30" s="46">
+        <v>36.5</v>
+      </c>
       <c r="Q30" s="46">
-        <v>36.799999999999997</v>
+        <v>30.6</v>
       </c>
       <c r="R30" s="46">
-        <v>36.5</v>
+        <v>19.8</v>
       </c>
       <c r="S30" s="46">
-        <v>30.6</v>
+        <v>22.9</v>
       </c>
       <c r="T30" s="46">
-        <v>19.8</v>
+        <v>28.4</v>
       </c>
       <c r="U30" s="46">
-        <v>22.9</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="V30" s="46">
-        <v>28.4</v>
-      </c>
-      <c r="W30" s="46">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="X30" s="46">
         <v>29.4</v>
       </c>
+      <c r="W30" s="47">
+        <v>26.4</v>
+      </c>
+      <c r="X30" s="65">
+        <v>28.2</v>
+      </c>
       <c r="Y30" s="47">
-        <v>26.4</v>
-      </c>
-      <c r="Z30" s="65">
-        <v>28.2</v>
+        <v>27.4</v>
+      </c>
+      <c r="Z30" s="47">
+        <v>22.6</v>
       </c>
       <c r="AA30" s="47">
-        <v>27.4</v>
-      </c>
-      <c r="AB30" s="47">
-        <v>22.6</v>
-      </c>
-      <c r="AC30" s="47">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>180</v>
+      <c r="B31" s="80">
+        <v>771</v>
+      </c>
+      <c r="C31" s="80">
+        <v>839</v>
       </c>
       <c r="D31" s="80">
-        <v>771</v>
+        <v>847</v>
       </c>
       <c r="E31" s="80">
-        <v>839</v>
+        <v>862</v>
       </c>
       <c r="F31" s="80">
-        <v>847</v>
+        <v>955</v>
       </c>
       <c r="G31" s="80">
-        <v>862</v>
+        <v>1105</v>
       </c>
       <c r="H31" s="80">
-        <v>955</v>
+        <v>1289</v>
       </c>
       <c r="I31" s="80">
-        <v>1105</v>
+        <v>1326</v>
       </c>
       <c r="J31" s="80">
-        <v>1289</v>
+        <v>1251</v>
       </c>
       <c r="K31" s="80">
-        <v>1326</v>
+        <v>1282</v>
       </c>
       <c r="L31" s="80">
-        <v>1251</v>
+        <v>1294</v>
       </c>
       <c r="M31" s="80">
         <v>1282</v>
       </c>
-      <c r="N31" s="80">
-        <v>1294</v>
-      </c>
-      <c r="O31" s="80">
-        <v>1282</v>
-      </c>
-      <c r="P31" s="81">
+      <c r="N31" s="81">
         <v>1094</v>
       </c>
+      <c r="O31" s="46">
+        <v>70.7</v>
+      </c>
+      <c r="P31" s="46">
+        <v>76.8</v>
+      </c>
       <c r="Q31" s="46">
-        <v>70.7</v>
+        <v>77.5</v>
       </c>
       <c r="R31" s="46">
-        <v>76.8</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="S31" s="46">
-        <v>77.5</v>
+        <v>87</v>
       </c>
       <c r="T31" s="46">
-        <v>78.599999999999994</v>
+        <v>100.4</v>
       </c>
       <c r="U31" s="46">
-        <v>87</v>
+        <v>116.8</v>
       </c>
       <c r="V31" s="46">
-        <v>100.4</v>
-      </c>
-      <c r="W31" s="46">
-        <v>116.8</v>
-      </c>
-      <c r="X31" s="46">
         <v>119.2</v>
       </c>
+      <c r="W31" s="47">
+        <v>110.8</v>
+      </c>
+      <c r="X31" s="65">
+        <v>111.6</v>
+      </c>
       <c r="Y31" s="47">
-        <v>110.8</v>
-      </c>
-      <c r="Z31" s="65">
-        <v>111.6</v>
+        <v>110.6</v>
+      </c>
+      <c r="Z31" s="47">
+        <v>107.4</v>
       </c>
       <c r="AA31" s="47">
-        <v>110.6</v>
-      </c>
-      <c r="AB31" s="47">
-        <v>107.4</v>
-      </c>
-      <c r="AC31" s="47">
         <v>90.2</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>180</v>
+      <c r="B32" s="80">
+        <v>120</v>
+      </c>
+      <c r="C32" s="80">
+        <v>108</v>
       </c>
       <c r="D32" s="80">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E32" s="80">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F32" s="80">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="G32" s="80">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H32" s="80">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I32" s="80">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="J32" s="80">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="K32" s="80">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="L32" s="80">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="M32" s="80">
-        <v>156</v>
-      </c>
-      <c r="N32" s="80">
-        <v>124</v>
-      </c>
-      <c r="O32" s="80">
         <v>140</v>
       </c>
-      <c r="P32" s="81">
+      <c r="N32" s="81">
         <v>109</v>
       </c>
+      <c r="O32" s="46">
+        <v>11</v>
+      </c>
+      <c r="P32" s="46">
+        <v>9.9</v>
+      </c>
       <c r="Q32" s="46">
-        <v>11</v>
+        <v>12.2</v>
       </c>
       <c r="R32" s="46">
-        <v>9.9</v>
+        <v>8.6</v>
       </c>
       <c r="S32" s="46">
-        <v>12.2</v>
+        <v>9</v>
       </c>
       <c r="T32" s="46">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="U32" s="46">
+        <v>9.4</v>
+      </c>
+      <c r="V32" s="46">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="W32" s="47">
+        <v>7.8</v>
+      </c>
+      <c r="X32" s="65">
+        <v>13.6</v>
+      </c>
+      <c r="Y32" s="47">
+        <v>10.6</v>
+      </c>
+      <c r="Z32" s="47">
+        <v>11.7</v>
+      </c>
+      <c r="AA32" s="47">
         <v>9</v>
       </c>
-      <c r="V32" s="46">
-        <v>8.5</v>
-      </c>
-      <c r="W32" s="46">
-        <v>9.4</v>
-      </c>
-      <c r="X32" s="46">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="Y32" s="47">
-        <v>7.8</v>
-      </c>
-      <c r="Z32" s="65">
-        <v>13.6</v>
-      </c>
-      <c r="AA32" s="47">
-        <v>10.6</v>
-      </c>
-      <c r="AB32" s="47">
-        <v>11.7</v>
-      </c>
-      <c r="AC32" s="47">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>180</v>
+      <c r="B33" s="80">
+        <v>1154</v>
+      </c>
+      <c r="C33" s="80">
+        <v>1030</v>
       </c>
       <c r="D33" s="80">
-        <v>1154</v>
+        <v>922</v>
       </c>
       <c r="E33" s="80">
-        <v>1030</v>
+        <v>878</v>
       </c>
       <c r="F33" s="80">
-        <v>922</v>
+        <v>772</v>
       </c>
       <c r="G33" s="80">
-        <v>878</v>
+        <v>691</v>
       </c>
       <c r="H33" s="80">
-        <v>772</v>
+        <v>703</v>
       </c>
       <c r="I33" s="80">
-        <v>691</v>
+        <v>654</v>
       </c>
       <c r="J33" s="80">
-        <v>703</v>
+        <v>616</v>
       </c>
       <c r="K33" s="80">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="L33" s="80">
-        <v>616</v>
+        <v>588</v>
       </c>
       <c r="M33" s="80">
-        <v>640</v>
-      </c>
-      <c r="N33" s="80">
-        <v>588</v>
-      </c>
-      <c r="O33" s="80">
         <v>530</v>
       </c>
-      <c r="P33" s="81">
+      <c r="N33" s="81">
         <v>585</v>
       </c>
+      <c r="O33" s="46">
+        <v>105.8</v>
+      </c>
+      <c r="P33" s="46">
+        <v>94.3</v>
+      </c>
       <c r="Q33" s="46">
-        <v>105.8</v>
+        <v>84.3</v>
       </c>
       <c r="R33" s="46">
-        <v>94.3</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="S33" s="46">
-        <v>84.3</v>
+        <v>70.3</v>
       </c>
       <c r="T33" s="46">
-        <v>80.099999999999994</v>
+        <v>62.8</v>
       </c>
       <c r="U33" s="46">
-        <v>70.3</v>
+        <v>63.7</v>
       </c>
       <c r="V33" s="46">
-        <v>62.8</v>
-      </c>
-      <c r="W33" s="46">
-        <v>63.7</v>
-      </c>
-      <c r="X33" s="46">
         <v>58.8</v>
       </c>
+      <c r="W33" s="47">
+        <v>54.5</v>
+      </c>
+      <c r="X33" s="65">
+        <v>55.7</v>
+      </c>
       <c r="Y33" s="47">
-        <v>54.5</v>
-      </c>
-      <c r="Z33" s="65">
-        <v>55.7</v>
+        <v>50.3</v>
+      </c>
+      <c r="Z33" s="47">
+        <v>44.4</v>
       </c>
       <c r="AA33" s="47">
-        <v>50.3</v>
-      </c>
-      <c r="AB33" s="47">
-        <v>44.4</v>
-      </c>
-      <c r="AC33" s="47">
         <v>48.2</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>180</v>
+      <c r="B34" s="80">
+        <v>2847</v>
+      </c>
+      <c r="C34" s="80">
+        <v>2660</v>
       </c>
       <c r="D34" s="80">
-        <v>2847</v>
+        <v>2533</v>
       </c>
       <c r="E34" s="80">
-        <v>2660</v>
+        <v>1883</v>
       </c>
       <c r="F34" s="80">
-        <v>2533</v>
+        <v>1649</v>
       </c>
       <c r="G34" s="80">
-        <v>1883</v>
+        <v>1537</v>
       </c>
       <c r="H34" s="80">
-        <v>1649</v>
+        <v>1401</v>
       </c>
       <c r="I34" s="80">
-        <v>1537</v>
+        <v>1388</v>
       </c>
       <c r="J34" s="80">
-        <v>1401</v>
+        <v>1480</v>
       </c>
       <c r="K34" s="80">
-        <v>1388</v>
+        <v>1212</v>
       </c>
       <c r="L34" s="80">
-        <v>1480</v>
+        <v>1166</v>
       </c>
       <c r="M34" s="80">
-        <v>1212</v>
-      </c>
-      <c r="N34" s="80">
-        <v>1166</v>
-      </c>
-      <c r="O34" s="80">
         <v>1098</v>
       </c>
-      <c r="P34" s="81">
+      <c r="N34" s="81">
         <v>1063</v>
       </c>
+      <c r="O34" s="46">
+        <v>261.10000000000002</v>
+      </c>
+      <c r="P34" s="46">
+        <v>243.5</v>
+      </c>
       <c r="Q34" s="46">
-        <v>261.10000000000002</v>
+        <v>231.7</v>
       </c>
       <c r="R34" s="46">
-        <v>243.5</v>
+        <v>171.8</v>
       </c>
       <c r="S34" s="46">
-        <v>231.7</v>
+        <v>150.1</v>
       </c>
       <c r="T34" s="46">
-        <v>171.8</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="U34" s="46">
-        <v>150.1</v>
+        <v>126.9</v>
       </c>
       <c r="V34" s="46">
-        <v>139.69999999999999</v>
-      </c>
-      <c r="W34" s="46">
-        <v>126.9</v>
-      </c>
-      <c r="X34" s="46">
         <v>124.8</v>
       </c>
+      <c r="W34" s="47">
+        <v>131.1</v>
+      </c>
+      <c r="X34" s="58">
+        <v>105.5</v>
+      </c>
       <c r="Y34" s="47">
-        <v>131.1</v>
-      </c>
-      <c r="Z34" s="58">
-        <v>105.5</v>
+        <v>99.7</v>
+      </c>
+      <c r="Z34" s="47">
+        <v>92</v>
       </c>
       <c r="AA34" s="47">
-        <v>99.7</v>
-      </c>
-      <c r="AB34" s="47">
-        <v>92</v>
-      </c>
-      <c r="AC34" s="47">
         <v>87.7</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B35" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>180</v>
+      <c r="B35" s="80">
+        <v>441</v>
+      </c>
+      <c r="C35" s="80">
+        <v>389</v>
       </c>
       <c r="D35" s="80">
-        <v>441</v>
+        <v>369</v>
       </c>
       <c r="E35" s="80">
-        <v>389</v>
+        <v>288</v>
       </c>
       <c r="F35" s="80">
-        <v>369</v>
+        <v>284</v>
       </c>
       <c r="G35" s="80">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="H35" s="80">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="I35" s="80">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="J35" s="80">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="K35" s="80">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="L35" s="80">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="M35" s="80">
-        <v>234</v>
-      </c>
-      <c r="N35" s="80">
-        <v>224</v>
-      </c>
-      <c r="O35" s="80">
         <v>191</v>
       </c>
-      <c r="P35" s="81">
+      <c r="N35" s="81">
         <v>193</v>
       </c>
+      <c r="O35" s="46">
+        <v>40.4</v>
+      </c>
+      <c r="P35" s="46">
+        <v>35.6</v>
+      </c>
       <c r="Q35" s="46">
-        <v>40.4</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="R35" s="46">
-        <v>35.6</v>
+        <v>26.3</v>
       </c>
       <c r="S35" s="46">
-        <v>33.799999999999997</v>
+        <v>25.9</v>
       </c>
       <c r="T35" s="46">
-        <v>26.3</v>
+        <v>27.8</v>
       </c>
       <c r="U35" s="46">
-        <v>25.9</v>
+        <v>21.6</v>
       </c>
       <c r="V35" s="46">
-        <v>27.8</v>
-      </c>
-      <c r="W35" s="46">
-        <v>21.6</v>
-      </c>
-      <c r="X35" s="46">
         <v>25</v>
       </c>
+      <c r="W35" s="47">
+        <v>15.6</v>
+      </c>
+      <c r="X35" s="65">
+        <v>20.399999999999999</v>
+      </c>
       <c r="Y35" s="47">
-        <v>15.6</v>
-      </c>
-      <c r="Z35" s="65">
-        <v>20.399999999999999</v>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="Z35" s="47">
+        <v>16</v>
       </c>
       <c r="AA35" s="47">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="AB35" s="47">
-        <v>16</v>
-      </c>
-      <c r="AC35" s="47">
         <v>15.9</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>180</v>
+      <c r="B36" s="80">
+        <v>296</v>
+      </c>
+      <c r="C36" s="80">
+        <v>503</v>
       </c>
       <c r="D36" s="80">
-        <v>296</v>
+        <v>722</v>
       </c>
       <c r="E36" s="80">
-        <v>503</v>
+        <v>842</v>
       </c>
       <c r="F36" s="80">
-        <v>722</v>
+        <v>1142</v>
       </c>
       <c r="G36" s="80">
-        <v>842</v>
+        <v>325</v>
       </c>
       <c r="H36" s="80">
-        <v>1142</v>
+        <v>266</v>
       </c>
       <c r="I36" s="80">
-        <v>325</v>
+        <v>226</v>
       </c>
       <c r="J36" s="80">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="K36" s="80">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="L36" s="80">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="M36" s="80">
-        <v>185</v>
-      </c>
-      <c r="N36" s="80">
-        <v>187</v>
-      </c>
-      <c r="O36" s="80">
         <v>230</v>
       </c>
-      <c r="P36" s="81">
+      <c r="N36" s="81">
         <v>444</v>
       </c>
+      <c r="O36" s="46">
+        <v>27.1</v>
+      </c>
+      <c r="P36" s="46">
+        <v>46.1</v>
+      </c>
       <c r="Q36" s="46">
-        <v>27.1</v>
+        <v>66</v>
       </c>
       <c r="R36" s="46">
-        <v>46.1</v>
+        <v>76.8</v>
       </c>
       <c r="S36" s="46">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="T36" s="46">
-        <v>76.8</v>
+        <v>29.5</v>
       </c>
       <c r="U36" s="46">
-        <v>104</v>
+        <v>24.1</v>
       </c>
       <c r="V36" s="46">
-        <v>29.5</v>
-      </c>
-      <c r="W36" s="46">
-        <v>24.1</v>
-      </c>
-      <c r="X36" s="46">
         <v>20.3</v>
       </c>
+      <c r="W36" s="47">
+        <v>18.2</v>
+      </c>
+      <c r="X36" s="58">
+        <v>16.100000000000001</v>
+      </c>
       <c r="Y36" s="47">
-        <v>18.2</v>
-      </c>
-      <c r="Z36" s="58">
-        <v>16.100000000000001</v>
+        <v>16</v>
+      </c>
+      <c r="Z36" s="47">
+        <v>19.3</v>
       </c>
       <c r="AA36" s="47">
-        <v>16</v>
-      </c>
-      <c r="AB36" s="47">
-        <v>19.3</v>
-      </c>
-      <c r="AC36" s="47">
         <v>36.6</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
+      <c r="B37" s="84">
+        <v>20483</v>
+      </c>
+      <c r="C37" s="84">
+        <v>21837</v>
+      </c>
       <c r="D37" s="84">
-        <v>20483</v>
+        <v>20818</v>
       </c>
       <c r="E37" s="84">
-        <v>21837</v>
+        <v>18264</v>
       </c>
       <c r="F37" s="84">
-        <v>20818</v>
+        <v>16170</v>
       </c>
       <c r="G37" s="84">
-        <v>18264</v>
+        <v>15001</v>
       </c>
       <c r="H37" s="84">
-        <v>16170</v>
+        <v>15220</v>
       </c>
       <c r="I37" s="84">
-        <v>15001</v>
+        <v>15779</v>
       </c>
       <c r="J37" s="84">
-        <v>15220</v>
+        <v>15788</v>
       </c>
       <c r="K37" s="84">
-        <v>15779</v>
+        <v>15610</v>
       </c>
       <c r="L37" s="84">
-        <v>15788</v>
+        <v>15028</v>
       </c>
       <c r="M37" s="84">
-        <v>15610</v>
-      </c>
-      <c r="N37" s="84">
-        <v>15028</v>
-      </c>
-      <c r="O37" s="84">
         <v>13790</v>
       </c>
-      <c r="P37" s="85">
+      <c r="N37" s="85">
         <v>13389</v>
       </c>
+      <c r="O37" s="49">
+        <v>1878.2</v>
+      </c>
+      <c r="P37" s="49">
+        <v>1999.2</v>
+      </c>
       <c r="Q37" s="49">
-        <v>1878.2</v>
+        <v>1904.2</v>
       </c>
       <c r="R37" s="49">
-        <v>1999.2</v>
+        <v>1666.4</v>
       </c>
       <c r="S37" s="49">
-        <v>1904.2</v>
+        <v>1472.3</v>
       </c>
       <c r="T37" s="49">
-        <v>1666.4</v>
+        <v>1363.3</v>
       </c>
       <c r="U37" s="49">
-        <v>1472.3</v>
+        <v>1378.6</v>
       </c>
       <c r="V37" s="49">
-        <v>1363.3</v>
-      </c>
-      <c r="W37" s="49">
-        <v>1378.6</v>
-      </c>
-      <c r="X37" s="49">
         <v>1418.4</v>
       </c>
+      <c r="W37" s="50">
+        <v>1398.1</v>
+      </c>
+      <c r="X37" s="68">
+        <v>1358.7</v>
+      </c>
       <c r="Y37" s="50">
-        <v>1398.1</v>
-      </c>
-      <c r="Z37" s="68">
-        <v>1358.7</v>
+        <v>1284.5999999999999</v>
+      </c>
+      <c r="Z37" s="50">
+        <v>1155.7</v>
       </c>
       <c r="AA37" s="50">
-        <v>1284.5999999999999</v>
-      </c>
-      <c r="AB37" s="50">
-        <v>1155.7</v>
-      </c>
-      <c r="AC37" s="50">
         <v>1104.2</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
+      <c r="B38" s="55">
+        <v>81762</v>
+      </c>
+      <c r="C38" s="55">
+        <v>86820</v>
+      </c>
       <c r="D38" s="55">
-        <v>81762</v>
+        <v>85681</v>
       </c>
       <c r="E38" s="55">
-        <v>86820</v>
+        <v>85083</v>
       </c>
       <c r="F38" s="55">
-        <v>85681</v>
+        <v>87150</v>
       </c>
       <c r="G38" s="55">
-        <v>85083</v>
+        <v>90007</v>
       </c>
       <c r="H38" s="55">
-        <v>87150</v>
+        <v>91580</v>
       </c>
       <c r="I38" s="55">
-        <v>90007</v>
+        <v>96465</v>
       </c>
       <c r="J38" s="55">
-        <v>91580</v>
+        <v>97913</v>
       </c>
       <c r="K38" s="55">
-        <v>96465</v>
+        <v>97139</v>
       </c>
       <c r="L38" s="55">
-        <v>97913</v>
+        <v>95399</v>
       </c>
       <c r="M38" s="55">
-        <v>97139</v>
-      </c>
-      <c r="N38" s="55">
-        <v>95399</v>
-      </c>
-      <c r="O38" s="55">
         <v>92036</v>
       </c>
-      <c r="P38" s="82">
+      <c r="N38" s="82">
         <v>89235</v>
       </c>
+      <c r="O38" s="51">
+        <v>865.5</v>
+      </c>
+      <c r="P38" s="51">
+        <v>902.6</v>
+      </c>
       <c r="Q38" s="51">
-        <v>865.5</v>
+        <v>877.9</v>
       </c>
       <c r="R38" s="51">
-        <v>902.6</v>
+        <v>858.1</v>
       </c>
       <c r="S38" s="51">
-        <v>877.9</v>
+        <v>864.3</v>
       </c>
       <c r="T38" s="51">
-        <v>858.1</v>
+        <v>878.1</v>
       </c>
       <c r="U38" s="51">
-        <v>864.3</v>
+        <v>880.3</v>
       </c>
       <c r="V38" s="51">
-        <v>878.1</v>
-      </c>
-      <c r="W38" s="51">
-        <v>880.3</v>
-      </c>
-      <c r="X38" s="51">
         <v>913.1</v>
       </c>
+      <c r="W38" s="52">
+        <v>910.4</v>
+      </c>
+      <c r="X38" s="60">
+        <v>887.7</v>
+      </c>
       <c r="Y38" s="52">
-        <v>910.4</v>
-      </c>
-      <c r="Z38" s="60">
-        <v>887.7</v>
+        <v>856.6</v>
+      </c>
+      <c r="Z38" s="52">
+        <v>813</v>
       </c>
       <c r="AA38" s="52">
-        <v>856.6</v>
-      </c>
-      <c r="AB38" s="52">
-        <v>813</v>
-      </c>
-      <c r="AC38" s="52">
         <v>781.5</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="96" t="s">
+      <c r="B39" s="96" t="s">
         <v>155</v>
       </c>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
       <c r="E39" s="96"/>
       <c r="F39" s="96"/>
       <c r="G39" s="96"/>
@@ -8970,1554 +8754,1490 @@
       <c r="Y39" s="96"/>
       <c r="Z39" s="96"/>
       <c r="AA39" s="96"/>
-      <c r="AB39" s="96"/>
-      <c r="AC39" s="96"/>
-    </row>
-    <row r="40" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
+      <c r="B40" s="80">
+        <v>73</v>
+      </c>
+      <c r="C40" s="80">
+        <v>56</v>
+      </c>
       <c r="D40" s="80">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E40" s="80">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F40" s="80">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="G40" s="80">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H40" s="80">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I40" s="80">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J40" s="80">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K40" s="80">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L40" s="80">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M40" s="80">
-        <v>29</v>
-      </c>
-      <c r="N40" s="80">
-        <v>32</v>
-      </c>
-      <c r="O40" s="80">
         <v>49</v>
       </c>
-      <c r="P40" s="81">
+      <c r="N40" s="81">
         <v>42</v>
       </c>
+      <c r="O40" s="46">
+        <v>3.3</v>
+      </c>
+      <c r="P40" s="46">
+        <v>2.5</v>
+      </c>
       <c r="Q40" s="46">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="R40" s="46">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="S40" s="46">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="T40" s="46">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="U40" s="46">
+        <v>1</v>
+      </c>
+      <c r="V40" s="46">
+        <v>1</v>
+      </c>
+      <c r="W40" s="47">
+        <v>1</v>
+      </c>
+      <c r="X40" s="65">
+        <v>1.2</v>
+      </c>
+      <c r="Y40" s="47">
+        <v>1.3</v>
+      </c>
+      <c r="Z40" s="47">
+        <v>2</v>
+      </c>
+      <c r="AA40" s="47">
         <v>1.7</v>
       </c>
-      <c r="V40" s="46">
-        <v>1.2</v>
-      </c>
-      <c r="W40" s="46">
-        <v>1</v>
-      </c>
-      <c r="X40" s="46">
-        <v>1</v>
-      </c>
-      <c r="Y40" s="47">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="65">
-        <v>1.2</v>
-      </c>
-      <c r="AA40" s="47">
-        <v>1.3</v>
-      </c>
-      <c r="AB40" s="47">
-        <v>2</v>
-      </c>
-      <c r="AC40" s="47">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
+      <c r="B41" s="80">
+        <v>11765</v>
+      </c>
+      <c r="C41" s="80">
+        <v>12257</v>
+      </c>
       <c r="D41" s="80">
-        <v>11765</v>
+        <v>12020</v>
       </c>
       <c r="E41" s="80">
-        <v>12257</v>
+        <v>10371</v>
       </c>
       <c r="F41" s="80">
-        <v>12020</v>
+        <v>9340</v>
       </c>
       <c r="G41" s="80">
-        <v>10371</v>
+        <v>8671</v>
       </c>
       <c r="H41" s="80">
-        <v>9340</v>
+        <v>8352</v>
       </c>
       <c r="I41" s="80">
-        <v>8671</v>
+        <v>8488</v>
       </c>
       <c r="J41" s="80">
-        <v>8352</v>
+        <v>8773</v>
       </c>
       <c r="K41" s="80">
-        <v>8488</v>
+        <v>9429</v>
       </c>
       <c r="L41" s="80">
-        <v>8773</v>
+        <v>9437</v>
       </c>
       <c r="M41" s="80">
-        <v>9429</v>
-      </c>
-      <c r="N41" s="80">
-        <v>9437</v>
-      </c>
-      <c r="O41" s="80">
         <v>9447</v>
       </c>
-      <c r="P41" s="81">
+      <c r="N41" s="81">
         <v>9856</v>
       </c>
+      <c r="O41" s="46">
+        <v>525</v>
+      </c>
+      <c r="P41" s="46">
+        <v>546.20000000000005</v>
+      </c>
       <c r="Q41" s="46">
-        <v>525</v>
+        <v>535.1</v>
       </c>
       <c r="R41" s="46">
-        <v>546.20000000000005</v>
+        <v>460.7</v>
       </c>
       <c r="S41" s="46">
-        <v>535.1</v>
+        <v>414.3</v>
       </c>
       <c r="T41" s="46">
-        <v>460.7</v>
+        <v>384</v>
       </c>
       <c r="U41" s="46">
-        <v>414.3</v>
+        <v>368.5</v>
       </c>
       <c r="V41" s="46">
-        <v>384</v>
-      </c>
-      <c r="W41" s="46">
-        <v>368.5</v>
-      </c>
-      <c r="X41" s="46">
         <v>371.4</v>
       </c>
+      <c r="W41" s="47">
+        <v>378.1</v>
+      </c>
+      <c r="X41" s="65">
+        <v>399.2</v>
+      </c>
       <c r="Y41" s="47">
-        <v>378.1</v>
-      </c>
-      <c r="Z41" s="65">
-        <v>399.2</v>
+        <v>392.4</v>
+      </c>
+      <c r="Z41" s="47">
+        <v>385.2</v>
       </c>
       <c r="AA41" s="47">
-        <v>392.4</v>
-      </c>
-      <c r="AB41" s="47">
-        <v>385.2</v>
-      </c>
-      <c r="AC41" s="47">
         <v>395.4</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
+      <c r="B42" s="80">
+        <v>1103</v>
+      </c>
+      <c r="C42" s="80">
+        <v>1158</v>
+      </c>
       <c r="D42" s="80">
-        <v>1103</v>
+        <v>1005</v>
       </c>
       <c r="E42" s="80">
-        <v>1158</v>
+        <v>1032</v>
       </c>
       <c r="F42" s="80">
-        <v>1005</v>
+        <v>1193</v>
       </c>
       <c r="G42" s="80">
-        <v>1032</v>
+        <v>1531</v>
       </c>
       <c r="H42" s="80">
-        <v>1193</v>
+        <v>1713</v>
       </c>
       <c r="I42" s="80">
-        <v>1531</v>
+        <v>1671</v>
       </c>
       <c r="J42" s="80">
-        <v>1713</v>
+        <v>1487</v>
       </c>
       <c r="K42" s="80">
-        <v>1671</v>
+        <v>1488</v>
       </c>
       <c r="L42" s="80">
-        <v>1487</v>
+        <v>1356</v>
       </c>
       <c r="M42" s="80">
-        <v>1488</v>
-      </c>
-      <c r="N42" s="80">
-        <v>1356</v>
-      </c>
-      <c r="O42" s="80">
         <v>1399</v>
       </c>
-      <c r="P42" s="81">
+      <c r="N42" s="81">
         <v>1460</v>
       </c>
+      <c r="O42" s="46">
+        <v>49.2</v>
+      </c>
+      <c r="P42" s="46">
+        <v>51.6</v>
+      </c>
       <c r="Q42" s="46">
-        <v>49.2</v>
+        <v>44.7</v>
       </c>
       <c r="R42" s="46">
-        <v>51.6</v>
+        <v>45.8</v>
       </c>
       <c r="S42" s="46">
-        <v>44.7</v>
+        <v>52.9</v>
       </c>
       <c r="T42" s="46">
-        <v>45.8</v>
+        <v>67.8</v>
       </c>
       <c r="U42" s="46">
-        <v>52.9</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="V42" s="46">
-        <v>67.8</v>
-      </c>
-      <c r="W42" s="46">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="X42" s="46">
         <v>73.099999999999994</v>
       </c>
+      <c r="W42" s="47">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="X42" s="65">
+        <v>63</v>
+      </c>
       <c r="Y42" s="47">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="Z42" s="65">
-        <v>63</v>
+        <v>56.4</v>
+      </c>
+      <c r="Z42" s="47">
+        <v>57</v>
       </c>
       <c r="AA42" s="47">
-        <v>56.4</v>
-      </c>
-      <c r="AB42" s="47">
-        <v>57</v>
-      </c>
-      <c r="AC42" s="47">
         <v>58.6</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
+      <c r="B43" s="80">
+        <v>341</v>
+      </c>
+      <c r="C43" s="80">
+        <v>396</v>
+      </c>
       <c r="D43" s="80">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="E43" s="80">
-        <v>396</v>
+        <v>315</v>
       </c>
       <c r="F43" s="80">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="G43" s="80">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="H43" s="80">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="I43" s="80">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="J43" s="80">
-        <v>344</v>
+        <v>401</v>
       </c>
       <c r="K43" s="80">
-        <v>368</v>
+        <v>256</v>
       </c>
       <c r="L43" s="80">
-        <v>401</v>
+        <v>227</v>
       </c>
       <c r="M43" s="80">
-        <v>256</v>
-      </c>
-      <c r="N43" s="80">
-        <v>227</v>
-      </c>
-      <c r="O43" s="80">
         <v>150</v>
       </c>
-      <c r="P43" s="81">
+      <c r="N43" s="81">
         <v>217</v>
       </c>
+      <c r="O43" s="46">
+        <v>15.2</v>
+      </c>
+      <c r="P43" s="46">
+        <v>17.600000000000001</v>
+      </c>
       <c r="Q43" s="46">
+        <v>15.5</v>
+      </c>
+      <c r="R43" s="46">
+        <v>14</v>
+      </c>
+      <c r="S43" s="46">
+        <v>14.5</v>
+      </c>
+      <c r="T43" s="46">
+        <v>14.9</v>
+      </c>
+      <c r="U43" s="46">
         <v>15.2</v>
       </c>
-      <c r="R43" s="46">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="S43" s="46">
-        <v>15.5</v>
-      </c>
-      <c r="T43" s="46">
-        <v>14</v>
-      </c>
-      <c r="U43" s="46">
-        <v>14.5</v>
-      </c>
       <c r="V43" s="46">
-        <v>14.9</v>
-      </c>
-      <c r="W43" s="46">
-        <v>15.2</v>
-      </c>
-      <c r="X43" s="46">
         <v>16.100000000000001</v>
       </c>
+      <c r="W43" s="47">
+        <v>17.3</v>
+      </c>
+      <c r="X43" s="65">
+        <v>10.8</v>
+      </c>
       <c r="Y43" s="47">
-        <v>17.3</v>
-      </c>
-      <c r="Z43" s="65">
-        <v>10.8</v>
+        <v>9.4</v>
+      </c>
+      <c r="Z43" s="47">
+        <v>6.1</v>
       </c>
       <c r="AA43" s="47">
-        <v>9.4</v>
-      </c>
-      <c r="AB43" s="47">
-        <v>6.1</v>
-      </c>
-      <c r="AC43" s="47">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="80">
+        <v>637</v>
+      </c>
+      <c r="C44" s="80">
+        <v>734</v>
+      </c>
       <c r="D44" s="80">
-        <v>637</v>
+        <v>672</v>
       </c>
       <c r="E44" s="80">
-        <v>734</v>
+        <v>588</v>
       </c>
       <c r="F44" s="80">
-        <v>672</v>
+        <v>533</v>
       </c>
       <c r="G44" s="80">
-        <v>588</v>
+        <v>534</v>
       </c>
       <c r="H44" s="80">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="I44" s="80">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="J44" s="80">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="K44" s="80">
-        <v>538</v>
+        <v>393</v>
       </c>
       <c r="L44" s="80">
-        <v>555</v>
+        <v>388</v>
       </c>
       <c r="M44" s="80">
-        <v>393</v>
-      </c>
-      <c r="N44" s="80">
-        <v>388</v>
-      </c>
-      <c r="O44" s="80">
         <v>426</v>
       </c>
-      <c r="P44" s="81">
+      <c r="N44" s="81">
         <v>427</v>
       </c>
+      <c r="O44" s="46">
+        <v>28.4</v>
+      </c>
+      <c r="P44" s="46">
+        <v>32.700000000000003</v>
+      </c>
       <c r="Q44" s="46">
-        <v>28.4</v>
+        <v>29.9</v>
       </c>
       <c r="R44" s="46">
-        <v>32.700000000000003</v>
+        <v>26.1</v>
       </c>
       <c r="S44" s="46">
-        <v>29.9</v>
+        <v>23.6</v>
       </c>
       <c r="T44" s="46">
-        <v>26.1</v>
+        <v>23.7</v>
       </c>
       <c r="U44" s="46">
-        <v>23.6</v>
+        <v>24.6</v>
       </c>
       <c r="V44" s="46">
-        <v>23.7</v>
-      </c>
-      <c r="W44" s="46">
-        <v>24.6</v>
-      </c>
-      <c r="X44" s="46">
         <v>23.5</v>
       </c>
+      <c r="W44" s="47">
+        <v>23.9</v>
+      </c>
+      <c r="X44" s="65">
+        <v>16.600000000000001</v>
+      </c>
       <c r="Y44" s="47">
-        <v>23.9</v>
-      </c>
-      <c r="Z44" s="65">
-        <v>16.600000000000001</v>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="Z44" s="47">
+        <v>17.399999999999999</v>
       </c>
       <c r="AA44" s="47">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="AB44" s="47">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="AC44" s="47">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
+      <c r="B45" s="80">
+        <v>1444</v>
+      </c>
+      <c r="C45" s="80">
+        <v>1635</v>
+      </c>
       <c r="D45" s="80">
-        <v>1444</v>
+        <v>1595</v>
       </c>
       <c r="E45" s="80">
-        <v>1635</v>
+        <v>1293</v>
       </c>
       <c r="F45" s="80">
-        <v>1595</v>
+        <v>1149</v>
       </c>
       <c r="G45" s="80">
-        <v>1293</v>
+        <v>1046</v>
       </c>
       <c r="H45" s="80">
-        <v>1149</v>
+        <v>947</v>
       </c>
       <c r="I45" s="80">
-        <v>1046</v>
+        <v>906</v>
       </c>
       <c r="J45" s="80">
-        <v>947</v>
+        <v>1031</v>
       </c>
       <c r="K45" s="80">
-        <v>906</v>
+        <v>1253</v>
       </c>
       <c r="L45" s="80">
-        <v>1031</v>
+        <v>1521</v>
       </c>
       <c r="M45" s="80">
-        <v>1253</v>
-      </c>
-      <c r="N45" s="80">
-        <v>1521</v>
-      </c>
-      <c r="O45" s="80">
         <v>1780</v>
       </c>
-      <c r="P45" s="81">
+      <c r="N45" s="81">
         <v>1425</v>
       </c>
+      <c r="O45" s="46">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="P45" s="46">
+        <v>72.900000000000006</v>
+      </c>
       <c r="Q45" s="46">
-        <v>64.400000000000006</v>
+        <v>71</v>
       </c>
       <c r="R45" s="46">
-        <v>72.900000000000006</v>
+        <v>57.4</v>
       </c>
       <c r="S45" s="46">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="T45" s="46">
-        <v>57.4</v>
+        <v>46.3</v>
       </c>
       <c r="U45" s="46">
-        <v>51</v>
+        <v>41.8</v>
       </c>
       <c r="V45" s="46">
-        <v>46.3</v>
-      </c>
-      <c r="W45" s="46">
-        <v>41.8</v>
-      </c>
-      <c r="X45" s="46">
         <v>39.6</v>
       </c>
+      <c r="W45" s="47">
+        <v>44.4</v>
+      </c>
+      <c r="X45" s="65">
+        <v>53</v>
+      </c>
       <c r="Y45" s="47">
-        <v>44.4</v>
-      </c>
-      <c r="Z45" s="65">
-        <v>53</v>
+        <v>63.2</v>
+      </c>
+      <c r="Z45" s="47">
+        <v>72.599999999999994</v>
       </c>
       <c r="AA45" s="47">
-        <v>63.2</v>
-      </c>
-      <c r="AB45" s="47">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="AC45" s="47">
         <v>57.2</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
+      <c r="B46" s="80">
+        <v>7197</v>
+      </c>
+      <c r="C46" s="80">
+        <v>7488</v>
+      </c>
       <c r="D46" s="80">
-        <v>7197</v>
+        <v>7089</v>
       </c>
       <c r="E46" s="80">
-        <v>7488</v>
+        <v>6002</v>
       </c>
       <c r="F46" s="80">
-        <v>7089</v>
+        <v>5233</v>
       </c>
       <c r="G46" s="80">
-        <v>6002</v>
+        <v>4884</v>
       </c>
       <c r="H46" s="80">
-        <v>5233</v>
+        <v>4449</v>
       </c>
       <c r="I46" s="80">
-        <v>4884</v>
+        <v>4543</v>
       </c>
       <c r="J46" s="80">
-        <v>4449</v>
+        <v>4554</v>
       </c>
       <c r="K46" s="80">
-        <v>4543</v>
+        <v>4455</v>
       </c>
       <c r="L46" s="80">
-        <v>4554</v>
+        <v>4040</v>
       </c>
       <c r="M46" s="80">
-        <v>4455</v>
-      </c>
-      <c r="N46" s="80">
-        <v>4040</v>
-      </c>
-      <c r="O46" s="80">
         <v>3765</v>
       </c>
-      <c r="P46" s="81">
+      <c r="N46" s="81">
         <v>3377</v>
       </c>
+      <c r="O46" s="46">
+        <v>321.10000000000002</v>
+      </c>
+      <c r="P46" s="46">
+        <v>333.7</v>
+      </c>
       <c r="Q46" s="46">
-        <v>321.10000000000002</v>
+        <v>315.60000000000002</v>
       </c>
       <c r="R46" s="46">
-        <v>333.7</v>
+        <v>266.60000000000002</v>
       </c>
       <c r="S46" s="46">
-        <v>315.60000000000002</v>
+        <v>232.1</v>
       </c>
       <c r="T46" s="46">
-        <v>266.60000000000002</v>
+        <v>216.3</v>
       </c>
       <c r="U46" s="46">
-        <v>232.1</v>
+        <v>196.3</v>
       </c>
       <c r="V46" s="46">
-        <v>216.3</v>
-      </c>
-      <c r="W46" s="46">
+        <v>198.8</v>
+      </c>
+      <c r="W46" s="47">
         <v>196.3</v>
       </c>
-      <c r="X46" s="46">
-        <v>198.8</v>
+      <c r="X46" s="65">
+        <v>188.6</v>
       </c>
       <c r="Y46" s="47">
-        <v>196.3</v>
-      </c>
-      <c r="Z46" s="65">
-        <v>188.6</v>
+        <v>168</v>
+      </c>
+      <c r="Z46" s="47">
+        <v>153.5</v>
       </c>
       <c r="AA46" s="47">
-        <v>168</v>
-      </c>
-      <c r="AB46" s="47">
-        <v>153.5</v>
-      </c>
-      <c r="AC46" s="47">
         <v>135.5</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
+      <c r="B47" s="80">
+        <v>20885</v>
+      </c>
+      <c r="C47" s="80">
+        <v>22868</v>
+      </c>
       <c r="D47" s="80">
-        <v>20885</v>
+        <v>22397</v>
       </c>
       <c r="E47" s="80">
-        <v>22868</v>
+        <v>20901</v>
       </c>
       <c r="F47" s="80">
-        <v>22397</v>
+        <v>17032</v>
       </c>
       <c r="G47" s="80">
-        <v>20901</v>
+        <v>11101</v>
       </c>
       <c r="H47" s="80">
-        <v>17032</v>
+        <v>8970</v>
       </c>
       <c r="I47" s="80">
-        <v>11101</v>
+        <v>9022</v>
       </c>
       <c r="J47" s="80">
-        <v>8970</v>
+        <v>8722</v>
       </c>
       <c r="K47" s="80">
-        <v>9022</v>
+        <v>8450</v>
       </c>
       <c r="L47" s="80">
-        <v>8722</v>
+        <v>7501</v>
       </c>
       <c r="M47" s="80">
-        <v>8450</v>
-      </c>
-      <c r="N47" s="80">
-        <v>7501</v>
-      </c>
-      <c r="O47" s="80">
         <v>6657</v>
       </c>
-      <c r="P47" s="81">
+      <c r="N47" s="81">
         <v>5212</v>
       </c>
+      <c r="O47" s="46">
+        <v>931.9</v>
+      </c>
+      <c r="P47" s="46">
+        <v>1019</v>
+      </c>
       <c r="Q47" s="46">
-        <v>931.9</v>
+        <v>997.1</v>
       </c>
       <c r="R47" s="46">
-        <v>1019</v>
+        <v>928.5</v>
       </c>
       <c r="S47" s="46">
-        <v>997.1</v>
+        <v>755.6</v>
       </c>
       <c r="T47" s="46">
-        <v>928.5</v>
+        <v>491.7</v>
       </c>
       <c r="U47" s="46">
-        <v>755.6</v>
+        <v>395.7</v>
       </c>
       <c r="V47" s="46">
-        <v>491.7</v>
-      </c>
-      <c r="W47" s="46">
-        <v>395.7</v>
-      </c>
-      <c r="X47" s="46">
         <v>394.8</v>
       </c>
+      <c r="W47" s="47">
+        <v>375.9</v>
+      </c>
+      <c r="X47" s="65">
+        <v>357.7</v>
+      </c>
       <c r="Y47" s="47">
-        <v>375.9</v>
-      </c>
-      <c r="Z47" s="65">
-        <v>357.7</v>
+        <v>311.89999999999998</v>
+      </c>
+      <c r="Z47" s="47">
+        <v>271.39999999999998</v>
       </c>
       <c r="AA47" s="47">
-        <v>311.89999999999998</v>
-      </c>
-      <c r="AB47" s="47">
-        <v>271.39999999999998</v>
-      </c>
-      <c r="AC47" s="47">
         <v>209.1</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
+      <c r="B48" s="80">
+        <v>976</v>
+      </c>
+      <c r="C48" s="80">
+        <v>960</v>
+      </c>
       <c r="D48" s="80">
-        <v>976</v>
+        <v>798</v>
       </c>
       <c r="E48" s="80">
-        <v>960</v>
+        <v>628</v>
       </c>
       <c r="F48" s="80">
-        <v>798</v>
+        <v>728</v>
       </c>
       <c r="G48" s="80">
-        <v>628</v>
+        <v>980</v>
       </c>
       <c r="H48" s="80">
-        <v>728</v>
+        <v>1077</v>
       </c>
       <c r="I48" s="80">
-        <v>980</v>
+        <v>929</v>
       </c>
       <c r="J48" s="80">
-        <v>1077</v>
+        <v>858</v>
       </c>
       <c r="K48" s="80">
-        <v>929</v>
+        <v>939</v>
       </c>
       <c r="L48" s="80">
-        <v>858</v>
+        <v>917</v>
       </c>
       <c r="M48" s="80">
-        <v>939</v>
-      </c>
-      <c r="N48" s="80">
-        <v>917</v>
-      </c>
-      <c r="O48" s="80">
         <v>825</v>
       </c>
-      <c r="P48" s="81">
+      <c r="N48" s="81">
         <v>739</v>
       </c>
+      <c r="O48" s="46">
+        <v>43.5</v>
+      </c>
+      <c r="P48" s="46">
+        <v>42.8</v>
+      </c>
       <c r="Q48" s="46">
-        <v>43.5</v>
+        <v>35.5</v>
       </c>
       <c r="R48" s="46">
-        <v>42.8</v>
+        <v>27.9</v>
       </c>
       <c r="S48" s="46">
-        <v>35.5</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="T48" s="46">
-        <v>27.9</v>
+        <v>43.4</v>
       </c>
       <c r="U48" s="46">
-        <v>32.299999999999997</v>
+        <v>47.5</v>
       </c>
       <c r="V48" s="46">
-        <v>43.4</v>
-      </c>
-      <c r="W48" s="46">
-        <v>47.5</v>
-      </c>
-      <c r="X48" s="46">
         <v>40.700000000000003</v>
       </c>
+      <c r="W48" s="47">
+        <v>37</v>
+      </c>
+      <c r="X48" s="65">
+        <v>39.799999999999997</v>
+      </c>
       <c r="Y48" s="47">
-        <v>37</v>
-      </c>
-      <c r="Z48" s="65">
-        <v>39.799999999999997</v>
+        <v>38.1</v>
+      </c>
+      <c r="Z48" s="47">
+        <v>33.6</v>
       </c>
       <c r="AA48" s="47">
-        <v>38.1</v>
-      </c>
-      <c r="AB48" s="47">
-        <v>33.6</v>
-      </c>
-      <c r="AC48" s="47">
         <v>29.7</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
+      <c r="B49" s="80">
+        <v>3916</v>
+      </c>
+      <c r="C49" s="80">
+        <v>4470</v>
+      </c>
       <c r="D49" s="80">
-        <v>3916</v>
+        <v>4632</v>
       </c>
       <c r="E49" s="80">
-        <v>4470</v>
+        <v>4569</v>
       </c>
       <c r="F49" s="80">
-        <v>4632</v>
+        <v>5072</v>
       </c>
       <c r="G49" s="80">
-        <v>4569</v>
+        <v>5551</v>
       </c>
       <c r="H49" s="80">
-        <v>5072</v>
+        <v>6023</v>
       </c>
       <c r="I49" s="80">
-        <v>5551</v>
+        <v>5811</v>
       </c>
       <c r="J49" s="80">
-        <v>6023</v>
+        <v>5757</v>
       </c>
       <c r="K49" s="80">
-        <v>5811</v>
+        <v>5467</v>
       </c>
       <c r="L49" s="80">
-        <v>5757</v>
+        <v>5224</v>
       </c>
       <c r="M49" s="80">
-        <v>5467</v>
-      </c>
-      <c r="N49" s="80">
-        <v>5224</v>
-      </c>
-      <c r="O49" s="80">
         <v>5121</v>
       </c>
-      <c r="P49" s="81">
+      <c r="N49" s="81">
         <v>4088</v>
       </c>
+      <c r="O49" s="46">
+        <v>174.7</v>
+      </c>
+      <c r="P49" s="46">
+        <v>199.2</v>
+      </c>
       <c r="Q49" s="46">
-        <v>174.7</v>
+        <v>206.2</v>
       </c>
       <c r="R49" s="46">
-        <v>199.2</v>
+        <v>203</v>
       </c>
       <c r="S49" s="46">
-        <v>206.2</v>
+        <v>225</v>
       </c>
       <c r="T49" s="46">
-        <v>203</v>
+        <v>245.9</v>
       </c>
       <c r="U49" s="46">
-        <v>225</v>
+        <v>265.7</v>
       </c>
       <c r="V49" s="46">
-        <v>245.9</v>
-      </c>
-      <c r="W49" s="46">
-        <v>265.7</v>
-      </c>
-      <c r="X49" s="46">
         <v>254.3</v>
       </c>
+      <c r="W49" s="47">
+        <v>248.1</v>
+      </c>
+      <c r="X49" s="65">
+        <v>231.5</v>
+      </c>
       <c r="Y49" s="47">
-        <v>248.1</v>
-      </c>
-      <c r="Z49" s="65">
-        <v>231.5</v>
+        <v>217.2</v>
+      </c>
+      <c r="Z49" s="47">
+        <v>208.8</v>
       </c>
       <c r="AA49" s="47">
-        <v>217.2</v>
-      </c>
-      <c r="AB49" s="47">
-        <v>208.8</v>
-      </c>
-      <c r="AC49" s="47">
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
+      <c r="B50" s="80">
+        <v>1482</v>
+      </c>
+      <c r="C50" s="80">
+        <v>1542</v>
+      </c>
       <c r="D50" s="80">
-        <v>1482</v>
+        <v>1361</v>
       </c>
       <c r="E50" s="80">
-        <v>1542</v>
+        <v>1153</v>
       </c>
       <c r="F50" s="80">
-        <v>1361</v>
+        <v>1055</v>
       </c>
       <c r="G50" s="80">
-        <v>1153</v>
+        <v>893</v>
       </c>
       <c r="H50" s="80">
-        <v>1055</v>
+        <v>888</v>
       </c>
       <c r="I50" s="80">
-        <v>893</v>
+        <v>929</v>
       </c>
       <c r="J50" s="80">
-        <v>888</v>
+        <v>914</v>
       </c>
       <c r="K50" s="80">
-        <v>929</v>
+        <v>1198</v>
       </c>
       <c r="L50" s="80">
-        <v>914</v>
+        <v>1182</v>
       </c>
       <c r="M50" s="80">
-        <v>1198</v>
-      </c>
-      <c r="N50" s="80">
-        <v>1182</v>
-      </c>
-      <c r="O50" s="80">
         <v>1264</v>
       </c>
-      <c r="P50" s="81">
+      <c r="N50" s="81">
         <v>1108</v>
       </c>
+      <c r="O50" s="46">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="P50" s="46">
+        <v>68.7</v>
+      </c>
       <c r="Q50" s="46">
-        <v>66.099999999999994</v>
+        <v>60.6</v>
       </c>
       <c r="R50" s="46">
-        <v>68.7</v>
+        <v>51.2</v>
       </c>
       <c r="S50" s="46">
-        <v>60.6</v>
+        <v>46.8</v>
       </c>
       <c r="T50" s="46">
-        <v>51.2</v>
+        <v>39.6</v>
       </c>
       <c r="U50" s="46">
-        <v>46.8</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="V50" s="46">
-        <v>39.6</v>
-      </c>
-      <c r="W50" s="46">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="X50" s="46">
         <v>40.700000000000003</v>
       </c>
+      <c r="W50" s="47">
+        <v>39.4</v>
+      </c>
+      <c r="X50" s="65">
+        <v>50.7</v>
+      </c>
       <c r="Y50" s="47">
-        <v>39.4</v>
-      </c>
-      <c r="Z50" s="65">
-        <v>50.7</v>
+        <v>49.1</v>
+      </c>
+      <c r="Z50" s="47">
+        <v>51.5</v>
       </c>
       <c r="AA50" s="47">
-        <v>49.1</v>
-      </c>
-      <c r="AB50" s="47">
-        <v>51.5</v>
-      </c>
-      <c r="AC50" s="47">
         <v>44.5</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
+      <c r="B51" s="80">
+        <v>7109</v>
+      </c>
+      <c r="C51" s="80">
+        <v>6693</v>
+      </c>
       <c r="D51" s="80">
-        <v>7109</v>
+        <v>6032</v>
       </c>
       <c r="E51" s="80">
-        <v>6693</v>
+        <v>5208</v>
       </c>
       <c r="F51" s="80">
-        <v>6032</v>
+        <v>4736</v>
       </c>
       <c r="G51" s="80">
-        <v>5208</v>
+        <v>3940</v>
       </c>
       <c r="H51" s="80">
-        <v>4736</v>
+        <v>3694</v>
       </c>
       <c r="I51" s="80">
-        <v>3940</v>
+        <v>3607</v>
       </c>
       <c r="J51" s="80">
-        <v>3694</v>
+        <v>3376</v>
       </c>
       <c r="K51" s="80">
-        <v>3607</v>
+        <v>3227</v>
       </c>
       <c r="L51" s="80">
-        <v>3376</v>
+        <v>2882</v>
       </c>
       <c r="M51" s="80">
-        <v>3227</v>
-      </c>
-      <c r="N51" s="80">
-        <v>2882</v>
-      </c>
-      <c r="O51" s="80">
         <v>2717</v>
       </c>
-      <c r="P51" s="81">
+      <c r="N51" s="81">
         <v>2766</v>
       </c>
+      <c r="O51" s="46">
+        <v>317.2</v>
+      </c>
+      <c r="P51" s="46">
+        <v>298.2</v>
+      </c>
       <c r="Q51" s="46">
-        <v>317.2</v>
+        <v>268.5</v>
       </c>
       <c r="R51" s="46">
-        <v>298.2</v>
+        <v>231.4</v>
       </c>
       <c r="S51" s="46">
-        <v>268.5</v>
+        <v>210.1</v>
       </c>
       <c r="T51" s="46">
-        <v>231.4</v>
+        <v>174.5</v>
       </c>
       <c r="U51" s="46">
-        <v>210.1</v>
+        <v>163</v>
       </c>
       <c r="V51" s="46">
-        <v>174.5</v>
-      </c>
-      <c r="W51" s="46">
-        <v>163</v>
-      </c>
-      <c r="X51" s="46">
         <v>157.80000000000001</v>
       </c>
+      <c r="W51" s="47">
+        <v>145.5</v>
+      </c>
+      <c r="X51" s="65">
+        <v>136.6</v>
+      </c>
       <c r="Y51" s="47">
-        <v>145.5</v>
-      </c>
-      <c r="Z51" s="65">
-        <v>136.6</v>
+        <v>119.8</v>
+      </c>
+      <c r="Z51" s="47">
+        <v>110.8</v>
       </c>
       <c r="AA51" s="47">
-        <v>119.8</v>
-      </c>
-      <c r="AB51" s="47">
-        <v>110.8</v>
-      </c>
-      <c r="AC51" s="47">
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
+      <c r="B52" s="80">
+        <v>10733</v>
+      </c>
+      <c r="C52" s="80">
+        <v>10435</v>
+      </c>
       <c r="D52" s="80">
-        <v>10733</v>
+        <v>9592</v>
       </c>
       <c r="E52" s="80">
-        <v>10435</v>
+        <v>7519</v>
       </c>
       <c r="F52" s="80">
-        <v>9592</v>
+        <v>6637</v>
       </c>
       <c r="G52" s="80">
-        <v>7519</v>
+        <v>6027</v>
       </c>
       <c r="H52" s="80">
-        <v>6637</v>
+        <v>5305</v>
       </c>
       <c r="I52" s="80">
-        <v>6027</v>
+        <v>5513</v>
       </c>
       <c r="J52" s="80">
-        <v>5305</v>
+        <v>5285</v>
       </c>
       <c r="K52" s="80">
-        <v>5513</v>
+        <v>4873</v>
       </c>
       <c r="L52" s="80">
-        <v>5285</v>
+        <v>4282</v>
       </c>
       <c r="M52" s="80">
-        <v>4873</v>
-      </c>
-      <c r="N52" s="80">
-        <v>4282</v>
-      </c>
-      <c r="O52" s="80">
         <v>4007</v>
       </c>
-      <c r="P52" s="81">
+      <c r="N52" s="81">
         <v>3817</v>
       </c>
+      <c r="O52" s="46">
+        <v>478.9</v>
+      </c>
+      <c r="P52" s="46">
+        <v>465</v>
+      </c>
       <c r="Q52" s="46">
-        <v>478.9</v>
+        <v>427</v>
       </c>
       <c r="R52" s="46">
-        <v>465</v>
+        <v>334</v>
       </c>
       <c r="S52" s="46">
-        <v>427</v>
+        <v>294.39999999999998</v>
       </c>
       <c r="T52" s="46">
-        <v>334</v>
+        <v>266.89999999999998</v>
       </c>
       <c r="U52" s="46">
-        <v>294.39999999999998</v>
+        <v>234</v>
       </c>
       <c r="V52" s="46">
-        <v>266.89999999999998</v>
-      </c>
-      <c r="W52" s="46">
-        <v>234</v>
-      </c>
-      <c r="X52" s="46">
         <v>241.3</v>
       </c>
+      <c r="W52" s="47">
+        <v>227.8</v>
+      </c>
+      <c r="X52" s="58">
+        <v>206.3</v>
+      </c>
       <c r="Y52" s="47">
-        <v>227.8</v>
-      </c>
-      <c r="Z52" s="58">
-        <v>206.3</v>
+        <v>178.1</v>
+      </c>
+      <c r="Z52" s="47">
+        <v>163.4</v>
       </c>
       <c r="AA52" s="47">
-        <v>178.1</v>
-      </c>
-      <c r="AB52" s="47">
-        <v>163.4</v>
-      </c>
-      <c r="AC52" s="47">
         <v>153.1</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
+      <c r="B53" s="80">
+        <v>1500</v>
+      </c>
+      <c r="C53" s="80">
+        <v>1297</v>
+      </c>
       <c r="D53" s="80">
-        <v>1500</v>
+        <v>1160</v>
       </c>
       <c r="E53" s="80">
-        <v>1297</v>
+        <v>966</v>
       </c>
       <c r="F53" s="80">
-        <v>1160</v>
+        <v>931</v>
       </c>
       <c r="G53" s="80">
-        <v>966</v>
+        <v>975</v>
       </c>
       <c r="H53" s="80">
-        <v>931</v>
+        <v>810</v>
       </c>
       <c r="I53" s="80">
-        <v>975</v>
+        <v>836</v>
       </c>
       <c r="J53" s="80">
-        <v>810</v>
+        <v>608</v>
       </c>
       <c r="K53" s="80">
-        <v>836</v>
+        <v>690</v>
       </c>
       <c r="L53" s="80">
-        <v>608</v>
+        <v>653</v>
       </c>
       <c r="M53" s="80">
-        <v>690</v>
-      </c>
-      <c r="N53" s="80">
-        <v>653</v>
-      </c>
-      <c r="O53" s="80">
         <v>575</v>
       </c>
-      <c r="P53" s="81">
+      <c r="N53" s="81">
         <v>560</v>
       </c>
+      <c r="O53" s="46">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="P53" s="46">
+        <v>57.8</v>
+      </c>
       <c r="Q53" s="46">
-        <v>66.900000000000006</v>
+        <v>51.6</v>
       </c>
       <c r="R53" s="46">
-        <v>57.8</v>
+        <v>42.9</v>
       </c>
       <c r="S53" s="46">
-        <v>51.6</v>
+        <v>41.3</v>
       </c>
       <c r="T53" s="46">
-        <v>42.9</v>
+        <v>43.2</v>
       </c>
       <c r="U53" s="46">
-        <v>41.3</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="V53" s="46">
-        <v>43.2</v>
-      </c>
-      <c r="W53" s="46">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="X53" s="46">
         <v>36.6</v>
       </c>
+      <c r="W53" s="47">
+        <v>26.2</v>
+      </c>
+      <c r="X53" s="65">
+        <v>29.2</v>
+      </c>
       <c r="Y53" s="47">
-        <v>26.2</v>
-      </c>
-      <c r="Z53" s="65">
-        <v>29.2</v>
+        <v>27.2</v>
+      </c>
+      <c r="Z53" s="47">
+        <v>23.4</v>
       </c>
       <c r="AA53" s="47">
-        <v>27.2</v>
-      </c>
-      <c r="AB53" s="47">
-        <v>23.4</v>
-      </c>
-      <c r="AC53" s="47">
         <v>22.5</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
+      <c r="B54" s="80">
+        <v>1430</v>
+      </c>
+      <c r="C54" s="80">
+        <v>1978</v>
+      </c>
       <c r="D54" s="80">
-        <v>1430</v>
+        <v>2642</v>
       </c>
       <c r="E54" s="80">
-        <v>1978</v>
+        <v>2944</v>
       </c>
       <c r="F54" s="80">
-        <v>2642</v>
+        <v>4207</v>
       </c>
       <c r="G54" s="80">
-        <v>2944</v>
+        <v>1410</v>
       </c>
       <c r="H54" s="80">
-        <v>4207</v>
+        <v>1343</v>
       </c>
       <c r="I54" s="80">
-        <v>1410</v>
+        <v>1267</v>
       </c>
       <c r="J54" s="80">
-        <v>1343</v>
+        <v>1026</v>
       </c>
       <c r="K54" s="80">
-        <v>1267</v>
+        <v>994</v>
       </c>
       <c r="L54" s="80">
-        <v>1026</v>
+        <v>878</v>
       </c>
       <c r="M54" s="80">
-        <v>994</v>
-      </c>
-      <c r="N54" s="80">
-        <v>878</v>
-      </c>
-      <c r="O54" s="80">
         <v>1015</v>
       </c>
-      <c r="P54" s="81">
+      <c r="N54" s="81">
         <v>1479</v>
       </c>
+      <c r="O54" s="46">
+        <v>63.8</v>
+      </c>
+      <c r="P54" s="46">
+        <v>88.1</v>
+      </c>
       <c r="Q54" s="46">
-        <v>63.8</v>
+        <v>117.6</v>
       </c>
       <c r="R54" s="46">
-        <v>88.1</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="S54" s="46">
-        <v>117.6</v>
+        <v>186.6</v>
       </c>
       <c r="T54" s="46">
-        <v>130.80000000000001</v>
+        <v>62.4</v>
       </c>
       <c r="U54" s="46">
-        <v>186.6</v>
+        <v>59.2</v>
       </c>
       <c r="V54" s="46">
-        <v>62.4</v>
-      </c>
-      <c r="W54" s="46">
-        <v>59.2</v>
-      </c>
-      <c r="X54" s="46">
         <v>55.4</v>
       </c>
+      <c r="W54" s="47">
+        <v>44.2</v>
+      </c>
+      <c r="X54" s="58">
+        <v>42.1</v>
+      </c>
       <c r="Y54" s="47">
-        <v>44.2</v>
-      </c>
-      <c r="Z54" s="58">
-        <v>42.1</v>
+        <v>36.5</v>
+      </c>
+      <c r="Z54" s="47">
+        <v>41.4</v>
       </c>
       <c r="AA54" s="47">
-        <v>36.5</v>
-      </c>
-      <c r="AB54" s="47">
-        <v>41.4</v>
-      </c>
-      <c r="AC54" s="47">
         <v>59.3</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
+      <c r="B55" s="84">
+        <v>71421</v>
+      </c>
+      <c r="C55" s="84">
+        <v>74924</v>
+      </c>
       <c r="D55" s="84">
-        <v>71421</v>
+        <v>72062</v>
       </c>
       <c r="E55" s="84">
-        <v>74924</v>
+        <v>64152</v>
       </c>
       <c r="F55" s="84">
-        <v>72062</v>
+        <v>58688</v>
       </c>
       <c r="G55" s="84">
-        <v>64152</v>
+        <v>54410</v>
       </c>
       <c r="H55" s="84">
-        <v>58688</v>
+        <v>54421</v>
       </c>
       <c r="I55" s="84">
-        <v>54410</v>
+        <v>54775</v>
       </c>
       <c r="J55" s="84">
-        <v>54421</v>
+        <v>54064</v>
       </c>
       <c r="K55" s="84">
-        <v>54775</v>
+        <v>53070</v>
       </c>
       <c r="L55" s="84">
-        <v>54064</v>
+        <v>49181</v>
       </c>
       <c r="M55" s="84">
-        <v>53070</v>
-      </c>
-      <c r="N55" s="84">
-        <v>49181</v>
-      </c>
-      <c r="O55" s="84">
         <v>46949</v>
       </c>
-      <c r="P55" s="85">
+      <c r="N55" s="85">
         <v>44496</v>
       </c>
+      <c r="O55" s="49">
+        <v>3186.8</v>
+      </c>
+      <c r="P55" s="49">
+        <v>3338.5</v>
+      </c>
       <c r="Q55" s="49">
-        <v>3186.8</v>
+        <v>3208.1</v>
       </c>
       <c r="R55" s="49">
-        <v>3338.5</v>
+        <v>2849.8</v>
       </c>
       <c r="S55" s="49">
-        <v>3208.1</v>
+        <v>2603.5</v>
       </c>
       <c r="T55" s="49">
-        <v>2849.8</v>
+        <v>2409.8000000000002</v>
       </c>
       <c r="U55" s="49">
-        <v>2603.5</v>
+        <v>2400.9</v>
       </c>
       <c r="V55" s="49">
-        <v>2409.8000000000002</v>
-      </c>
-      <c r="W55" s="49">
-        <v>2400.9</v>
-      </c>
-      <c r="X55" s="49">
         <v>2397</v>
       </c>
+      <c r="W55" s="50">
+        <v>2330.1</v>
+      </c>
+      <c r="X55" s="68">
+        <v>2246.8000000000002</v>
+      </c>
       <c r="Y55" s="50">
-        <v>2330.1</v>
-      </c>
-      <c r="Z55" s="68">
-        <v>2246.8000000000002</v>
+        <v>2045</v>
+      </c>
+      <c r="Z55" s="50">
+        <v>1914.3</v>
       </c>
       <c r="AA55" s="50">
-        <v>2045</v>
-      </c>
-      <c r="AB55" s="50">
-        <v>1914.3</v>
-      </c>
-      <c r="AC55" s="50">
         <v>1785.3</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
+      <c r="B56" s="55">
+        <v>375593</v>
+      </c>
+      <c r="C56" s="55">
+        <v>393263</v>
+      </c>
       <c r="D56" s="55">
-        <v>375593</v>
+        <v>387841</v>
       </c>
       <c r="E56" s="55">
-        <v>393263</v>
+        <v>382098</v>
       </c>
       <c r="F56" s="55">
-        <v>387841</v>
+        <v>397663</v>
       </c>
       <c r="G56" s="55">
-        <v>382098</v>
+        <v>409896</v>
       </c>
       <c r="H56" s="55">
-        <v>397663</v>
+        <v>413775</v>
       </c>
       <c r="I56" s="55">
-        <v>409896</v>
+        <v>418352</v>
       </c>
       <c r="J56" s="55">
-        <v>413775</v>
+        <v>413894</v>
       </c>
       <c r="K56" s="55">
-        <v>418352</v>
+        <v>406767</v>
       </c>
       <c r="L56" s="55">
-        <v>413894</v>
+        <v>394638</v>
       </c>
       <c r="M56" s="55">
-        <v>406767</v>
-      </c>
-      <c r="N56" s="55">
-        <v>394638</v>
-      </c>
-      <c r="O56" s="55">
         <v>374645</v>
       </c>
-      <c r="P56" s="82">
+      <c r="N56" s="82">
         <v>359975</v>
       </c>
+      <c r="O56" s="51">
+        <v>2005.7</v>
+      </c>
+      <c r="P56" s="51">
+        <v>2062.1999999999998</v>
+      </c>
       <c r="Q56" s="51">
-        <v>2005.7</v>
+        <v>2005.1</v>
       </c>
       <c r="R56" s="51">
-        <v>2062.1999999999998</v>
+        <v>1945.3</v>
       </c>
       <c r="S56" s="51">
-        <v>2005.1</v>
+        <v>1990.7</v>
       </c>
       <c r="T56" s="51">
-        <v>1945.3</v>
+        <v>2020.7</v>
       </c>
       <c r="U56" s="51">
-        <v>1990.7</v>
+        <v>2011.2</v>
       </c>
       <c r="V56" s="51">
-        <v>2020.7</v>
-      </c>
-      <c r="W56" s="51">
-        <v>2011.2</v>
-      </c>
-      <c r="X56" s="51">
         <v>2004.5</v>
       </c>
+      <c r="W56" s="52">
+        <v>1949</v>
+      </c>
+      <c r="X56" s="60">
+        <v>1883.1</v>
+      </c>
       <c r="Y56" s="52">
-        <v>1949</v>
-      </c>
-      <c r="Z56" s="60">
-        <v>1883.1</v>
+        <v>1795.1</v>
+      </c>
+      <c r="Z56" s="52">
+        <v>1676.9</v>
       </c>
       <c r="AA56" s="52">
-        <v>1795.1</v>
-      </c>
-      <c r="AB56" s="52">
-        <v>1676.9</v>
-      </c>
-      <c r="AC56" s="52">
         <v>1598.6</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-    </row>
-    <row r="58" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-    </row>
-    <row r="59" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70"/>
-    </row>
-    <row r="60" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-    </row>
-    <row r="61" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-    </row>
-    <row r="62" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-    </row>
-    <row r="63" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-    </row>
-    <row r="64" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="B64" s="87"/>
-      <c r="C64" s="87"/>
-    </row>
-    <row r="65" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-    </row>
-    <row r="66" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-    </row>
-    <row r="67" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-    </row>
-    <row r="68" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-    </row>
-    <row r="69" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-    </row>
-    <row r="70" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="62" t="str">
         <f>Contents!B23</f>
         <v>© Commonwealth of Australia 2022</v>
       </c>
-      <c r="B70" s="62"/>
-      <c r="C70" s="62"/>
-    </row>
-    <row r="71" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="71" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D5:P5"/>
-    <mergeCell ref="Q5:AC5"/>
-    <mergeCell ref="D39:AC39"/>
+    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="O5:AA5"/>
+    <mergeCell ref="B39:AA39"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.14000000000000001" right="0.12" top="0.28999999999999998" bottom="0.22" header="0.22" footer="0.18"/>
@@ -10529,10 +10249,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D532A2CA-B0F7-4359-9615-49CBD13798EE}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="AE44" sqref="AE44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10542,10 +10262,10 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>182</v>
@@ -10557,40 +10277,40 @@
         <v>184</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I1" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="N1" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="L1" s="19" t="s">
+      <c r="O1" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q1" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -10600,49 +10320,49 @@
       <c r="B2" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="99">
+      <c r="C2" s="89">
         <v>67</v>
       </c>
-      <c r="D2" s="99">
+      <c r="D2" s="89">
         <v>8175</v>
       </c>
-      <c r="E2" s="99">
+      <c r="E2" s="89">
         <v>1001</v>
       </c>
-      <c r="F2" s="99">
+      <c r="F2" s="89">
         <v>307</v>
       </c>
-      <c r="G2" s="99">
+      <c r="G2" s="89">
         <v>488</v>
       </c>
-      <c r="H2" s="99">
+      <c r="H2" s="89">
         <v>1162</v>
       </c>
-      <c r="I2" s="99">
+      <c r="I2" s="89">
         <v>6135</v>
       </c>
-      <c r="J2" s="99">
+      <c r="J2" s="89">
         <v>11763</v>
       </c>
-      <c r="K2" s="99">
+      <c r="K2" s="89">
         <v>569</v>
       </c>
-      <c r="L2" s="99">
+      <c r="L2" s="89">
         <v>3140</v>
       </c>
-      <c r="M2" s="99">
+      <c r="M2" s="89">
         <v>1360</v>
       </c>
-      <c r="N2" s="99">
+      <c r="N2" s="89">
         <v>5946</v>
       </c>
-      <c r="O2" s="99">
+      <c r="O2" s="89">
         <v>7869</v>
       </c>
-      <c r="P2" s="99">
+      <c r="P2" s="89">
         <v>1055</v>
       </c>
-      <c r="Q2" s="99">
+      <c r="Q2" s="89">
         <v>1127</v>
       </c>
     </row>
@@ -10653,49 +10373,49 @@
       <c r="B3" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="99">
+      <c r="C3" s="89">
         <v>46</v>
       </c>
-      <c r="D3" s="99">
+      <c r="D3" s="89">
         <v>8329</v>
       </c>
-      <c r="E3" s="99">
+      <c r="E3" s="89">
         <v>1039</v>
       </c>
-      <c r="F3" s="99">
+      <c r="F3" s="89">
         <v>352</v>
       </c>
-      <c r="G3" s="99">
+      <c r="G3" s="89">
         <v>550</v>
       </c>
-      <c r="H3" s="99">
+      <c r="H3" s="89">
         <v>1355</v>
       </c>
-      <c r="I3" s="99">
+      <c r="I3" s="89">
         <v>6377</v>
       </c>
-      <c r="J3" s="99">
+      <c r="J3" s="89">
         <v>12732</v>
       </c>
-      <c r="K3" s="99">
+      <c r="K3" s="89">
         <v>561</v>
       </c>
-      <c r="L3" s="99">
+      <c r="L3" s="89">
         <v>3621</v>
       </c>
-      <c r="M3" s="99">
+      <c r="M3" s="89">
         <v>1427</v>
       </c>
-      <c r="N3" s="99">
+      <c r="N3" s="89">
         <v>5641</v>
       </c>
-      <c r="O3" s="99">
+      <c r="O3" s="89">
         <v>7757</v>
       </c>
-      <c r="P3" s="99">
+      <c r="P3" s="89">
         <v>910</v>
       </c>
-      <c r="Q3" s="99">
+      <c r="Q3" s="89">
         <v>1475</v>
       </c>
     </row>
@@ -10706,49 +10426,49 @@
       <c r="B4" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="99">
+      <c r="C4" s="89">
         <v>52</v>
       </c>
-      <c r="D4" s="99">
+      <c r="D4" s="89">
         <v>7890</v>
       </c>
-      <c r="E4" s="99">
+      <c r="E4" s="89">
         <v>902</v>
       </c>
-      <c r="F4" s="99">
+      <c r="F4" s="89">
         <v>309</v>
       </c>
-      <c r="G4" s="99">
+      <c r="G4" s="89">
         <v>512</v>
       </c>
-      <c r="H4" s="99">
+      <c r="H4" s="89">
         <v>1322</v>
       </c>
-      <c r="I4" s="99">
+      <c r="I4" s="89">
         <v>6130</v>
       </c>
-      <c r="J4" s="99">
+      <c r="J4" s="89">
         <v>13181</v>
       </c>
-      <c r="K4" s="99">
+      <c r="K4" s="89">
         <v>465</v>
       </c>
-      <c r="L4" s="99">
+      <c r="L4" s="89">
         <v>3780</v>
       </c>
-      <c r="M4" s="99">
+      <c r="M4" s="89">
         <v>1229</v>
       </c>
-      <c r="N4" s="99">
+      <c r="N4" s="89">
         <v>5091</v>
       </c>
-      <c r="O4" s="99">
+      <c r="O4" s="89">
         <v>7045</v>
       </c>
-      <c r="P4" s="99">
+      <c r="P4" s="89">
         <v>790</v>
       </c>
-      <c r="Q4" s="99">
+      <c r="Q4" s="89">
         <v>1916</v>
       </c>
     </row>
@@ -10759,49 +10479,49 @@
       <c r="B5" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="99">
+      <c r="C5" s="89">
         <v>33</v>
       </c>
-      <c r="D5" s="99">
+      <c r="D5" s="89">
         <v>6872</v>
       </c>
-      <c r="E5" s="99">
+      <c r="E5" s="89">
         <v>884</v>
       </c>
-      <c r="F5" s="99">
+      <c r="F5" s="89">
         <v>278</v>
       </c>
-      <c r="G5" s="99">
+      <c r="G5" s="89">
         <v>454</v>
       </c>
-      <c r="H5" s="99">
+      <c r="H5" s="89">
         <v>1062</v>
       </c>
-      <c r="I5" s="99">
+      <c r="I5" s="89">
         <v>5102</v>
       </c>
-      <c r="J5" s="99">
+      <c r="J5" s="89">
         <v>12717</v>
       </c>
-      <c r="K5" s="99">
+      <c r="K5" s="89">
         <v>414</v>
       </c>
-      <c r="L5" s="99">
+      <c r="L5" s="89">
         <v>3699</v>
       </c>
-      <c r="M5" s="99">
+      <c r="M5" s="89">
         <v>1063</v>
       </c>
-      <c r="N5" s="99">
+      <c r="N5" s="89">
         <v>4314</v>
       </c>
-      <c r="O5" s="99">
+      <c r="O5" s="89">
         <v>5624</v>
       </c>
-      <c r="P5" s="99">
+      <c r="P5" s="89">
         <v>676</v>
       </c>
-      <c r="Q5" s="99">
+      <c r="Q5" s="89">
         <v>2093</v>
       </c>
     </row>
@@ -10812,49 +10532,49 @@
       <c r="B6" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="99">
+      <c r="C6" s="89">
         <v>30</v>
       </c>
-      <c r="D6" s="99">
+      <c r="D6" s="89">
         <v>6211</v>
       </c>
-      <c r="E6" s="99">
+      <c r="E6" s="89">
         <v>997</v>
       </c>
-      <c r="F6" s="99">
+      <c r="F6" s="89">
         <v>295</v>
       </c>
-      <c r="G6" s="99">
+      <c r="G6" s="89">
         <v>384</v>
       </c>
-      <c r="H6" s="99">
+      <c r="H6" s="89">
         <v>884</v>
       </c>
-      <c r="I6" s="99">
+      <c r="I6" s="89">
         <v>4473</v>
       </c>
-      <c r="J6" s="99">
+      <c r="J6" s="89">
         <v>10612</v>
       </c>
-      <c r="K6" s="99">
+      <c r="K6" s="89">
         <v>472</v>
       </c>
-      <c r="L6" s="99">
+      <c r="L6" s="89">
         <v>4109</v>
       </c>
-      <c r="M6" s="99">
+      <c r="M6" s="89">
         <v>954</v>
       </c>
-      <c r="N6" s="99">
+      <c r="N6" s="89">
         <v>3949</v>
       </c>
-      <c r="O6" s="99">
+      <c r="O6" s="89">
         <v>4988</v>
       </c>
-      <c r="P6" s="99">
+      <c r="P6" s="89">
         <v>647</v>
       </c>
-      <c r="Q6" s="99">
+      <c r="Q6" s="89">
         <v>3064</v>
       </c>
     </row>
@@ -10865,49 +10585,49 @@
       <c r="B7" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="99">
+      <c r="C7" s="89">
         <v>23</v>
       </c>
-      <c r="D7" s="99">
+      <c r="D7" s="89">
         <v>5797</v>
       </c>
-      <c r="E7" s="99">
+      <c r="E7" s="89">
         <v>1183</v>
       </c>
-      <c r="F7" s="99">
+      <c r="F7" s="89">
         <v>305</v>
       </c>
-      <c r="G7" s="99">
+      <c r="G7" s="89">
         <v>388</v>
       </c>
-      <c r="H7" s="99">
+      <c r="H7" s="89">
         <v>804</v>
       </c>
-      <c r="I7" s="99">
+      <c r="I7" s="89">
         <v>4131</v>
       </c>
-      <c r="J7" s="99">
+      <c r="J7" s="89">
         <v>6742</v>
       </c>
-      <c r="K7" s="99">
+      <c r="K7" s="89">
         <v>667</v>
       </c>
-      <c r="L7" s="99">
+      <c r="L7" s="89">
         <v>4438</v>
       </c>
-      <c r="M7" s="99">
+      <c r="M7" s="89">
         <v>808</v>
       </c>
-      <c r="N7" s="99">
+      <c r="N7" s="89">
         <v>3238</v>
       </c>
-      <c r="O7" s="99">
+      <c r="O7" s="89">
         <v>4478</v>
       </c>
-      <c r="P7" s="99">
+      <c r="P7" s="89">
         <v>666</v>
       </c>
-      <c r="Q7" s="99">
+      <c r="Q7" s="89">
         <v>1087</v>
       </c>
     </row>
@@ -10918,49 +10638,49 @@
       <c r="B8" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="99">
+      <c r="C8" s="89">
         <v>16</v>
       </c>
-      <c r="D8" s="99">
+      <c r="D8" s="89">
         <v>5576</v>
       </c>
-      <c r="E8" s="99">
+      <c r="E8" s="89">
         <v>1297</v>
       </c>
-      <c r="F8" s="99">
+      <c r="F8" s="89">
         <v>326</v>
       </c>
-      <c r="G8" s="99">
+      <c r="G8" s="89">
         <v>420</v>
       </c>
-      <c r="H8" s="99">
+      <c r="H8" s="89">
         <v>755</v>
       </c>
-      <c r="I8" s="99">
+      <c r="I8" s="89">
         <v>3709</v>
       </c>
-      <c r="J8" s="99">
+      <c r="J8" s="89">
         <v>5338</v>
       </c>
-      <c r="K8" s="99">
+      <c r="K8" s="89">
         <v>726</v>
       </c>
-      <c r="L8" s="99">
+      <c r="L8" s="89">
         <v>4731</v>
       </c>
-      <c r="M8" s="99">
+      <c r="M8" s="89">
         <v>786</v>
       </c>
-      <c r="N8" s="99">
+      <c r="N8" s="89">
         <v>2981</v>
       </c>
-      <c r="O8" s="99">
+      <c r="O8" s="89">
         <v>3897</v>
       </c>
-      <c r="P8" s="99">
+      <c r="P8" s="89">
         <v>567</v>
       </c>
-      <c r="Q8" s="99">
+      <c r="Q8" s="89">
         <v>1072</v>
       </c>
     </row>
@@ -10971,49 +10691,49 @@
       <c r="B9" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="99">
+      <c r="C9" s="89">
         <v>18</v>
       </c>
-      <c r="D9" s="99">
+      <c r="D9" s="89">
         <v>5591</v>
       </c>
-      <c r="E9" s="99">
+      <c r="E9" s="89">
         <v>1228</v>
       </c>
-      <c r="F9" s="99">
+      <c r="F9" s="89">
         <v>327</v>
       </c>
-      <c r="G9" s="99">
+      <c r="G9" s="89">
         <v>414</v>
       </c>
-      <c r="H9" s="99">
+      <c r="H9" s="89">
         <v>743</v>
       </c>
-      <c r="I9" s="99">
+      <c r="I9" s="89">
         <v>3779</v>
       </c>
-      <c r="J9" s="99">
+      <c r="J9" s="89">
         <v>5134</v>
       </c>
-      <c r="K9" s="99">
+      <c r="K9" s="89">
         <v>602</v>
       </c>
-      <c r="L9" s="99">
+      <c r="L9" s="89">
         <v>4484</v>
       </c>
-      <c r="M9" s="99">
+      <c r="M9" s="89">
         <v>817</v>
       </c>
-      <c r="N9" s="99">
+      <c r="N9" s="89">
         <v>2940</v>
       </c>
-      <c r="O9" s="99">
+      <c r="O9" s="89">
         <v>4124</v>
       </c>
-      <c r="P9" s="99">
+      <c r="P9" s="89">
         <v>561</v>
       </c>
-      <c r="Q9" s="99">
+      <c r="Q9" s="89">
         <v>1039</v>
       </c>
     </row>
@@ -11024,49 +10744,49 @@
       <c r="B10" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="99">
+      <c r="C10" s="89">
         <v>20</v>
       </c>
-      <c r="D10" s="99">
+      <c r="D10" s="89">
         <v>5741</v>
       </c>
-      <c r="E10" s="99">
+      <c r="E10" s="89">
         <v>1176</v>
       </c>
-      <c r="F10" s="99">
+      <c r="F10" s="89">
         <v>359</v>
       </c>
-      <c r="G10" s="99">
+      <c r="G10" s="89">
         <v>414</v>
       </c>
-      <c r="H10" s="99">
+      <c r="H10" s="89">
         <v>842</v>
       </c>
-      <c r="I10" s="99">
+      <c r="I10" s="89">
         <v>3745</v>
       </c>
-      <c r="J10" s="99">
+      <c r="J10" s="89">
         <v>4870</v>
       </c>
-      <c r="K10" s="99">
+      <c r="K10" s="89">
         <v>561</v>
       </c>
-      <c r="L10" s="99">
+      <c r="L10" s="89">
         <v>4502</v>
       </c>
-      <c r="M10" s="99">
+      <c r="M10" s="89">
         <v>827</v>
       </c>
-      <c r="N10" s="99">
+      <c r="N10" s="89">
         <v>2751</v>
       </c>
-      <c r="O10" s="99">
+      <c r="O10" s="89">
         <v>3794</v>
       </c>
-      <c r="P10" s="99">
+      <c r="P10" s="89">
         <v>431</v>
       </c>
-      <c r="Q10" s="99">
+      <c r="Q10" s="89">
         <v>818</v>
       </c>
     </row>
@@ -11077,49 +10797,49 @@
       <c r="B11" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="99">
+      <c r="C11" s="89">
         <v>22</v>
       </c>
-      <c r="D11" s="99">
+      <c r="D11" s="89">
         <v>6050</v>
       </c>
-      <c r="E11" s="99">
+      <c r="E11" s="89">
         <v>1205</v>
       </c>
-      <c r="F11" s="99">
+      <c r="F11" s="89">
         <v>213</v>
       </c>
-      <c r="G11" s="99">
+      <c r="G11" s="89">
         <v>310</v>
       </c>
-      <c r="H11" s="99">
+      <c r="H11" s="89">
         <v>1032</v>
       </c>
-      <c r="I11" s="99">
+      <c r="I11" s="89">
         <v>3641</v>
       </c>
-      <c r="J11" s="99">
+      <c r="J11" s="89">
         <v>4838</v>
       </c>
-      <c r="K11" s="99">
+      <c r="K11" s="89">
         <v>612</v>
       </c>
-      <c r="L11" s="99">
+      <c r="L11" s="89">
         <v>4180</v>
       </c>
-      <c r="M11" s="99">
+      <c r="M11" s="89">
         <v>1039</v>
       </c>
-      <c r="N11" s="99">
+      <c r="N11" s="89">
         <v>2579</v>
       </c>
-      <c r="O11" s="99">
+      <c r="O11" s="89">
         <v>3654</v>
       </c>
-      <c r="P11" s="99">
+      <c r="P11" s="89">
         <v>459</v>
       </c>
-      <c r="Q11" s="99">
+      <c r="Q11" s="89">
         <v>809</v>
       </c>
     </row>
@@ -11130,49 +10850,49 @@
       <c r="B12" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C12" s="99">
+      <c r="C12" s="89">
         <v>25</v>
       </c>
-      <c r="D12" s="99">
+      <c r="D12" s="89">
         <v>5844</v>
       </c>
-      <c r="E12" s="99">
+      <c r="E12" s="89">
         <v>1141</v>
       </c>
-      <c r="F12" s="99">
+      <c r="F12" s="89">
         <v>197</v>
       </c>
-      <c r="G12" s="99">
+      <c r="G12" s="89">
         <v>281</v>
       </c>
-      <c r="H12" s="99">
+      <c r="H12" s="89">
         <v>1204</v>
       </c>
-      <c r="I12" s="99">
+      <c r="I12" s="89">
         <v>3277</v>
       </c>
-      <c r="J12" s="99">
+      <c r="J12" s="89">
         <v>4086</v>
       </c>
-      <c r="K12" s="99">
+      <c r="K12" s="89">
         <v>604</v>
       </c>
-      <c r="L12" s="99">
+      <c r="L12" s="89">
         <v>3927</v>
       </c>
-      <c r="M12" s="99">
+      <c r="M12" s="89">
         <v>1050</v>
       </c>
-      <c r="N12" s="99">
+      <c r="N12" s="89">
         <v>2292</v>
       </c>
-      <c r="O12" s="99">
+      <c r="O12" s="89">
         <v>3102</v>
       </c>
-      <c r="P12" s="99">
+      <c r="P12" s="89">
         <v>424</v>
       </c>
-      <c r="Q12" s="99">
+      <c r="Q12" s="89">
         <v>688</v>
       </c>
     </row>
@@ -11183,49 +10903,49 @@
       <c r="B13" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C13" s="99">
+      <c r="C13" s="89">
         <v>43</v>
       </c>
-      <c r="D13" s="99">
+      <c r="D13" s="89">
         <v>5951</v>
       </c>
-      <c r="E13" s="99">
+      <c r="E13" s="89">
         <v>1154</v>
       </c>
-      <c r="F13" s="99">
+      <c r="F13" s="89">
         <v>130</v>
       </c>
-      <c r="G13" s="99">
+      <c r="G13" s="89">
         <v>325</v>
       </c>
-      <c r="H13" s="99">
+      <c r="H13" s="89">
         <v>1400</v>
       </c>
-      <c r="I13" s="99">
+      <c r="I13" s="89">
         <v>3067</v>
       </c>
-      <c r="J13" s="99">
+      <c r="J13" s="89">
         <v>3901</v>
       </c>
-      <c r="K13" s="99">
+      <c r="K13" s="89">
         <v>556</v>
       </c>
-      <c r="L13" s="99">
+      <c r="L13" s="89">
         <v>3831</v>
       </c>
-      <c r="M13" s="99">
+      <c r="M13" s="89">
         <v>1120</v>
       </c>
-      <c r="N13" s="99">
+      <c r="N13" s="89">
         <v>2181</v>
       </c>
-      <c r="O13" s="99">
+      <c r="O13" s="89">
         <v>2896</v>
       </c>
-      <c r="P13" s="99">
+      <c r="P13" s="89">
         <v>382</v>
       </c>
-      <c r="Q13" s="99">
+      <c r="Q13" s="89">
         <v>779</v>
       </c>
     </row>
@@ -11236,49 +10956,49 @@
       <c r="B14" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="100">
+      <c r="C14" s="90">
         <v>37</v>
       </c>
-      <c r="D14" s="100">
+      <c r="D14" s="90">
         <v>6181</v>
       </c>
-      <c r="E14" s="100">
+      <c r="E14" s="90">
         <v>1190</v>
       </c>
-      <c r="F14" s="100">
+      <c r="F14" s="90">
         <v>186</v>
       </c>
-      <c r="G14" s="100">
+      <c r="G14" s="90">
         <v>322</v>
       </c>
-      <c r="H14" s="100">
+      <c r="H14" s="90">
         <v>1126</v>
       </c>
-      <c r="I14" s="100">
+      <c r="I14" s="90">
         <v>2765</v>
       </c>
-      <c r="J14" s="100">
+      <c r="J14" s="90">
         <v>2967</v>
       </c>
-      <c r="K14" s="100">
+      <c r="K14" s="90">
         <v>534</v>
       </c>
-      <c r="L14" s="100">
+      <c r="L14" s="90">
         <v>2985</v>
       </c>
-      <c r="M14" s="100">
+      <c r="M14" s="90">
         <v>995</v>
       </c>
-      <c r="N14" s="100">
+      <c r="N14" s="90">
         <v>2173</v>
       </c>
-      <c r="O14" s="100">
+      <c r="O14" s="90">
         <v>2748</v>
       </c>
-      <c r="P14" s="100">
+      <c r="P14" s="90">
         <v>365</v>
       </c>
-      <c r="Q14" s="100">
+      <c r="Q14" s="90">
         <v>1037</v>
       </c>
     </row>
@@ -11289,49 +11009,49 @@
       <c r="B15" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C15" s="99">
+      <c r="C15" s="89">
         <v>3</v>
       </c>
-      <c r="D15" s="99">
+      <c r="D15" s="89">
         <v>3579</v>
       </c>
-      <c r="E15" s="99">
+      <c r="E15" s="89">
         <v>106</v>
       </c>
-      <c r="F15" s="99">
+      <c r="F15" s="89">
         <v>31</v>
       </c>
-      <c r="G15" s="99">
+      <c r="G15" s="89">
         <v>142</v>
       </c>
-      <c r="H15" s="99">
+      <c r="H15" s="89">
         <v>288</v>
       </c>
-      <c r="I15" s="99">
+      <c r="I15" s="89">
         <v>1060</v>
       </c>
-      <c r="J15" s="99">
+      <c r="J15" s="89">
         <v>9078</v>
       </c>
-      <c r="K15" s="99">
+      <c r="K15" s="89">
         <v>401</v>
       </c>
-      <c r="L15" s="99">
+      <c r="L15" s="89">
         <v>771</v>
       </c>
-      <c r="M15" s="99">
+      <c r="M15" s="89">
         <v>120</v>
       </c>
-      <c r="N15" s="99">
+      <c r="N15" s="89">
         <v>1154</v>
       </c>
-      <c r="O15" s="99">
+      <c r="O15" s="89">
         <v>2847</v>
       </c>
-      <c r="P15" s="99">
+      <c r="P15" s="89">
         <v>441</v>
       </c>
-      <c r="Q15" s="99">
+      <c r="Q15" s="89">
         <v>296</v>
       </c>
     </row>
@@ -11342,49 +11062,49 @@
       <c r="B16" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="99">
+      <c r="C16" s="89">
         <v>7</v>
       </c>
-      <c r="D16" s="99">
+      <c r="D16" s="89">
         <v>3897</v>
       </c>
-      <c r="E16" s="99">
+      <c r="E16" s="89">
         <v>119</v>
       </c>
-      <c r="F16" s="99">
+      <c r="F16" s="89">
         <v>44</v>
       </c>
-      <c r="G16" s="99">
+      <c r="G16" s="89">
         <v>182</v>
       </c>
-      <c r="H16" s="99">
+      <c r="H16" s="89">
         <v>270</v>
       </c>
-      <c r="I16" s="99">
+      <c r="I16" s="89">
         <v>1091</v>
       </c>
-      <c r="J16" s="99">
+      <c r="J16" s="89">
         <v>10097</v>
       </c>
-      <c r="K16" s="99">
+      <c r="K16" s="89">
         <v>399</v>
       </c>
-      <c r="L16" s="99">
+      <c r="L16" s="89">
         <v>839</v>
       </c>
-      <c r="M16" s="99">
+      <c r="M16" s="89">
         <v>108</v>
       </c>
-      <c r="N16" s="99">
+      <c r="N16" s="89">
         <v>1030</v>
       </c>
-      <c r="O16" s="99">
+      <c r="O16" s="89">
         <v>2660</v>
       </c>
-      <c r="P16" s="99">
+      <c r="P16" s="89">
         <v>389</v>
       </c>
-      <c r="Q16" s="99">
+      <c r="Q16" s="89">
         <v>503</v>
       </c>
     </row>
@@ -11395,49 +11115,49 @@
       <c r="B17" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C17" s="99">
+      <c r="C17" s="89">
         <v>8</v>
       </c>
-      <c r="D17" s="99">
+      <c r="D17" s="89">
         <v>4110</v>
       </c>
-      <c r="E17" s="99">
+      <c r="E17" s="89">
         <v>101</v>
       </c>
-      <c r="F17" s="99">
+      <c r="F17" s="89">
         <v>41</v>
       </c>
-      <c r="G17" s="99">
+      <c r="G17" s="89">
         <v>154</v>
       </c>
-      <c r="H17" s="99">
+      <c r="H17" s="89">
         <v>273</v>
       </c>
-      <c r="I17" s="99">
+      <c r="I17" s="89">
         <v>946</v>
       </c>
-      <c r="J17" s="99">
+      <c r="J17" s="89">
         <v>9175</v>
       </c>
-      <c r="K17" s="99">
+      <c r="K17" s="89">
         <v>335</v>
       </c>
-      <c r="L17" s="99">
+      <c r="L17" s="89">
         <v>847</v>
       </c>
-      <c r="M17" s="99">
+      <c r="M17" s="89">
         <v>133</v>
       </c>
-      <c r="N17" s="99">
+      <c r="N17" s="89">
         <v>922</v>
       </c>
-      <c r="O17" s="99">
+      <c r="O17" s="89">
         <v>2533</v>
       </c>
-      <c r="P17" s="99">
+      <c r="P17" s="89">
         <v>369</v>
       </c>
-      <c r="Q17" s="99">
+      <c r="Q17" s="89">
         <v>722</v>
       </c>
     </row>
@@ -11448,49 +11168,49 @@
       <c r="B18" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C18" s="99">
+      <c r="C18" s="89">
         <v>9</v>
       </c>
-      <c r="D18" s="99">
+      <c r="D18" s="89">
         <v>3487</v>
       </c>
-      <c r="E18" s="99">
+      <c r="E18" s="89">
         <v>150</v>
       </c>
-      <c r="F18" s="99">
+      <c r="F18" s="89">
         <v>41</v>
       </c>
-      <c r="G18" s="99">
+      <c r="G18" s="89">
         <v>132</v>
       </c>
-      <c r="H18" s="99">
+      <c r="H18" s="89">
         <v>231</v>
       </c>
-      <c r="I18" s="99">
+      <c r="I18" s="89">
         <v>874</v>
       </c>
-      <c r="J18" s="99">
+      <c r="J18" s="89">
         <v>8140</v>
       </c>
-      <c r="K18" s="99">
+      <c r="K18" s="89">
         <v>217</v>
       </c>
-      <c r="L18" s="99">
+      <c r="L18" s="89">
         <v>862</v>
       </c>
-      <c r="M18" s="99">
+      <c r="M18" s="89">
         <v>94</v>
       </c>
-      <c r="N18" s="99">
+      <c r="N18" s="89">
         <v>878</v>
       </c>
-      <c r="O18" s="99">
+      <c r="O18" s="89">
         <v>1883</v>
       </c>
-      <c r="P18" s="99">
+      <c r="P18" s="89">
         <v>288</v>
       </c>
-      <c r="Q18" s="99">
+      <c r="Q18" s="89">
         <v>842</v>
       </c>
     </row>
@@ -11501,49 +11221,49 @@
       <c r="B19" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C19" s="99">
+      <c r="C19" s="89">
         <v>6</v>
       </c>
-      <c r="D19" s="99">
+      <c r="D19" s="89">
         <v>3115</v>
       </c>
-      <c r="E19" s="99">
+      <c r="E19" s="89">
         <v>196</v>
       </c>
-      <c r="F19" s="99">
+      <c r="F19" s="89">
         <v>31</v>
       </c>
-      <c r="G19" s="99">
+      <c r="G19" s="89">
         <v>148</v>
       </c>
-      <c r="H19" s="99">
+      <c r="H19" s="89">
         <v>262</v>
       </c>
-      <c r="I19" s="99">
+      <c r="I19" s="89">
         <v>759</v>
       </c>
-      <c r="J19" s="99">
+      <c r="J19" s="89">
         <v>6397</v>
       </c>
-      <c r="K19" s="99">
+      <c r="K19" s="89">
         <v>251</v>
       </c>
-      <c r="L19" s="99">
+      <c r="L19" s="89">
         <v>955</v>
       </c>
-      <c r="M19" s="99">
+      <c r="M19" s="89">
         <v>99</v>
       </c>
-      <c r="N19" s="99">
+      <c r="N19" s="89">
         <v>772</v>
       </c>
-      <c r="O19" s="99">
+      <c r="O19" s="89">
         <v>1649</v>
       </c>
-      <c r="P19" s="99">
+      <c r="P19" s="89">
         <v>284</v>
       </c>
-      <c r="Q19" s="99">
+      <c r="Q19" s="89">
         <v>1142</v>
       </c>
     </row>
@@ -11554,49 +11274,49 @@
       <c r="B20" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="99">
+      <c r="C20" s="89">
         <v>4</v>
       </c>
-      <c r="D20" s="99">
+      <c r="D20" s="89">
         <v>2863</v>
       </c>
-      <c r="E20" s="99">
+      <c r="E20" s="89">
         <v>348</v>
       </c>
-      <c r="F20" s="99">
+      <c r="F20" s="89">
         <v>32</v>
       </c>
-      <c r="G20" s="99">
+      <c r="G20" s="89">
         <v>145</v>
       </c>
-      <c r="H20" s="99">
+      <c r="H20" s="89">
         <v>244</v>
       </c>
-      <c r="I20" s="99">
+      <c r="I20" s="89">
         <v>745</v>
       </c>
-      <c r="J20" s="99">
+      <c r="J20" s="89">
         <v>4339</v>
       </c>
-      <c r="K20" s="99">
+      <c r="K20" s="89">
         <v>313</v>
       </c>
-      <c r="L20" s="99">
+      <c r="L20" s="89">
         <v>1105</v>
       </c>
-      <c r="M20" s="99">
+      <c r="M20" s="89">
         <v>93</v>
       </c>
-      <c r="N20" s="99">
+      <c r="N20" s="89">
         <v>691</v>
       </c>
-      <c r="O20" s="99">
+      <c r="O20" s="89">
         <v>1537</v>
       </c>
-      <c r="P20" s="99">
+      <c r="P20" s="89">
         <v>306</v>
       </c>
-      <c r="Q20" s="99">
+      <c r="Q20" s="89">
         <v>325</v>
       </c>
     </row>
@@ -11607,49 +11327,49 @@
       <c r="B21" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="99">
+      <c r="C21" s="89">
         <v>10</v>
       </c>
-      <c r="D21" s="99">
+      <c r="D21" s="89">
         <v>2762</v>
       </c>
-      <c r="E21" s="99">
+      <c r="E21" s="89">
         <v>417</v>
       </c>
-      <c r="F21" s="99">
+      <c r="F21" s="89">
         <v>24</v>
       </c>
-      <c r="G21" s="99">
+      <c r="G21" s="89">
         <v>139</v>
       </c>
-      <c r="H21" s="99">
+      <c r="H21" s="89">
         <v>191</v>
       </c>
-      <c r="I21" s="99">
+      <c r="I21" s="89">
         <v>736</v>
       </c>
-      <c r="J21" s="99">
+      <c r="J21" s="89">
         <v>3615</v>
       </c>
-      <c r="K21" s="99">
+      <c r="K21" s="89">
         <v>355</v>
       </c>
-      <c r="L21" s="99">
+      <c r="L21" s="89">
         <v>1289</v>
       </c>
-      <c r="M21" s="99">
+      <c r="M21" s="89">
         <v>104</v>
       </c>
-      <c r="N21" s="99">
+      <c r="N21" s="89">
         <v>703</v>
       </c>
-      <c r="O21" s="99">
+      <c r="O21" s="89">
         <v>1401</v>
       </c>
-      <c r="P21" s="99">
+      <c r="P21" s="89">
         <v>239</v>
       </c>
-      <c r="Q21" s="99">
+      <c r="Q21" s="89">
         <v>266</v>
       </c>
     </row>
@@ -11660,49 +11380,49 @@
       <c r="B22" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="99">
+      <c r="C22" s="89">
         <v>4</v>
       </c>
-      <c r="D22" s="99">
+      <c r="D22" s="89">
         <v>2892</v>
       </c>
-      <c r="E22" s="99">
+      <c r="E22" s="89">
         <v>440</v>
       </c>
-      <c r="F22" s="99">
+      <c r="F22" s="89">
         <v>39</v>
       </c>
-      <c r="G22" s="99">
+      <c r="G22" s="89">
         <v>123</v>
       </c>
-      <c r="H22" s="99">
+      <c r="H22" s="89">
         <v>160</v>
       </c>
-      <c r="I22" s="99">
+      <c r="I22" s="89">
         <v>762</v>
       </c>
-      <c r="J22" s="99">
+      <c r="J22" s="89">
         <v>3870</v>
       </c>
-      <c r="K22" s="99">
+      <c r="K22" s="89">
         <v>327</v>
       </c>
-      <c r="L22" s="99">
+      <c r="L22" s="89">
         <v>1326</v>
       </c>
-      <c r="M22" s="99">
+      <c r="M22" s="89">
         <v>113</v>
       </c>
-      <c r="N22" s="99">
+      <c r="N22" s="89">
         <v>654</v>
       </c>
-      <c r="O22" s="99">
+      <c r="O22" s="89">
         <v>1388</v>
       </c>
-      <c r="P22" s="99">
+      <c r="P22" s="89">
         <v>278</v>
       </c>
-      <c r="Q22" s="99">
+      <c r="Q22" s="89">
         <v>226</v>
       </c>
     </row>
@@ -11713,49 +11433,49 @@
       <c r="B23" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C23" s="99">
+      <c r="C23" s="89">
         <v>3</v>
       </c>
-      <c r="D23" s="99">
+      <c r="D23" s="89">
         <v>3021</v>
       </c>
-      <c r="E23" s="99">
+      <c r="E23" s="89">
         <v>307</v>
       </c>
-      <c r="F23" s="99">
+      <c r="F23" s="89">
         <v>45</v>
       </c>
-      <c r="G23" s="99">
+      <c r="G23" s="89">
         <v>136</v>
       </c>
-      <c r="H23" s="99">
+      <c r="H23" s="89">
         <v>185</v>
       </c>
-      <c r="I23" s="99">
+      <c r="I23" s="89">
         <v>801</v>
       </c>
-      <c r="J23" s="99">
+      <c r="J23" s="89">
         <v>3843</v>
       </c>
-      <c r="K23" s="99">
+      <c r="K23" s="89">
         <v>298</v>
       </c>
-      <c r="L23" s="99">
+      <c r="L23" s="89">
         <v>1251</v>
       </c>
-      <c r="M23" s="99">
+      <c r="M23" s="89">
         <v>88</v>
       </c>
-      <c r="N23" s="99">
+      <c r="N23" s="89">
         <v>616</v>
       </c>
-      <c r="O23" s="99">
+      <c r="O23" s="89">
         <v>1480</v>
       </c>
-      <c r="P23" s="99">
+      <c r="P23" s="89">
         <v>176</v>
       </c>
-      <c r="Q23" s="99">
+      <c r="Q23" s="89">
         <v>205</v>
       </c>
     </row>
@@ -11766,49 +11486,49 @@
       <c r="B24" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C24" s="99">
+      <c r="C24" s="89">
         <v>6</v>
       </c>
-      <c r="D24" s="99">
+      <c r="D24" s="89">
         <v>3371</v>
       </c>
-      <c r="E24" s="99">
+      <c r="E24" s="89">
         <v>279</v>
       </c>
-      <c r="F24" s="99">
+      <c r="F24" s="89">
         <v>42</v>
       </c>
-      <c r="G24" s="99">
+      <c r="G24" s="89">
         <v>83</v>
       </c>
-      <c r="H24" s="99">
+      <c r="H24" s="89">
         <v>218</v>
       </c>
-      <c r="I24" s="99">
+      <c r="I24" s="89">
         <v>804</v>
       </c>
-      <c r="J24" s="99">
+      <c r="J24" s="89">
         <v>3599</v>
       </c>
-      <c r="K24" s="99">
+      <c r="K24" s="89">
         <v>324</v>
       </c>
-      <c r="L24" s="99">
+      <c r="L24" s="89">
         <v>1282</v>
       </c>
-      <c r="M24" s="99">
+      <c r="M24" s="89">
         <v>156</v>
       </c>
-      <c r="N24" s="99">
+      <c r="N24" s="89">
         <v>640</v>
       </c>
-      <c r="O24" s="99">
+      <c r="O24" s="89">
         <v>1212</v>
       </c>
-      <c r="P24" s="99">
+      <c r="P24" s="89">
         <v>234</v>
       </c>
-      <c r="Q24" s="99">
+      <c r="Q24" s="89">
         <v>185</v>
       </c>
     </row>
@@ -11819,49 +11539,49 @@
       <c r="B25" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C25" s="99">
+      <c r="C25" s="89">
         <v>3</v>
       </c>
-      <c r="D25" s="99">
+      <c r="D25" s="89">
         <v>3568</v>
       </c>
-      <c r="E25" s="99">
+      <c r="E25" s="89">
         <v>215</v>
       </c>
-      <c r="F25" s="99">
+      <c r="F25" s="89">
         <v>33</v>
       </c>
-      <c r="G25" s="99">
+      <c r="G25" s="89">
         <v>108</v>
       </c>
-      <c r="H25" s="99">
+      <c r="H25" s="89">
         <v>318</v>
       </c>
-      <c r="I25" s="99">
+      <c r="I25" s="89">
         <v>758</v>
       </c>
-      <c r="J25" s="99">
+      <c r="J25" s="89">
         <v>3401</v>
       </c>
-      <c r="K25" s="99">
+      <c r="K25" s="89">
         <v>320</v>
       </c>
-      <c r="L25" s="99">
+      <c r="L25" s="89">
         <v>1294</v>
       </c>
-      <c r="M25" s="99">
+      <c r="M25" s="89">
         <v>124</v>
       </c>
-      <c r="N25" s="99">
+      <c r="N25" s="89">
         <v>588</v>
       </c>
-      <c r="O25" s="99">
+      <c r="O25" s="89">
         <v>1166</v>
       </c>
-      <c r="P25" s="99">
+      <c r="P25" s="89">
         <v>224</v>
       </c>
-      <c r="Q25" s="99">
+      <c r="Q25" s="89">
         <v>187</v>
       </c>
     </row>
@@ -11872,49 +11592,49 @@
       <c r="B26" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C26" s="99">
+      <c r="C26" s="89">
         <v>6</v>
       </c>
-      <c r="D26" s="99">
+      <c r="D26" s="89">
         <v>3481</v>
       </c>
-      <c r="E26" s="99">
+      <c r="E26" s="89">
         <v>247</v>
       </c>
-      <c r="F26" s="99">
+      <c r="F26" s="89">
         <v>20</v>
       </c>
-      <c r="G26" s="99">
+      <c r="G26" s="89">
         <v>103</v>
       </c>
-      <c r="H26" s="99">
+      <c r="H26" s="89">
         <v>369</v>
       </c>
-      <c r="I26" s="99">
+      <c r="I26" s="89">
         <v>688</v>
       </c>
-      <c r="J26" s="99">
+      <c r="J26" s="89">
         <v>2739</v>
       </c>
-      <c r="K26" s="99">
+      <c r="K26" s="89">
         <v>270</v>
       </c>
-      <c r="L26" s="99">
+      <c r="L26" s="89">
         <v>1282</v>
       </c>
-      <c r="M26" s="99">
+      <c r="M26" s="89">
         <v>140</v>
       </c>
-      <c r="N26" s="99">
+      <c r="N26" s="89">
         <v>530</v>
       </c>
-      <c r="O26" s="99">
+      <c r="O26" s="89">
         <v>1098</v>
       </c>
-      <c r="P26" s="99">
+      <c r="P26" s="89">
         <v>191</v>
       </c>
-      <c r="Q26" s="99">
+      <c r="Q26" s="89">
         <v>230</v>
       </c>
     </row>
@@ -11925,66 +11645,740 @@
       <c r="B27" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C27" s="100">
+      <c r="C27" s="90">
         <v>6</v>
       </c>
-      <c r="D27" s="100">
+      <c r="D27" s="90">
         <v>3662</v>
       </c>
-      <c r="E27" s="100">
+      <c r="E27" s="90">
         <v>267</v>
       </c>
-      <c r="F27" s="100">
+      <c r="F27" s="90">
         <v>33</v>
       </c>
-      <c r="G27" s="100">
+      <c r="G27" s="90">
         <v>105</v>
       </c>
-      <c r="H27" s="100">
+      <c r="H27" s="90">
         <v>303</v>
       </c>
-      <c r="I27" s="100">
+      <c r="I27" s="90">
         <v>605</v>
       </c>
-      <c r="J27" s="100">
+      <c r="J27" s="90">
         <v>2234</v>
       </c>
-      <c r="K27" s="100">
+      <c r="K27" s="90">
         <v>206</v>
       </c>
-      <c r="L27" s="100">
+      <c r="L27" s="90">
         <v>1094</v>
       </c>
-      <c r="M27" s="100">
+      <c r="M27" s="90">
         <v>109</v>
       </c>
-      <c r="N27" s="100">
+      <c r="N27" s="90">
         <v>585</v>
       </c>
-      <c r="O27" s="100">
+      <c r="O27" s="90">
         <v>1063</v>
       </c>
-      <c r="P27" s="100">
+      <c r="P27" s="90">
         <v>193</v>
       </c>
-      <c r="Q27" s="100">
+      <c r="Q27" s="90">
         <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="19"/>
+      <c r="A28" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="80">
+        <v>73</v>
+      </c>
+      <c r="D28" s="80">
+        <v>11765</v>
+      </c>
+      <c r="E28" s="80">
+        <v>1103</v>
+      </c>
+      <c r="F28" s="80">
+        <v>341</v>
+      </c>
+      <c r="G28" s="80">
+        <v>637</v>
+      </c>
+      <c r="H28" s="80">
+        <v>1444</v>
+      </c>
+      <c r="I28" s="80">
+        <v>7197</v>
+      </c>
+      <c r="J28" s="80">
+        <v>20885</v>
+      </c>
+      <c r="K28" s="80">
+        <v>976</v>
+      </c>
+      <c r="L28" s="80">
+        <v>3916</v>
+      </c>
+      <c r="M28" s="80">
+        <v>1482</v>
+      </c>
+      <c r="N28" s="80">
+        <v>7109</v>
+      </c>
+      <c r="O28" s="80">
+        <v>10733</v>
+      </c>
+      <c r="P28" s="80">
+        <v>1500</v>
+      </c>
+      <c r="Q28" s="80">
+        <v>1430</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="19"/>
+      <c r="A29" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C29" s="80">
+        <v>56</v>
+      </c>
+      <c r="D29" s="80">
+        <v>12257</v>
+      </c>
+      <c r="E29" s="80">
+        <v>1158</v>
+      </c>
+      <c r="F29" s="80">
+        <v>396</v>
+      </c>
+      <c r="G29" s="80">
+        <v>734</v>
+      </c>
+      <c r="H29" s="80">
+        <v>1635</v>
+      </c>
+      <c r="I29" s="80">
+        <v>7488</v>
+      </c>
+      <c r="J29" s="80">
+        <v>22868</v>
+      </c>
+      <c r="K29" s="80">
+        <v>960</v>
+      </c>
+      <c r="L29" s="80">
+        <v>4470</v>
+      </c>
+      <c r="M29" s="80">
+        <v>1542</v>
+      </c>
+      <c r="N29" s="80">
+        <v>6693</v>
+      </c>
+      <c r="O29" s="80">
+        <v>10435</v>
+      </c>
+      <c r="P29" s="80">
+        <v>1297</v>
+      </c>
+      <c r="Q29" s="80">
+        <v>1978</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="19"/>
+      <c r="A30" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="80">
+        <v>58</v>
+      </c>
+      <c r="D30" s="80">
+        <v>12020</v>
+      </c>
+      <c r="E30" s="80">
+        <v>1005</v>
+      </c>
+      <c r="F30" s="80">
+        <v>348</v>
+      </c>
+      <c r="G30" s="80">
+        <v>672</v>
+      </c>
+      <c r="H30" s="80">
+        <v>1595</v>
+      </c>
+      <c r="I30" s="80">
+        <v>7089</v>
+      </c>
+      <c r="J30" s="80">
+        <v>22397</v>
+      </c>
+      <c r="K30" s="80">
+        <v>798</v>
+      </c>
+      <c r="L30" s="80">
+        <v>4632</v>
+      </c>
+      <c r="M30" s="80">
+        <v>1361</v>
+      </c>
+      <c r="N30" s="80">
+        <v>6032</v>
+      </c>
+      <c r="O30" s="80">
+        <v>9592</v>
+      </c>
+      <c r="P30" s="80">
+        <v>1160</v>
+      </c>
+      <c r="Q30" s="80">
+        <v>2642</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="19"/>
+      <c r="A31" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C31" s="80">
+        <v>36</v>
+      </c>
+      <c r="D31" s="80">
+        <v>10371</v>
+      </c>
+      <c r="E31" s="80">
+        <v>1032</v>
+      </c>
+      <c r="F31" s="80">
+        <v>315</v>
+      </c>
+      <c r="G31" s="80">
+        <v>588</v>
+      </c>
+      <c r="H31" s="80">
+        <v>1293</v>
+      </c>
+      <c r="I31" s="80">
+        <v>6002</v>
+      </c>
+      <c r="J31" s="80">
+        <v>20901</v>
+      </c>
+      <c r="K31" s="80">
+        <v>628</v>
+      </c>
+      <c r="L31" s="80">
+        <v>4569</v>
+      </c>
+      <c r="M31" s="80">
+        <v>1153</v>
+      </c>
+      <c r="N31" s="80">
+        <v>5208</v>
+      </c>
+      <c r="O31" s="80">
+        <v>7519</v>
+      </c>
+      <c r="P31" s="80">
+        <v>966</v>
+      </c>
+      <c r="Q31" s="80">
+        <v>2944</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="19"/>
+      <c r="A32" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="80">
+        <v>38</v>
+      </c>
+      <c r="D32" s="80">
+        <v>9340</v>
+      </c>
+      <c r="E32" s="80">
+        <v>1193</v>
+      </c>
+      <c r="F32" s="80">
+        <v>327</v>
+      </c>
+      <c r="G32" s="80">
+        <v>533</v>
+      </c>
+      <c r="H32" s="80">
+        <v>1149</v>
+      </c>
+      <c r="I32" s="80">
+        <v>5233</v>
+      </c>
+      <c r="J32" s="80">
+        <v>17032</v>
+      </c>
+      <c r="K32" s="80">
+        <v>728</v>
+      </c>
+      <c r="L32" s="80">
+        <v>5072</v>
+      </c>
+      <c r="M32" s="80">
+        <v>1055</v>
+      </c>
+      <c r="N32" s="80">
+        <v>4736</v>
+      </c>
+      <c r="O32" s="80">
+        <v>6637</v>
+      </c>
+      <c r="P32" s="80">
+        <v>931</v>
+      </c>
+      <c r="Q32" s="80">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" s="80">
+        <v>28</v>
+      </c>
+      <c r="D33" s="80">
+        <v>8671</v>
+      </c>
+      <c r="E33" s="80">
+        <v>1531</v>
+      </c>
+      <c r="F33" s="80">
+        <v>336</v>
+      </c>
+      <c r="G33" s="80">
+        <v>534</v>
+      </c>
+      <c r="H33" s="80">
+        <v>1046</v>
+      </c>
+      <c r="I33" s="80">
+        <v>4884</v>
+      </c>
+      <c r="J33" s="80">
+        <v>11101</v>
+      </c>
+      <c r="K33" s="80">
+        <v>980</v>
+      </c>
+      <c r="L33" s="80">
+        <v>5551</v>
+      </c>
+      <c r="M33" s="80">
+        <v>893</v>
+      </c>
+      <c r="N33" s="80">
+        <v>3940</v>
+      </c>
+      <c r="O33" s="80">
+        <v>6027</v>
+      </c>
+      <c r="P33" s="80">
+        <v>975</v>
+      </c>
+      <c r="Q33" s="80">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" s="80">
+        <v>23</v>
+      </c>
+      <c r="D34" s="80">
+        <v>8352</v>
+      </c>
+      <c r="E34" s="80">
+        <v>1713</v>
+      </c>
+      <c r="F34" s="80">
+        <v>344</v>
+      </c>
+      <c r="G34" s="80">
+        <v>557</v>
+      </c>
+      <c r="H34" s="80">
+        <v>947</v>
+      </c>
+      <c r="I34" s="80">
+        <v>4449</v>
+      </c>
+      <c r="J34" s="80">
+        <v>8970</v>
+      </c>
+      <c r="K34" s="80">
+        <v>1077</v>
+      </c>
+      <c r="L34" s="80">
+        <v>6023</v>
+      </c>
+      <c r="M34" s="80">
+        <v>888</v>
+      </c>
+      <c r="N34" s="80">
+        <v>3694</v>
+      </c>
+      <c r="O34" s="80">
+        <v>5305</v>
+      </c>
+      <c r="P34" s="80">
+        <v>810</v>
+      </c>
+      <c r="Q34" s="80">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="80">
+        <v>23</v>
+      </c>
+      <c r="D35" s="80">
+        <v>8488</v>
+      </c>
+      <c r="E35" s="80">
+        <v>1671</v>
+      </c>
+      <c r="F35" s="80">
+        <v>368</v>
+      </c>
+      <c r="G35" s="80">
+        <v>538</v>
+      </c>
+      <c r="H35" s="80">
+        <v>906</v>
+      </c>
+      <c r="I35" s="80">
+        <v>4543</v>
+      </c>
+      <c r="J35" s="80">
+        <v>9022</v>
+      </c>
+      <c r="K35" s="80">
+        <v>929</v>
+      </c>
+      <c r="L35" s="80">
+        <v>5811</v>
+      </c>
+      <c r="M35" s="80">
+        <v>929</v>
+      </c>
+      <c r="N35" s="80">
+        <v>3607</v>
+      </c>
+      <c r="O35" s="80">
+        <v>5513</v>
+      </c>
+      <c r="P35" s="80">
+        <v>836</v>
+      </c>
+      <c r="Q35" s="80">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" s="80">
+        <v>24</v>
+      </c>
+      <c r="D36" s="80">
+        <v>8773</v>
+      </c>
+      <c r="E36" s="80">
+        <v>1487</v>
+      </c>
+      <c r="F36" s="80">
+        <v>401</v>
+      </c>
+      <c r="G36" s="80">
+        <v>555</v>
+      </c>
+      <c r="H36" s="80">
+        <v>1031</v>
+      </c>
+      <c r="I36" s="80">
+        <v>4554</v>
+      </c>
+      <c r="J36" s="80">
+        <v>8722</v>
+      </c>
+      <c r="K36" s="80">
+        <v>858</v>
+      </c>
+      <c r="L36" s="80">
+        <v>5757</v>
+      </c>
+      <c r="M36" s="80">
+        <v>914</v>
+      </c>
+      <c r="N36" s="80">
+        <v>3376</v>
+      </c>
+      <c r="O36" s="80">
+        <v>5285</v>
+      </c>
+      <c r="P36" s="80">
+        <v>608</v>
+      </c>
+      <c r="Q36" s="80">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" s="80">
+        <v>29</v>
+      </c>
+      <c r="D37" s="80">
+        <v>9429</v>
+      </c>
+      <c r="E37" s="80">
+        <v>1488</v>
+      </c>
+      <c r="F37" s="80">
+        <v>256</v>
+      </c>
+      <c r="G37" s="80">
+        <v>393</v>
+      </c>
+      <c r="H37" s="80">
+        <v>1253</v>
+      </c>
+      <c r="I37" s="80">
+        <v>4455</v>
+      </c>
+      <c r="J37" s="80">
+        <v>8450</v>
+      </c>
+      <c r="K37" s="80">
+        <v>939</v>
+      </c>
+      <c r="L37" s="80">
+        <v>5467</v>
+      </c>
+      <c r="M37" s="80">
+        <v>1198</v>
+      </c>
+      <c r="N37" s="80">
+        <v>3227</v>
+      </c>
+      <c r="O37" s="80">
+        <v>4873</v>
+      </c>
+      <c r="P37" s="80">
+        <v>690</v>
+      </c>
+      <c r="Q37" s="80">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" s="80">
+        <v>32</v>
+      </c>
+      <c r="D38" s="80">
+        <v>9437</v>
+      </c>
+      <c r="E38" s="80">
+        <v>1356</v>
+      </c>
+      <c r="F38" s="80">
+        <v>227</v>
+      </c>
+      <c r="G38" s="80">
+        <v>388</v>
+      </c>
+      <c r="H38" s="80">
+        <v>1521</v>
+      </c>
+      <c r="I38" s="80">
+        <v>4040</v>
+      </c>
+      <c r="J38" s="80">
+        <v>7501</v>
+      </c>
+      <c r="K38" s="80">
+        <v>917</v>
+      </c>
+      <c r="L38" s="80">
+        <v>5224</v>
+      </c>
+      <c r="M38" s="80">
+        <v>1182</v>
+      </c>
+      <c r="N38" s="80">
+        <v>2882</v>
+      </c>
+      <c r="O38" s="80">
+        <v>4282</v>
+      </c>
+      <c r="P38" s="80">
+        <v>653</v>
+      </c>
+      <c r="Q38" s="80">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" s="80">
+        <v>49</v>
+      </c>
+      <c r="D39" s="80">
+        <v>9447</v>
+      </c>
+      <c r="E39" s="80">
+        <v>1399</v>
+      </c>
+      <c r="F39" s="80">
+        <v>150</v>
+      </c>
+      <c r="G39" s="80">
+        <v>426</v>
+      </c>
+      <c r="H39" s="80">
+        <v>1780</v>
+      </c>
+      <c r="I39" s="80">
+        <v>3765</v>
+      </c>
+      <c r="J39" s="80">
+        <v>6657</v>
+      </c>
+      <c r="K39" s="80">
+        <v>825</v>
+      </c>
+      <c r="L39" s="80">
+        <v>5121</v>
+      </c>
+      <c r="M39" s="80">
+        <v>1264</v>
+      </c>
+      <c r="N39" s="80">
+        <v>2717</v>
+      </c>
+      <c r="O39" s="80">
+        <v>4007</v>
+      </c>
+      <c r="P39" s="80">
+        <v>575</v>
+      </c>
+      <c r="Q39" s="80">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" s="81">
+        <v>42</v>
+      </c>
+      <c r="D40" s="81">
+        <v>9856</v>
+      </c>
+      <c r="E40" s="81">
+        <v>1460</v>
+      </c>
+      <c r="F40" s="81">
+        <v>217</v>
+      </c>
+      <c r="G40" s="81">
+        <v>427</v>
+      </c>
+      <c r="H40" s="81">
+        <v>1425</v>
+      </c>
+      <c r="I40" s="81">
+        <v>3377</v>
+      </c>
+      <c r="J40" s="81">
+        <v>5212</v>
+      </c>
+      <c r="K40" s="81">
+        <v>739</v>
+      </c>
+      <c r="L40" s="81">
+        <v>4088</v>
+      </c>
+      <c r="M40" s="81">
+        <v>1108</v>
+      </c>
+      <c r="N40" s="81">
+        <v>2766</v>
+      </c>
+      <c r="O40" s="81">
+        <v>3817</v>
+      </c>
+      <c r="P40" s="81">
+        <v>560</v>
+      </c>
+      <c r="Q40" s="81">
+        <v>1479</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12067,36 +12461,36 @@
     </row>
     <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="92" t="s">
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="92"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="92"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="93"/>
+      <c r="AA5" s="93"/>
     </row>
     <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
@@ -12183,34 +12577,34 @@
     </row>
     <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="72"/>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="95"/>
-      <c r="T7" s="95"/>
-      <c r="U7" s="95"/>
-      <c r="V7" s="95"/>
-      <c r="W7" s="95"/>
-      <c r="X7" s="95"/>
-      <c r="Y7" s="95"/>
-      <c r="Z7" s="95"/>
-      <c r="AA7" s="95"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="98"/>
     </row>
     <row r="8" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
@@ -24227,18 +24621,18 @@
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
     </row>
     <row r="6" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
@@ -24277,18 +24671,18 @@
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="72"/>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
     </row>
     <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
@@ -26017,18 +26411,18 @@
     </row>
     <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="72"/>
-      <c r="B59" s="95" t="s">
+      <c r="B59" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="C59" s="98"/>
-      <c r="D59" s="98"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="98"/>
-      <c r="G59" s="98"/>
-      <c r="H59" s="98"/>
-      <c r="I59" s="98"/>
-      <c r="J59" s="98"/>
-      <c r="K59" s="98"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="99"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="99"/>
+      <c r="H59" s="99"/>
+      <c r="I59" s="99"/>
+      <c r="J59" s="99"/>
+      <c r="K59" s="99"/>
     </row>
     <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="39" t="s">

--- a/Raw data/Recorded Crime - Offenders, 2020-21 files/Copy Youth offenders_detailed.xlsx
+++ b/Raw data/Recorded Crime - Offenders, 2020-21 files/Copy Youth offenders_detailed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hk_la\Documents\Project-1\Raw data\Recorded Crime - Offenders, 2020-21 files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F63D3E-98B4-4E80-BC4B-2CB9F5976A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50C7FA8-3AB1-42F7-9BD6-73A8ED2AAB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="458" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="199">
   <si>
     <r>
       <t>Summary</t>
@@ -657,9 +657,6 @@
   </si>
   <si>
     <t>Weapons_explosives</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -10251,8 +10248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D532A2CA-B0F7-4359-9615-49CBD13798EE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE44" sqref="AE44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11692,693 +11689,251 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="C28" s="80">
-        <v>73</v>
-      </c>
-      <c r="D28" s="80">
-        <v>11765</v>
-      </c>
-      <c r="E28" s="80">
-        <v>1103</v>
-      </c>
-      <c r="F28" s="80">
-        <v>341</v>
-      </c>
-      <c r="G28" s="80">
-        <v>637</v>
-      </c>
-      <c r="H28" s="80">
-        <v>1444</v>
-      </c>
-      <c r="I28" s="80">
-        <v>7197</v>
-      </c>
-      <c r="J28" s="80">
-        <v>20885</v>
-      </c>
-      <c r="K28" s="80">
-        <v>976</v>
-      </c>
-      <c r="L28" s="80">
-        <v>3916</v>
-      </c>
-      <c r="M28" s="80">
-        <v>1482</v>
-      </c>
-      <c r="N28" s="80">
-        <v>7109</v>
-      </c>
-      <c r="O28" s="80">
-        <v>10733</v>
-      </c>
-      <c r="P28" s="80">
-        <v>1500</v>
-      </c>
-      <c r="Q28" s="80">
-        <v>1430</v>
-      </c>
+      <c r="A28" s="37"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="80"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="C29" s="80">
-        <v>56</v>
-      </c>
-      <c r="D29" s="80">
-        <v>12257</v>
-      </c>
-      <c r="E29" s="80">
-        <v>1158</v>
-      </c>
-      <c r="F29" s="80">
-        <v>396</v>
-      </c>
-      <c r="G29" s="80">
-        <v>734</v>
-      </c>
-      <c r="H29" s="80">
-        <v>1635</v>
-      </c>
-      <c r="I29" s="80">
-        <v>7488</v>
-      </c>
-      <c r="J29" s="80">
-        <v>22868</v>
-      </c>
-      <c r="K29" s="80">
-        <v>960</v>
-      </c>
-      <c r="L29" s="80">
-        <v>4470</v>
-      </c>
-      <c r="M29" s="80">
-        <v>1542</v>
-      </c>
-      <c r="N29" s="80">
-        <v>6693</v>
-      </c>
-      <c r="O29" s="80">
-        <v>10435</v>
-      </c>
-      <c r="P29" s="80">
-        <v>1297</v>
-      </c>
-      <c r="Q29" s="80">
-        <v>1978</v>
-      </c>
+      <c r="A29" s="37"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="80"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="C30" s="80">
-        <v>58</v>
-      </c>
-      <c r="D30" s="80">
-        <v>12020</v>
-      </c>
-      <c r="E30" s="80">
-        <v>1005</v>
-      </c>
-      <c r="F30" s="80">
-        <v>348</v>
-      </c>
-      <c r="G30" s="80">
-        <v>672</v>
-      </c>
-      <c r="H30" s="80">
-        <v>1595</v>
-      </c>
-      <c r="I30" s="80">
-        <v>7089</v>
-      </c>
-      <c r="J30" s="80">
-        <v>22397</v>
-      </c>
-      <c r="K30" s="80">
-        <v>798</v>
-      </c>
-      <c r="L30" s="80">
-        <v>4632</v>
-      </c>
-      <c r="M30" s="80">
-        <v>1361</v>
-      </c>
-      <c r="N30" s="80">
-        <v>6032</v>
-      </c>
-      <c r="O30" s="80">
-        <v>9592</v>
-      </c>
-      <c r="P30" s="80">
-        <v>1160</v>
-      </c>
-      <c r="Q30" s="80">
-        <v>2642</v>
-      </c>
+      <c r="A30" s="37"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="80"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="C31" s="80">
-        <v>36</v>
-      </c>
-      <c r="D31" s="80">
-        <v>10371</v>
-      </c>
-      <c r="E31" s="80">
-        <v>1032</v>
-      </c>
-      <c r="F31" s="80">
-        <v>315</v>
-      </c>
-      <c r="G31" s="80">
-        <v>588</v>
-      </c>
-      <c r="H31" s="80">
-        <v>1293</v>
-      </c>
-      <c r="I31" s="80">
-        <v>6002</v>
-      </c>
-      <c r="J31" s="80">
-        <v>20901</v>
-      </c>
-      <c r="K31" s="80">
-        <v>628</v>
-      </c>
-      <c r="L31" s="80">
-        <v>4569</v>
-      </c>
-      <c r="M31" s="80">
-        <v>1153</v>
-      </c>
-      <c r="N31" s="80">
-        <v>5208</v>
-      </c>
-      <c r="O31" s="80">
-        <v>7519</v>
-      </c>
-      <c r="P31" s="80">
-        <v>966</v>
-      </c>
-      <c r="Q31" s="80">
-        <v>2944</v>
-      </c>
+      <c r="A31" s="37"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="80"/>
+      <c r="Q31" s="80"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="C32" s="80">
-        <v>38</v>
-      </c>
-      <c r="D32" s="80">
-        <v>9340</v>
-      </c>
-      <c r="E32" s="80">
-        <v>1193</v>
-      </c>
-      <c r="F32" s="80">
-        <v>327</v>
-      </c>
-      <c r="G32" s="80">
-        <v>533</v>
-      </c>
-      <c r="H32" s="80">
-        <v>1149</v>
-      </c>
-      <c r="I32" s="80">
-        <v>5233</v>
-      </c>
-      <c r="J32" s="80">
-        <v>17032</v>
-      </c>
-      <c r="K32" s="80">
-        <v>728</v>
-      </c>
-      <c r="L32" s="80">
-        <v>5072</v>
-      </c>
-      <c r="M32" s="80">
-        <v>1055</v>
-      </c>
-      <c r="N32" s="80">
-        <v>4736</v>
-      </c>
-      <c r="O32" s="80">
-        <v>6637</v>
-      </c>
-      <c r="P32" s="80">
-        <v>931</v>
-      </c>
-      <c r="Q32" s="80">
-        <v>4207</v>
-      </c>
+      <c r="A32" s="37"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="80"/>
+      <c r="Q32" s="80"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="C33" s="80">
-        <v>28</v>
-      </c>
-      <c r="D33" s="80">
-        <v>8671</v>
-      </c>
-      <c r="E33" s="80">
-        <v>1531</v>
-      </c>
-      <c r="F33" s="80">
-        <v>336</v>
-      </c>
-      <c r="G33" s="80">
-        <v>534</v>
-      </c>
-      <c r="H33" s="80">
-        <v>1046</v>
-      </c>
-      <c r="I33" s="80">
-        <v>4884</v>
-      </c>
-      <c r="J33" s="80">
-        <v>11101</v>
-      </c>
-      <c r="K33" s="80">
-        <v>980</v>
-      </c>
-      <c r="L33" s="80">
-        <v>5551</v>
-      </c>
-      <c r="M33" s="80">
-        <v>893</v>
-      </c>
-      <c r="N33" s="80">
-        <v>3940</v>
-      </c>
-      <c r="O33" s="80">
-        <v>6027</v>
-      </c>
-      <c r="P33" s="80">
-        <v>975</v>
-      </c>
-      <c r="Q33" s="80">
-        <v>1410</v>
-      </c>
+      <c r="A33" s="37"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="80"/>
+      <c r="Q33" s="80"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="C34" s="80">
-        <v>23</v>
-      </c>
-      <c r="D34" s="80">
-        <v>8352</v>
-      </c>
-      <c r="E34" s="80">
-        <v>1713</v>
-      </c>
-      <c r="F34" s="80">
-        <v>344</v>
-      </c>
-      <c r="G34" s="80">
-        <v>557</v>
-      </c>
-      <c r="H34" s="80">
-        <v>947</v>
-      </c>
-      <c r="I34" s="80">
-        <v>4449</v>
-      </c>
-      <c r="J34" s="80">
-        <v>8970</v>
-      </c>
-      <c r="K34" s="80">
-        <v>1077</v>
-      </c>
-      <c r="L34" s="80">
-        <v>6023</v>
-      </c>
-      <c r="M34" s="80">
-        <v>888</v>
-      </c>
-      <c r="N34" s="80">
-        <v>3694</v>
-      </c>
-      <c r="O34" s="80">
-        <v>5305</v>
-      </c>
-      <c r="P34" s="80">
-        <v>810</v>
-      </c>
-      <c r="Q34" s="80">
-        <v>1343</v>
-      </c>
+      <c r="A34" s="37"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="80"/>
+      <c r="Q34" s="80"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="C35" s="80">
-        <v>23</v>
-      </c>
-      <c r="D35" s="80">
-        <v>8488</v>
-      </c>
-      <c r="E35" s="80">
-        <v>1671</v>
-      </c>
-      <c r="F35" s="80">
-        <v>368</v>
-      </c>
-      <c r="G35" s="80">
-        <v>538</v>
-      </c>
-      <c r="H35" s="80">
-        <v>906</v>
-      </c>
-      <c r="I35" s="80">
-        <v>4543</v>
-      </c>
-      <c r="J35" s="80">
-        <v>9022</v>
-      </c>
-      <c r="K35" s="80">
-        <v>929</v>
-      </c>
-      <c r="L35" s="80">
-        <v>5811</v>
-      </c>
-      <c r="M35" s="80">
-        <v>929</v>
-      </c>
-      <c r="N35" s="80">
-        <v>3607</v>
-      </c>
-      <c r="O35" s="80">
-        <v>5513</v>
-      </c>
-      <c r="P35" s="80">
-        <v>836</v>
-      </c>
-      <c r="Q35" s="80">
-        <v>1267</v>
-      </c>
+      <c r="A35" s="37"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="80"/>
+      <c r="Q35" s="80"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="C36" s="80">
-        <v>24</v>
-      </c>
-      <c r="D36" s="80">
-        <v>8773</v>
-      </c>
-      <c r="E36" s="80">
-        <v>1487</v>
-      </c>
-      <c r="F36" s="80">
-        <v>401</v>
-      </c>
-      <c r="G36" s="80">
-        <v>555</v>
-      </c>
-      <c r="H36" s="80">
-        <v>1031</v>
-      </c>
-      <c r="I36" s="80">
-        <v>4554</v>
-      </c>
-      <c r="J36" s="80">
-        <v>8722</v>
-      </c>
-      <c r="K36" s="80">
-        <v>858</v>
-      </c>
-      <c r="L36" s="80">
-        <v>5757</v>
-      </c>
-      <c r="M36" s="80">
-        <v>914</v>
-      </c>
-      <c r="N36" s="80">
-        <v>3376</v>
-      </c>
-      <c r="O36" s="80">
-        <v>5285</v>
-      </c>
-      <c r="P36" s="80">
-        <v>608</v>
-      </c>
-      <c r="Q36" s="80">
-        <v>1026</v>
-      </c>
+      <c r="A36" s="74"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="80"/>
+      <c r="Q36" s="80"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="C37" s="80">
-        <v>29</v>
-      </c>
-      <c r="D37" s="80">
-        <v>9429</v>
-      </c>
-      <c r="E37" s="80">
-        <v>1488</v>
-      </c>
-      <c r="F37" s="80">
-        <v>256</v>
-      </c>
-      <c r="G37" s="80">
-        <v>393</v>
-      </c>
-      <c r="H37" s="80">
-        <v>1253</v>
-      </c>
-      <c r="I37" s="80">
-        <v>4455</v>
-      </c>
-      <c r="J37" s="80">
-        <v>8450</v>
-      </c>
-      <c r="K37" s="80">
-        <v>939</v>
-      </c>
-      <c r="L37" s="80">
-        <v>5467</v>
-      </c>
-      <c r="M37" s="80">
-        <v>1198</v>
-      </c>
-      <c r="N37" s="80">
-        <v>3227</v>
-      </c>
-      <c r="O37" s="80">
-        <v>4873</v>
-      </c>
-      <c r="P37" s="80">
-        <v>690</v>
-      </c>
-      <c r="Q37" s="80">
-        <v>994</v>
-      </c>
+      <c r="A37" s="74"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="80"/>
+      <c r="Q37" s="80"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="C38" s="80">
-        <v>32</v>
-      </c>
-      <c r="D38" s="80">
-        <v>9437</v>
-      </c>
-      <c r="E38" s="80">
-        <v>1356</v>
-      </c>
-      <c r="F38" s="80">
-        <v>227</v>
-      </c>
-      <c r="G38" s="80">
-        <v>388</v>
-      </c>
-      <c r="H38" s="80">
-        <v>1521</v>
-      </c>
-      <c r="I38" s="80">
-        <v>4040</v>
-      </c>
-      <c r="J38" s="80">
-        <v>7501</v>
-      </c>
-      <c r="K38" s="80">
-        <v>917</v>
-      </c>
-      <c r="L38" s="80">
-        <v>5224</v>
-      </c>
-      <c r="M38" s="80">
-        <v>1182</v>
-      </c>
-      <c r="N38" s="80">
-        <v>2882</v>
-      </c>
-      <c r="O38" s="80">
-        <v>4282</v>
-      </c>
-      <c r="P38" s="80">
-        <v>653</v>
-      </c>
-      <c r="Q38" s="80">
-        <v>878</v>
-      </c>
+      <c r="A38" s="74"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="80"/>
+      <c r="O38" s="80"/>
+      <c r="P38" s="80"/>
+      <c r="Q38" s="80"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="C39" s="80">
-        <v>49</v>
-      </c>
-      <c r="D39" s="80">
-        <v>9447</v>
-      </c>
-      <c r="E39" s="80">
-        <v>1399</v>
-      </c>
-      <c r="F39" s="80">
-        <v>150</v>
-      </c>
-      <c r="G39" s="80">
-        <v>426</v>
-      </c>
-      <c r="H39" s="80">
-        <v>1780</v>
-      </c>
-      <c r="I39" s="80">
-        <v>3765</v>
-      </c>
-      <c r="J39" s="80">
-        <v>6657</v>
-      </c>
-      <c r="K39" s="80">
-        <v>825</v>
-      </c>
-      <c r="L39" s="80">
-        <v>5121</v>
-      </c>
-      <c r="M39" s="80">
-        <v>1264</v>
-      </c>
-      <c r="N39" s="80">
-        <v>2717</v>
-      </c>
-      <c r="O39" s="80">
-        <v>4007</v>
-      </c>
-      <c r="P39" s="80">
-        <v>575</v>
-      </c>
-      <c r="Q39" s="80">
-        <v>1015</v>
-      </c>
+      <c r="A39" s="74"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="80"/>
+      <c r="M39" s="80"/>
+      <c r="N39" s="80"/>
+      <c r="O39" s="80"/>
+      <c r="P39" s="80"/>
+      <c r="Q39" s="80"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="C40" s="81">
-        <v>42</v>
-      </c>
-      <c r="D40" s="81">
-        <v>9856</v>
-      </c>
-      <c r="E40" s="81">
-        <v>1460</v>
-      </c>
-      <c r="F40" s="81">
-        <v>217</v>
-      </c>
-      <c r="G40" s="81">
-        <v>427</v>
-      </c>
-      <c r="H40" s="81">
-        <v>1425</v>
-      </c>
-      <c r="I40" s="81">
-        <v>3377</v>
-      </c>
-      <c r="J40" s="81">
-        <v>5212</v>
-      </c>
-      <c r="K40" s="81">
-        <v>739</v>
-      </c>
-      <c r="L40" s="81">
-        <v>4088</v>
-      </c>
-      <c r="M40" s="81">
-        <v>1108</v>
-      </c>
-      <c r="N40" s="81">
-        <v>2766</v>
-      </c>
-      <c r="O40" s="81">
-        <v>3817</v>
-      </c>
-      <c r="P40" s="81">
-        <v>560</v>
-      </c>
-      <c r="Q40" s="81">
-        <v>1479</v>
-      </c>
+      <c r="A40" s="75"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="81"/>
+      <c r="N40" s="81"/>
+      <c r="O40" s="81"/>
+      <c r="P40" s="81"/>
+      <c r="Q40" s="81"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
